--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_130.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_130.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d82684-Reviews-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>94</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Comfort-Inn-Woodland-Hills.h57250.Hotel-Information?chkin=6%2F18%2F2018&amp;chkout=6%2F19%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1528212801397&amp;cancellable=false&amp;regionId=178280&amp;vip=false&amp;c=ec7d9ebc-6020-458d-b163-40aadf63c44b&amp;mctc=9&amp;exp_dp=108.3&amp;exp_ts=1528212801993&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_130.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_130.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="374">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1024 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r556959057-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>82684</t>
+  </si>
+  <si>
+    <t>556959057</t>
+  </si>
+  <si>
+    <t>01/28/2018</t>
+  </si>
+  <si>
+    <t>Noisy, bright and a luke warm shower</t>
+  </si>
+  <si>
+    <t>Hotel is nestled between Ventura Blvd. and the 101 so you cannot escape the noise.  Don't be scared by the outside of this hotel.  It looks like a dump.  However my room was modern with all new furnishings and a brand new bathroom and a fantastic bed.  Why a 2 star? Because my room had vertical blinds that let light in all night long.  Why would a hotel in 2018 use cheap plastic vertical blinds that went out in 1980?  The outside halls are brightly lit so unless you have good shades (some of the rooms do) you cannot escape the light. I had to sleep on one side to avoid the light.  The owner of the hotel must of spent a fortune redoing the rooms why not add curtains?!  My shower was totally modern too bad it didn't have hot water.  On a positive note if light and luke warm water doesn't bother you this hotel is a steal for less then $100.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>ComfortInnWoodland, Guest Relations Manager at Comfort Inn Near Warner Center, responded to this reviewResponded January 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2018</t>
+  </si>
+  <si>
+    <t>Hotel is nestled between Ventura Blvd. and the 101 so you cannot escape the noise.  Don't be scared by the outside of this hotel.  It looks like a dump.  However my room was modern with all new furnishings and a brand new bathroom and a fantastic bed.  Why a 2 star? Because my room had vertical blinds that let light in all night long.  Why would a hotel in 2018 use cheap plastic vertical blinds that went out in 1980?  The outside halls are brightly lit so unless you have good shades (some of the rooms do) you cannot escape the light. I had to sleep on one side to avoid the light.  The owner of the hotel must of spent a fortune redoing the rooms why not add curtains?!  My shower was totally modern too bad it didn't have hot water.  On a positive note if light and luke warm water doesn't bother you this hotel is a steal for less then $100.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r547966021-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>547966021</t>
+  </si>
+  <si>
+    <t>12/18/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great stay love the location </t>
+  </si>
+  <si>
+    <t>I stayed at the Comfort inn on October for a week. The location was fantastic. Close to many restaurants , convenient stores and more. Close proximity to Santa Monica and other main attractions. I went down to Santa Monica Beach and loved the surroundings. 
+( The location to LAX airport was not too close. But I stayed away from LA areas. Many areas were in Engle wood marketed as LA. I didn’t have the time to do that much research into locations. So I went further up north yet not far from it all. For the location it was well valued. $150 night I paid at the time. Other areas close to LA were charging more and or less and had horrible reviews. They seemed run down and not safe. ) 
+This hotel seemed safe , secure with a great vibe to it. I loved that my room was on the second floor with an entrance from outside overlooking the outdoor pool area to enter it. 
+Gives it more of a cleaner fresh , private vibe. Building has a great floor plan as well with elevators and stairs leading into the back areas if you’re on the other side of the hotel. Only a couple of rooms on each side. I checked out the back area as well. It looked great. Always do a run down of the building wherever I travel. I like to know where all the exits...I stayed at the Comfort inn on October for a week. The location was fantastic. Close to many restaurants , convenient stores and more. Close proximity to Santa Monica and other main attractions. I went down to Santa Monica Beach and loved the surroundings. ( The location to LAX airport was not too close. But I stayed away from LA areas. Many areas were in Engle wood marketed as LA. I didn’t have the time to do that much research into locations. So I went further up north yet not far from it all. For the location it was well valued. $150 night I paid at the time. Other areas close to LA were charging more and or less and had horrible reviews. They seemed run down and not safe. ) This hotel seemed safe , secure with a great vibe to it. I loved that my room was on the second floor with an entrance from outside overlooking the outdoor pool area to enter it. Gives it more of a cleaner fresh , private vibe. Building has a great floor plan as well with elevators and stairs leading into the back areas if you’re on the other side of the hotel. Only a couple of rooms on each side. I checked out the back area as well. It looked great. Always do a run down of the building wherever I travel. I like to know where all the exits and elevators are. There’s nothing worse than hotels with 1 narrow , long corridor leading into all of the rooms with carpeted , dirty hallways. ( like 50 rooms on one floor and you see all these ppl coming out of it. ) Here you rarely see your neighbor stepping in and out of his room. I got a double room with 2 full beds. My room was nice , clean and quiet. There was a separate mirrored sink separated from the bathroom . Big plus if you’re traveling with someone. Outdoor pool looked great. I didn’t go in it but tanned by it. free breakfast , nice private little place. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>ComfortInnWoodland, Webmaster at Comfort Inn Near Warner Center, responded to this reviewResponded December 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at the Comfort inn on October for a week. The location was fantastic. Close to many restaurants , convenient stores and more. Close proximity to Santa Monica and other main attractions. I went down to Santa Monica Beach and loved the surroundings. 
+( The location to LAX airport was not too close. But I stayed away from LA areas. Many areas were in Engle wood marketed as LA. I didn’t have the time to do that much research into locations. So I went further up north yet not far from it all. For the location it was well valued. $150 night I paid at the time. Other areas close to LA were charging more and or less and had horrible reviews. They seemed run down and not safe. ) 
+This hotel seemed safe , secure with a great vibe to it. I loved that my room was on the second floor with an entrance from outside overlooking the outdoor pool area to enter it. 
+Gives it more of a cleaner fresh , private vibe. Building has a great floor plan as well with elevators and stairs leading into the back areas if you’re on the other side of the hotel. Only a couple of rooms on each side. I checked out the back area as well. It looked great. Always do a run down of the building wherever I travel. I like to know where all the exits...I stayed at the Comfort inn on October for a week. The location was fantastic. Close to many restaurants , convenient stores and more. Close proximity to Santa Monica and other main attractions. I went down to Santa Monica Beach and loved the surroundings. ( The location to LAX airport was not too close. But I stayed away from LA areas. Many areas were in Engle wood marketed as LA. I didn’t have the time to do that much research into locations. So I went further up north yet not far from it all. For the location it was well valued. $150 night I paid at the time. Other areas close to LA were charging more and or less and had horrible reviews. They seemed run down and not safe. ) This hotel seemed safe , secure with a great vibe to it. I loved that my room was on the second floor with an entrance from outside overlooking the outdoor pool area to enter it. Gives it more of a cleaner fresh , private vibe. Building has a great floor plan as well with elevators and stairs leading into the back areas if you’re on the other side of the hotel. Only a couple of rooms on each side. I checked out the back area as well. It looked great. Always do a run down of the building wherever I travel. I like to know where all the exits and elevators are. There’s nothing worse than hotels with 1 narrow , long corridor leading into all of the rooms with carpeted , dirty hallways. ( like 50 rooms on one floor and you see all these ppl coming out of it. ) Here you rarely see your neighbor stepping in and out of his room. I got a double room with 2 full beds. My room was nice , clean and quiet. There was a separate mirrored sink separated from the bathroom . Big plus if you’re traveling with someone. Outdoor pool looked great. I didn’t go in it but tanned by it. free breakfast , nice private little place. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r517782099-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>517782099</t>
+  </si>
+  <si>
+    <t>08/26/2017</t>
+  </si>
+  <si>
+    <t>A Real Mixed Bag</t>
+  </si>
+  <si>
+    <t>When we first pulled up to this place, we looked and each other, kind of laughed and thought "oh my, what have we gotten ourselves into?"  The lobby smelled STONG of Lysol, which always worrries me.  What are you covering up?  Nice lady checked us in quickly.   She said "your room is in the back.  Drove around to find a view of the 101 freeway and homeless people doing laundry.  Entered the room, which was small, but remodeled.  The room was the surprise.  Very clean and very comfortable.  The bed and the pillows were better than some hotels I've stayed in that were 4-5 star.  Slept like a baby (I wear earplugs, that was quite helpful).  While the outside is in desperate need of attention, the room was actually very nice to sleep in.  And in all honesty, that's really what you need from a hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>ComfortInnWoodland, Webmaster at Comfort Inn Near Warner Center, responded to this reviewResponded December 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2017</t>
+  </si>
+  <si>
+    <t>When we first pulled up to this place, we looked and each other, kind of laughed and thought "oh my, what have we gotten ourselves into?"  The lobby smelled STONG of Lysol, which always worrries me.  What are you covering up?  Nice lady checked us in quickly.   She said "your room is in the back.  Drove around to find a view of the 101 freeway and homeless people doing laundry.  Entered the room, which was small, but remodeled.  The room was the surprise.  Very clean and very comfortable.  The bed and the pillows were better than some hotels I've stayed in that were 4-5 star.  Slept like a baby (I wear earplugs, that was quite helpful).  While the outside is in desperate need of attention, the room was actually very nice to sleep in.  And in all honesty, that's really what you need from a hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r497225848-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>497225848</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>Close to Malibu, Burbank, and the price is right!</t>
+  </si>
+  <si>
+    <t>Ive stayed at this hotel a number of times.  This time exceeded my expectations.  The bed was very comfortable, the pool area very clean, and the air conditioning borderline freezing (the way I like it!).  My only complaint was the breakfast area being very small.  Short of that, everything was great!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Ive stayed at this hotel a number of times.  This time exceeded my expectations.  The bed was very comfortable, the pool area very clean, and the air conditioning borderline freezing (the way I like it!).  My only complaint was the breakfast area being very small.  Short of that, everything was great!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r487479348-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>487479348</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>Nice miod class  hotel for the price and area</t>
+  </si>
+  <si>
+    <t>Woodlands hills is a lovely up scale area, and the hotels there can be pricey. We were traveling for leisure, going to a B Day Party up on the Hills. This hotel was reasonably priced, and very close to the Party. Other hotels charged high for parking, had no pool &amp; tub, etc. We got a top floor nice room clean quiet and updated furniture, Staff was very friendly, efficient and hospitable. Poll and tub were fairly clean, Hot tub is about to be re done some jets didn't work., Parking lot was free, safe, Breakfast was very good for a CI, I have seen much worse. overall a great value for the price, i would stay there again anytime i'm in the area.Tip; there s a Dennys next door if your hungry late, and a Ralphs across the streetMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Woodlands hills is a lovely up scale area, and the hotels there can be pricey. We were traveling for leisure, going to a B Day Party up on the Hills. This hotel was reasonably priced, and very close to the Party. Other hotels charged high for parking, had no pool &amp; tub, etc. We got a top floor nice room clean quiet and updated furniture, Staff was very friendly, efficient and hospitable. Poll and tub were fairly clean, Hot tub is about to be re done some jets didn't work., Parking lot was free, safe, Breakfast was very good for a CI, I have seen much worse. overall a great value for the price, i would stay there again anytime i'm in the area.Tip; there s a Dennys next door if your hungry late, and a Ralphs across the streetMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r473490753-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>473490753</t>
+  </si>
+  <si>
+    <t>04/07/2017</t>
+  </si>
+  <si>
+    <t>Good Enough</t>
+  </si>
+  <si>
+    <t>Convenient location right off the 101. Lots of restaurants within walking distance in a safe area. Plenty of free parking. They have a pool and hot tub along with free breakfast. Room was clean, tv could be larger along with a mini fridge. Shower worked fine. $130 for the night so an ok value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r430289336-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>430289336</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>Very close to hwy 101. Room was standard, comfortable but not as attractive as at some other Comfort Inns; clean, but not around the edges. Nice looking building with pool and spa. Wifi signal was not strong. The hot Breakfast was good, although small sitting area.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r424858149-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>424858149</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t>What is "Smkoe free room"</t>
+  </si>
+  <si>
+    <t>This motel appear to be an owner oprator one.  Nice people, friendly staff. But the non-smoking room assigned to me was previously a "Smoking"  room,   the number was room 310.   The issue here is just by sticking A sticky on door that says "Non-Smkoing" , you can't  declare that is not smoking unless you  was the carpet, the drapes scrape walls or etc.   I could smell smkoe all night in my lungs where I am an asthma patient. I put up with it for 3 day then checked out.   I think if a room is designed as "Non-Smoking " then, it needs to be certified by an Independent firm.   My advise, ask if mote,hotel is owner oprater, then as more questions.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>This motel appear to be an owner oprator one.  Nice people, friendly staff. But the non-smoking room assigned to me was previously a "Smoking"  room,   the number was room 310.   The issue here is just by sticking A sticky on door that says "Non-Smkoing" , you can't  declare that is not smoking unless you  was the carpet, the drapes scrape walls or etc.   I could smell smkoe all night in my lungs where I am an asthma patient. I put up with it for 3 day then checked out.   I think if a room is designed as "Non-Smoking " then, it needs to be certified by an Independent firm.   My advise, ask if mote,hotel is owner oprater, then as more questions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r422624405-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>422624405</t>
+  </si>
+  <si>
+    <t>09/26/2016</t>
+  </si>
+  <si>
+    <t>Ok to stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rooms are clean and comfortable. Great location in our case. We visited friends and relatives, so it was close to all. Service is good.Breakfast was ok. Hot pancakes, muffins, juices, coffee, eggs. Just enough to start the day with. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r407424155-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>407424155</t>
+  </si>
+  <si>
+    <t>08/19/2016</t>
+  </si>
+  <si>
+    <t>Average stay but...</t>
+  </si>
+  <si>
+    <t>When entering the single king room at night, it took the A/C over 4 hours to cool the room down enough to be comfortable.  Room was musty and found 2 air fresheners on the floor at opposite ends of the room.  Furniture has seen better days, no chair at the table to do computing on, rather a uncomfortable cushioned chair in the corner.  Plenty of electrical outlets to charge electronics with though.  TV barely bigger than the microwave, mini-fridge okay for a couple days if needed.  Stairs on the east end of the building has issues with kick-plates coming loose and bounce around if you touch them.  Bed average but to me wasn't comfortable.  Parking for full size vehicles is a nightmare and beware if your towing - don't plan on parking here.  Driveway under port is 7'6" on one side and 6'6" on the outlet side, if you go to the Denny's drive you can weave your way around the lot to the back, but if towing (I had a small single axle generator) they will not allow parking even if you break your rig down for 2 slots.  They couldn't get their stories together why this isn't allowed and refused to contact management for discussion even though when I checked out there were ample slots open.  Park on the busy street if you dare.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>When entering the single king room at night, it took the A/C over 4 hours to cool the room down enough to be comfortable.  Room was musty and found 2 air fresheners on the floor at opposite ends of the room.  Furniture has seen better days, no chair at the table to do computing on, rather a uncomfortable cushioned chair in the corner.  Plenty of electrical outlets to charge electronics with though.  TV barely bigger than the microwave, mini-fridge okay for a couple days if needed.  Stairs on the east end of the building has issues with kick-plates coming loose and bounce around if you touch them.  Bed average but to me wasn't comfortable.  Parking for full size vehicles is a nightmare and beware if your towing - don't plan on parking here.  Driveway under port is 7'6" on one side and 6'6" on the outlet side, if you go to the Denny's drive you can weave your way around the lot to the back, but if towing (I had a small single axle generator) they will not allow parking even if you break your rig down for 2 slots.  They couldn't get their stories together why this isn't allowed and refused to contact management for discussion even though when I checked out there were ample slots open.  Park on the busy street if you dare.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r405925634-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>405925634</t>
+  </si>
+  <si>
+    <t>08/15/2016</t>
+  </si>
+  <si>
+    <t>Family Visit</t>
+  </si>
+  <si>
+    <t>We had a single king room.  The room was clean and had plenty of room.  Also had a refrigerator. Very nice and clean outdoor pool and hot tub.  There was a complimentary full breakfast which was very good but not enough tables to sit.  We had to take our breakfast to our room for two of the three days which is why the 4 star rating instead of 5.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r341747551-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>341747551</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
+  </si>
+  <si>
+    <t>Comfortable place to stay</t>
+  </si>
+  <si>
+    <t>Spotlessly clean. Friendly staff. Ample breakfast. Plenty of parking spacePool area with hot tub.Great location. Laundromat and food shopping nearby. Very close to freeway and Ventura Boulevard with choice of places to eat.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r319119914-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>319119914</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>2-STAR Hotel with 5-STAR beds</t>
+  </si>
+  <si>
+    <t>For many people, it is unthinkable of booking a hotel in your own town and for yourself. But it is totally normal in Los Angeles where the traffic is so terrible that takes people hours just for going to work or going back home during the weekdays. For me, this Comfort Inn is my solution to the traffic problem in LA. When the traffic is bad, or I have a late meeting in office, I just go to Comfort Inn and stay there for the night. The hotel is not the luxury...the facility is clean, remodeled...everything meets my expectation of a 2-STAR hotel. The surprise is inside the room. It has 5-STAR beds. The bed is very comfortable, bedding is at high quality, like a 5-STAR hotel bed without a plate of chocolates on it. It does not have a view nor an endless pool. But I am not coming here for vacation, therefore a clean &amp; comfortable bed with a working shower is all I needed.The hotel is next to Freeway 101, it is very convenient to get off or get back onto the freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>For many people, it is unthinkable of booking a hotel in your own town and for yourself. But it is totally normal in Los Angeles where the traffic is so terrible that takes people hours just for going to work or going back home during the weekdays. For me, this Comfort Inn is my solution to the traffic problem in LA. When the traffic is bad, or I have a late meeting in office, I just go to Comfort Inn and stay there for the night. The hotel is not the luxury...the facility is clean, remodeled...everything meets my expectation of a 2-STAR hotel. The surprise is inside the room. It has 5-STAR beds. The bed is very comfortable, bedding is at high quality, like a 5-STAR hotel bed without a plate of chocolates on it. It does not have a view nor an endless pool. But I am not coming here for vacation, therefore a clean &amp; comfortable bed with a working shower is all I needed.The hotel is next to Freeway 101, it is very convenient to get off or get back onto the freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r301886345-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>301886345</t>
+  </si>
+  <si>
+    <t>08/21/2015</t>
+  </si>
+  <si>
+    <t>not bad but could be much better for the price</t>
+  </si>
+  <si>
+    <t>Pool was pretty well okay, rooms are pretty well ok, breakfast is a fight in a too small breakfast room, manager was ok, rest off the staff and cleaning crew brought poor service. Overall the hotel is too expensive for what it has to offer... but sure might be better than the cheap hotels near LA...</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r300015776-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>300015776</t>
+  </si>
+  <si>
+    <t>08/16/2015</t>
+  </si>
+  <si>
+    <t>Not fascinated</t>
+  </si>
+  <si>
+    <t>The hotel is decent, but the service not so much. They charge way too much and don't provide ANY housekeeping in the room during your stay. Needless to say that I had to clean up my room, I had to run to the reception desk to ask for soap and shampoo and clean towels. Very disappointing!The WiFi was down most of the time, so I wasn't able to use my laptop only my phone.The breakfast room is VERY small and has only 8 small tables for hundreds of guests. Around 8.30 am it is so crowded, that we had to wait in line to have breakfast.Also the parking is too small for all the guests' cars and it is challenging to find a spot if you arrive late at night.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>The hotel is decent, but the service not so much. They charge way too much and don't provide ANY housekeeping in the room during your stay. Needless to say that I had to clean up my room, I had to run to the reception desk to ask for soap and shampoo and clean towels. Very disappointing!The WiFi was down most of the time, so I wasn't able to use my laptop only my phone.The breakfast room is VERY small and has only 8 small tables for hundreds of guests. Around 8.30 am it is so crowded, that we had to wait in line to have breakfast.Also the parking is too small for all the guests' cars and it is challenging to find a spot if you arrive late at night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r242602005-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>242602005</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Closing for renovations is cheaper than losing customers.</t>
+  </si>
+  <si>
+    <t>We arrived on a Sunday.  An hour or so after arrival I went to get a glass of water, NO WATER FOR YOU.  There was air pressure though, so I waited and finally got water.  I had checked in without a car, so chose to wait out the drought.  Monday the desk called to say the water would be off for a short period of time.  Hot water? Out of the question, sometimes it would be warm, if you had the time to wait for it.  Cable service went out three times, once due to a power failure.  Wi-Fi agreement was so long and complicated I used my hotspot instead.  I was returning to the area the next week, booked a different hotel.  This makes me rethink using Choice Hotels at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>We arrived on a Sunday.  An hour or so after arrival I went to get a glass of water, NO WATER FOR YOU.  There was air pressure though, so I waited and finally got water.  I had checked in without a car, so chose to wait out the drought.  Monday the desk called to say the water would be off for a short period of time.  Hot water? Out of the question, sometimes it would be warm, if you had the time to wait for it.  Cable service went out three times, once due to a power failure.  Wi-Fi agreement was so long and complicated I used my hotspot instead.  I was returning to the area the next week, booked a different hotel.  This makes me rethink using Choice Hotels at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r237632439-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>237632439</t>
+  </si>
+  <si>
+    <t>11/02/2014</t>
+  </si>
+  <si>
+    <t>Good location, quiet hotel.</t>
+  </si>
+  <si>
+    <t>I stay here frequently when doing business in the S.F. Valley. Right off 101 Freeway East / South at Winnetka Ave. exit. Nicely furnished rooms, very clean. Tons of restaurants and shopping within walking distance. Pricing is mid-range of other Choice properties in area. Parking is somewhat restricted, not that many spaces. Housekeeping does great job;requested room be made up early in day and was accommodated immediately. Only negative I can say about this place ... check-in process is very lengthy and involved and seems to take quite a while. Still ... definitely recommend this hotel.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r232627006-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>232627006</t>
+  </si>
+  <si>
+    <t>10/04/2014</t>
+  </si>
+  <si>
+    <t>For a short visit ok, average.</t>
+  </si>
+  <si>
+    <t>Ask for room at third floor facing the inner yard, pool or parking- just so that it will be a bit more quite as it locates very close to the bigger roads entering LA from north. A good advice is to bring your swimming gear/suit as they have a hot water tub and swimming pool which is really handy after a long drive. Grossery store (Ralphs), Japanese and Mexican style fast food places 4 minutes walk from the hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r198233506-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>198233506</t>
+  </si>
+  <si>
+    <t>03/21/2014</t>
+  </si>
+  <si>
+    <t>Very Convenient and Resonable</t>
+  </si>
+  <si>
+    <t>This is one has one of the best location you can think of! Just next to 101Big SIze rooms and comfortable beds! Nice courteous staff! Reasonably priced! Denny's is just next door and also has shopping areas nearby! Bingo!</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r198121932-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>198121932</t>
+  </si>
+  <si>
+    <t>03/20/2014</t>
+  </si>
+  <si>
+    <t>good hotel, good breakfast</t>
+  </si>
+  <si>
+    <t>Convenient hotel with nice room and facilities. Breakfast had good selection and staff were helpful. Excellent vintage market across the road in the school grounds when we stayed. Only gripe is there is quite a lot of road noise as its next to a really busy road.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r197368091-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>197368091</t>
+  </si>
+  <si>
+    <t>03/14/2014</t>
+  </si>
+  <si>
+    <t>good stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room was nice. Good shower, quiet, clean. Housekeeping was very nice about extra towels,etc. Good breakfast. Made my own waffles and could eat as much as I wanted. Front desk people were very nice and helpful.   </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r171447382-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>171447382</t>
+  </si>
+  <si>
+    <t>08/09/2013</t>
+  </si>
+  <si>
+    <t>You Get what you Pay For</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place really isn't so bad, I just didn't feel super safe as a single woman traveling on business. Nothing happened but I was uncomfortable coming back to my room in the evening and seeing men smoking and drinking off the balcony and knowing which room I was going in to. Also, breakfast is poor quality food and I didn't have hot water to shower with 3 out of the 5 days I was there. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r170638208-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>170638208</t>
+  </si>
+  <si>
+    <t>08/03/2013</t>
+  </si>
+  <si>
+    <t>Wooland Hills Comfort Inn...not so much.</t>
+  </si>
+  <si>
+    <t>First, don't be fooled by photos (of course), it is NOT that nice.  Needs some TLC in the rooms and exterior.  We got a room with two queen beds--smallest queen beds ever seen on earth!  Bathroom is very run down and small.  Lamps are filled with a mixture of 'white' light and 'brown' light - very confusing.  A/C doesn't work good and electrical sockets don't work in places.  The Breakfast area is cramped, crowded and not good at all--don't go to the Denny's next door; bad service that is slow; like a root canal.  Staff is a little cold and not very friendly.  Also - they don't tell you that you could have a room facing the Highway....road noise all night long.  Oh, they will offer you another room....for 30-40 extra a night!!  They don't even mention that in the reservation site.  Also, smallest refrigerator with no microwave.  Who does that?  I guess these people do. If you HAVE to stay somewhere....sure, but I would suggest you find somewhere else.  We stayed for four nights and thankfully we did not stay in the room very much.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>First, don't be fooled by photos (of course), it is NOT that nice.  Needs some TLC in the rooms and exterior.  We got a room with two queen beds--smallest queen beds ever seen on earth!  Bathroom is very run down and small.  Lamps are filled with a mixture of 'white' light and 'brown' light - very confusing.  A/C doesn't work good and electrical sockets don't work in places.  The Breakfast area is cramped, crowded and not good at all--don't go to the Denny's next door; bad service that is slow; like a root canal.  Staff is a little cold and not very friendly.  Also - they don't tell you that you could have a room facing the Highway....road noise all night long.  Oh, they will offer you another room....for 30-40 extra a night!!  They don't even mention that in the reservation site.  Also, smallest refrigerator with no microwave.  Who does that?  I guess these people do. If you HAVE to stay somewhere....sure, but I would suggest you find somewhere else.  We stayed for four nights and thankfully we did not stay in the room very much.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r170151656-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>170151656</t>
+  </si>
+  <si>
+    <t>07/31/2013</t>
+  </si>
+  <si>
+    <t>We Loved Our Stay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My family and I stayed here a few days ago, and it was a great stay! Nice size rooms, very clean, super comfy beds, AC was quiet and worked great! Staff was friendly, breakfast was good. Parking was a little tricky if you came back to the hotel after 8 pm, but we never had a problem finding a spot. Only small issue was the small room they serve breakfast in, try to get there before 9 am! We will definitely stay here again! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r166764876-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>166764876</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Handicapped inaccessible</t>
+  </si>
+  <si>
+    <t>We checked into our room yesterday afternoon and were not real pleased that we got a room that was off the freeway and without any handicapped accessible parking but the room wasn't bad so we dealth with it.  We went to dinner with family and when we came back there wasn't any parking anywhere near our room and to add insult to injury one of the parking spaces in front of our room was taken by a TRAILER!  This establishment required you to post a parking sticker in your window so where did they put the one for the trailer.  We asked the person at the desk to request that the trailer be moved so that we could park near our room.  The van that had towed the trailer was right next to the trailer and they should have been able to locate the owner easily as you had to give your license plate number with your room info.  They wanted us to park in one of the two handicapped spots that were near the office which was 2 buildings away!  Suffice to say that after waiting almost a hour for them to take care of the situation my husband finally asked the front desk clerk what she was doing to take care of the situation and the manager came in and told him that he didn't want us staying there and he refunded our money.  It was 11:15PM on...We checked into our room yesterday afternoon and were not real pleased that we got a room that was off the freeway and without any handicapped accessible parking but the room wasn't bad so we dealth with it.  We went to dinner with family and when we came back there wasn't any parking anywhere near our room and to add insult to injury one of the parking spaces in front of our room was taken by a TRAILER!  This establishment required you to post a parking sticker in your window so where did they put the one for the trailer.  We asked the person at the desk to request that the trailer be moved so that we could park near our room.  The van that had towed the trailer was right next to the trailer and they should have been able to locate the owner easily as you had to give your license plate number with your room info.  They wanted us to park in one of the two handicapped spots that were near the office which was 2 buildings away!  Suffice to say that after waiting almost a hour for them to take care of the situation my husband finally asked the front desk clerk what she was doing to take care of the situation and the manager came in and told him that he didn't want us staying there and he refunded our money.  It was 11:15PM on the Sunday of a four day 4th of July weekend.  Note, this was a prepaid reservation with a request for a first story room as there was a handicapped guest in our group.  Very bad customer service and no respect shown for a handicapped Vietnam Veteran.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>We checked into our room yesterday afternoon and were not real pleased that we got a room that was off the freeway and without any handicapped accessible parking but the room wasn't bad so we dealth with it.  We went to dinner with family and when we came back there wasn't any parking anywhere near our room and to add insult to injury one of the parking spaces in front of our room was taken by a TRAILER!  This establishment required you to post a parking sticker in your window so where did they put the one for the trailer.  We asked the person at the desk to request that the trailer be moved so that we could park near our room.  The van that had towed the trailer was right next to the trailer and they should have been able to locate the owner easily as you had to give your license plate number with your room info.  They wanted us to park in one of the two handicapped spots that were near the office which was 2 buildings away!  Suffice to say that after waiting almost a hour for them to take care of the situation my husband finally asked the front desk clerk what she was doing to take care of the situation and the manager came in and told him that he didn't want us staying there and he refunded our money.  It was 11:15PM on...We checked into our room yesterday afternoon and were not real pleased that we got a room that was off the freeway and without any handicapped accessible parking but the room wasn't bad so we dealth with it.  We went to dinner with family and when we came back there wasn't any parking anywhere near our room and to add insult to injury one of the parking spaces in front of our room was taken by a TRAILER!  This establishment required you to post a parking sticker in your window so where did they put the one for the trailer.  We asked the person at the desk to request that the trailer be moved so that we could park near our room.  The van that had towed the trailer was right next to the trailer and they should have been able to locate the owner easily as you had to give your license plate number with your room info.  They wanted us to park in one of the two handicapped spots that were near the office which was 2 buildings away!  Suffice to say that after waiting almost a hour for them to take care of the situation my husband finally asked the front desk clerk what she was doing to take care of the situation and the manager came in and told him that he didn't want us staying there and he refunded our money.  It was 11:15PM on the Sunday of a four day 4th of July weekend.  Note, this was a prepaid reservation with a request for a first story room as there was a handicapped guest in our group.  Very bad customer service and no respect shown for a handicapped Vietnam Veteran.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r166119113-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>166119113</t>
+  </si>
+  <si>
+    <t>07/02/2013</t>
+  </si>
+  <si>
+    <t>Not too bad</t>
+  </si>
+  <si>
+    <t>This Comfort Inn is decent.  Unlike most, it has exterior corridors and the rooms are fairly small.  I had a king and only a desk chair was in the room.  The desk staff was rather snippy, so it must be that management does not train well on customer service.  The room itself was clean and the internet was good.  It took awhile for the room to cool down and at 97 degrees outside, it was uncomfortable for the first 2 hours.  The breakfast was on the poor side of typical for a Comfort Inn.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r161653890-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>161653890</t>
+  </si>
+  <si>
+    <t>05/23/2013</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for two nights while in LA on business.  No, its not a new property, but it is clean and well kept. That means more to me than newness.  I requested and received a room on the top floor away from the freeway.  Noise was not an issue.  There were nice shutters on the windows that I could open to let in some light.  The room was not huge, but the sink area was good.  No closet, but an armoire was provided to put my clothes in. The fridge was not on when I arrived, but I turned it on and it worked fine.  The bed was comfortable and I slept well.  The internet service was good.  The hotel was easy to get in and out of (which is a great plus in LA).  The breakfast area was tiny so I didn't spend much time there.  Breakfast food was so-so.  At check-out, the clerk gave me the receipt for another room.  I caught it in the parking lot and got it straight before I left. Overall a good stay. I would probably stay here again given the chance.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for two nights while in LA on business.  No, its not a new property, but it is clean and well kept. That means more to me than newness.  I requested and received a room on the top floor away from the freeway.  Noise was not an issue.  There were nice shutters on the windows that I could open to let in some light.  The room was not huge, but the sink area was good.  No closet, but an armoire was provided to put my clothes in. The fridge was not on when I arrived, but I turned it on and it worked fine.  The bed was comfortable and I slept well.  The internet service was good.  The hotel was easy to get in and out of (which is a great plus in LA).  The breakfast area was tiny so I didn't spend much time there.  Breakfast food was so-so.  At check-out, the clerk gave me the receipt for another room.  I caught it in the parking lot and got it straight before I left. Overall a good stay. I would probably stay here again given the chance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r150371162-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>150371162</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
+  </si>
+  <si>
+    <t>Had a nice stay !</t>
+  </si>
+  <si>
+    <t>Is a really nice hotel !Great rooms . . . clean . . . @ a great priceWe booked this since we needed to be often in downtown LA . . . most of the people warned us for traffic but mostly it was a 30 min drive  . . . isn't bad . . . if we need to cross Brussels . . . it takes usually longer . . .The only problems (3)  I had was that the inspection of the elevator was 2 years over date . . .I noticed it when I was standing in it to solve problem 2 . . .  the vending machine on the main floor didn't work . . . and was causing problem number 3 . . . this wasn't going last either . . .I informed the Manager by mail of these 3 items (several times) but never ever received a reply . . . . a really pitty since other people might take the elevator inspection a lot more serious as we did . . .But that's up to him . . .For the rest . . . great breakfast . . . always coffee at the fron desk and even when not . . . they made some fresh . . .So besides these 3 items . . . really nice clean place !HAGOneMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Is a really nice hotel !Great rooms . . . clean . . . @ a great priceWe booked this since we needed to be often in downtown LA . . . most of the people warned us for traffic but mostly it was a 30 min drive  . . . isn't bad . . . if we need to cross Brussels . . . it takes usually longer . . .The only problems (3)  I had was that the inspection of the elevator was 2 years over date . . .I noticed it when I was standing in it to solve problem 2 . . .  the vending machine on the main floor didn't work . . . and was causing problem number 3 . . . this wasn't going last either . . .I informed the Manager by mail of these 3 items (several times) but never ever received a reply . . . . a really pitty since other people might take the elevator inspection a lot more serious as we did . . .But that's up to him . . .For the rest . . . great breakfast . . . always coffee at the fron desk and even when not . . . they made some fresh . . .So besides these 3 items . . . really nice clean place !HAGOneMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r136938055-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>136938055</t>
+  </si>
+  <si>
+    <t>08/11/2012</t>
+  </si>
+  <si>
+    <t>Better than expected</t>
+  </si>
+  <si>
+    <t>I had to book a room last minute and wasn't sure about this location or Comfort Inn in general. The three of us that stayed in the room were pleasantly surprised. It was an updated room and very clean. The mattresses were brand new and the bedding was clean and fresh. The room had a little fridge and a coffee maker. The Wi-Fi wasn't great but better than a lot of other more expensive hotels in terms of the speed. The hotel was right off the freeway which made it easy to get to and we at the Denny's for a late-night meal when everything else was closed. The only issue we had was the parking - every single spot was full and had to park along the sidewalk but the security guy said that was ok. All-in-all it was better than we expected and I can comfortably recommend this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>I had to book a room last minute and wasn't sure about this location or Comfort Inn in general. The three of us that stayed in the room were pleasantly surprised. It was an updated room and very clean. The mattresses were brand new and the bedding was clean and fresh. The room had a little fridge and a coffee maker. The Wi-Fi wasn't great but better than a lot of other more expensive hotels in terms of the speed. The hotel was right off the freeway which made it easy to get to and we at the Denny's for a late-night meal when everything else was closed. The only issue we had was the parking - every single spot was full and had to park along the sidewalk but the security guy said that was ok. All-in-all it was better than we expected and I can comfortably recommend this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r135747135-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>135747135</t>
+  </si>
+  <si>
+    <t>07/29/2012</t>
+  </si>
+  <si>
+    <t>Great for a one night stay</t>
+  </si>
+  <si>
+    <t>When traveling and stopping for just one night I have learned that all I need is a clean comfortable safe room and this is exactly what I got at this place.  I thought it would be noisy being on such a busy street and so close to the 101 but not so, it was quiet, and a decent breakfast, adequate parking and was close to grocery stores, gas stations, free WIFI, a nice TV.  Would stay here again.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r134468177-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>134468177</t>
+  </si>
+  <si>
+    <t>07/15/2012</t>
+  </si>
+  <si>
+    <t>Good Value and Good Location</t>
+  </si>
+  <si>
+    <t>A clean well run hotel/motel in a good location outside of busy LA city. A very nice pool area and a conveniently located Denny's next door provide a low budget stay. Lots of really good resturants nearby and supermarket only a stone through away. It's easy to get to Universal Studios and Hollywood if this is why you are in LA.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r132938750-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>132938750</t>
+  </si>
+  <si>
+    <t>06/28/2012</t>
+  </si>
+  <si>
+    <t>Comfortable &amp; Good Base Station</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 nights and found the location to be perfect from which to explore LA and the surrounding areas/beaches -ideal combination of location/cost. Staff were polite, rooms comfortable and breakfast room well stocked and clean.The property is of an older construction (wood), and this has some unique inherent characteristics...incl style, design and extra circular activity (maybe) in the (bed) room upstairs.A few observations.. Breakfast room needs to be expanded, the main in-room lighting could be brighter/relocated.  Room cleaner should also pay more attentions when vacuuming (corners).</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r132284034-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>132284034</t>
+  </si>
+  <si>
+    <t>06/18/2012</t>
+  </si>
+  <si>
+    <t>Its ok......Just dont get a room facing the freeway</t>
+  </si>
+  <si>
+    <t>so i booked my shin dig of a room last minute and read the reviews from TA. I did not have my expectations set high with all the recent reviews. So I paid a little high which was probably due to fathers day weekend. I do have to say the room was clean and comfy. The drawbacks.... The room is quiet and never heard my neighbors, but my room was facing the 101 freeway! Arrgg..... Shut the door and I can still hear the freakin cars and trucks roaring by... BLAH! I was soo tired that I did not bother me much.. Well I guess thats probably cuz I grew up next to the 101 freeway!! LOL... My wife also seen a large rat cruzin by in the parking lot, which is not surprising because the parking lot is adjacent to the freeway. Other than the freeway and rat, the place is ok, just make sure your room is not facing the darn freeway. The breakfast was good, the only messed up part is that they do not let you take the food back to your room (WACK)!MoreShow less</t>
+  </si>
+  <si>
+    <t>so i booked my shin dig of a room last minute and read the reviews from TA. I did not have my expectations set high with all the recent reviews. So I paid a little high which was probably due to fathers day weekend. I do have to say the room was clean and comfy. The drawbacks.... The room is quiet and never heard my neighbors, but my room was facing the 101 freeway! Arrgg..... Shut the door and I can still hear the freakin cars and trucks roaring by... BLAH! I was soo tired that I did not bother me much.. Well I guess thats probably cuz I grew up next to the 101 freeway!! LOL... My wife also seen a large rat cruzin by in the parking lot, which is not surprising because the parking lot is adjacent to the freeway. Other than the freeway and rat, the place is ok, just make sure your room is not facing the darn freeway. The breakfast was good, the only messed up part is that they do not let you take the food back to your room (WACK)!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r128565808-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>128565808</t>
+  </si>
+  <si>
+    <t>04/24/2012</t>
+  </si>
+  <si>
+    <t>Was good at beginning, then the nightmare began!</t>
+  </si>
+  <si>
+    <t>Stayed here for 7 days and initially when I checked in, the woman at the desk was very warm and kind, she had a whole conversation with me and even gave me some good points on where to eat and go. The room was spacious and clean, although the toilet area was kind of small. Everything in the room worked, so bonus points for that, and the breakfast was fine. As I was near the main road and not the freeway, I heard less noise and had a comfortable sleep.
+ Although the nightmare began when I checked out, they had taken my payment through on the night I left, as they do, my flight was 6 or 7 in the morning and I had left quite early, on arrival to the airport I looked through my bag and discovered that I had left my Ipod back at the hotel. When I had called the desk clerk and told him about my problem, he did not seem so bothered, refused to co-operate by saying he could not leave the desk for 2 mins. I finally asked a friend to pick it up for me in the afternoon and send it by mail for me, on arrival they had informed her that they would not give it to her on the grounds that I did not pay for my last night there. They had not informed me of this information and gave...Stayed here for 7 days and initially when I checked in, the woman at the desk was very warm and kind, she had a whole conversation with me and even gave me some good points on where to eat and go. The room was spacious and clean, although the toilet area was kind of small. Everything in the room worked, so bonus points for that, and the breakfast was fine. As I was near the main road and not the freeway, I heard less noise and had a comfortable sleep. Although the nightmare began when I checked out, they had taken my payment through on the night I left, as they do, my flight was 6 or 7 in the morning and I had left quite early, on arrival to the airport I looked through my bag and discovered that I had left my Ipod back at the hotel. When I had called the desk clerk and told him about my problem, he did not seem so bothered, refused to co-operate by saying he could not leave the desk for 2 mins. I finally asked a friend to pick it up for me in the afternoon and send it by mail for me, on arrival they had informed her that they would not give it to her on the grounds that I did not pay for my last night there. They had not informed me of this information and gave my friend grief about this, refusing to give my personal belongings and holding it as a down payment. Is this a hotel or a loans sharks hideout? my tip for anyone staying here would be, make sure you check you have all your belongings before you leave and stay there for just a few nights.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>Stayed here for 7 days and initially when I checked in, the woman at the desk was very warm and kind, she had a whole conversation with me and even gave me some good points on where to eat and go. The room was spacious and clean, although the toilet area was kind of small. Everything in the room worked, so bonus points for that, and the breakfast was fine. As I was near the main road and not the freeway, I heard less noise and had a comfortable sleep.
+ Although the nightmare began when I checked out, they had taken my payment through on the night I left, as they do, my flight was 6 or 7 in the morning and I had left quite early, on arrival to the airport I looked through my bag and discovered that I had left my Ipod back at the hotel. When I had called the desk clerk and told him about my problem, he did not seem so bothered, refused to co-operate by saying he could not leave the desk for 2 mins. I finally asked a friend to pick it up for me in the afternoon and send it by mail for me, on arrival they had informed her that they would not give it to her on the grounds that I did not pay for my last night there. They had not informed me of this information and gave...Stayed here for 7 days and initially when I checked in, the woman at the desk was very warm and kind, she had a whole conversation with me and even gave me some good points on where to eat and go. The room was spacious and clean, although the toilet area was kind of small. Everything in the room worked, so bonus points for that, and the breakfast was fine. As I was near the main road and not the freeway, I heard less noise and had a comfortable sleep. Although the nightmare began when I checked out, they had taken my payment through on the night I left, as they do, my flight was 6 or 7 in the morning and I had left quite early, on arrival to the airport I looked through my bag and discovered that I had left my Ipod back at the hotel. When I had called the desk clerk and told him about my problem, he did not seem so bothered, refused to co-operate by saying he could not leave the desk for 2 mins. I finally asked a friend to pick it up for me in the afternoon and send it by mail for me, on arrival they had informed her that they would not give it to her on the grounds that I did not pay for my last night there. They had not informed me of this information and gave my friend grief about this, refusing to give my personal belongings and holding it as a down payment. Is this a hotel or a loans sharks hideout? my tip for anyone staying here would be, make sure you check you have all your belongings before you leave and stay there for just a few nights.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r125306977-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>125306977</t>
+  </si>
+  <si>
+    <t>02/27/2012</t>
+  </si>
+  <si>
+    <t>Quiet hotel</t>
+  </si>
+  <si>
+    <t>Very nice place to stay, quiet, out of center LA. Great pool, cool breakfast, Denny's beside, grocer Ralph's 2 minute walk.Highway not far if you want to drive to the beach</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r123412799-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>123412799</t>
+  </si>
+  <si>
+    <t>01/21/2012</t>
+  </si>
+  <si>
+    <t>Its ok, not the best</t>
+  </si>
+  <si>
+    <t>You definitely get what you pay for. We had enough hot water for a 5 minute shower. Then we got a room with a king bed and only had 4 pillows and asked if we could get some more and they brought us just one pillow. Its suppose to be a nice area but its really not. But it does have a Dennys on the same property and a little shopping center across the street.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r115511352-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>115511352</t>
+  </si>
+  <si>
+    <t>07/18/2011</t>
+  </si>
+  <si>
+    <t>Rooms were clean, service was terrible.</t>
+  </si>
+  <si>
+    <t>Started when are room keys had to be reprogramed the first night. It got worse. Breakfast was from 6:30 to 9:30, but if you weren't there by 9:00 you didn't get anything. The staff stop refilling breakfast items about 8:45.On our second morning we discovered they had shorted us a bath towel. I went to the front to get one, but they were out. Housekeeping was supposed to deliver one in 5 mins. My wife finally had to dry off with a hand towel. The towel didn't show up for 45 mins. The next night they shorted us again. I would find someplace else to stay if I were you. I know I won't stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>-RPHotelOwner, Owner at Comfort Inn Near Warner Center, responded to this reviewResponded July 21, 2011</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2011</t>
+  </si>
+  <si>
+    <t>Started when are room keys had to be reprogramed the first night. It got worse. Breakfast was from 6:30 to 9:30, but if you weren't there by 9:00 you didn't get anything. The staff stop refilling breakfast items about 8:45.On our second morning we discovered they had shorted us a bath towel. I went to the front to get one, but they were out. Housekeeping was supposed to deliver one in 5 mins. My wife finally had to dry off with a hand towel. The towel didn't show up for 45 mins. The next night they shorted us again. I would find someplace else to stay if I were you. I know I won't stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r113130235-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>113130235</t>
+  </si>
+  <si>
+    <t>06/13/2011</t>
+  </si>
+  <si>
+    <t>Okay place, some issues.</t>
+  </si>
+  <si>
+    <t>I stayed here at the last minute one night while on business in the Warner Center area. Checking in, the young lady was really nice and gave me everything I needed. The room was small, and suited my needs. The fridge in the room did not work, though... and I'm not really sure the A/C worked very well either. Over all, though, it wasn't bad. In walking about the grounds, I noticed that some of the area looked a bit run down. The blinds in the housekeeping area were mangled, and quite visible for any of the guests walking by. That wasn't terribly attractive. The grounds were clean and pleasant, but "tight" because of the small space. Everything seems a bit cramped, including the walkways. This hotel is literally wedged between to 101 freeway and Ventura Blvd -- and that means lots of road noise. This really is the type of place you go when you just need a place to sleep -- so if noise bothers you, bring earplugs.
+For me, though, the worst of the experience was the next morning. While I was getting dressed, the phone kept ringing and ringing. I picked it up a few times to find a dial tone. This continued for about 30 minutes... random ringing. When I mentioned it to the guy at the front desk, he was pretty rude about it, blowing me off. He said, "All calls come though here,...I stayed here at the last minute one night while on business in the Warner Center area. Checking in, the young lady was really nice and gave me everything I needed. The room was small, and suited my needs. The fridge in the room did not work, though... and I'm not really sure the A/C worked very well either. Over all, though, it wasn't bad. In walking about the grounds, I noticed that some of the area looked a bit run down. The blinds in the housekeeping area were mangled, and quite visible for any of the guests walking by. That wasn't terribly attractive. The grounds were clean and pleasant, but "tight" because of the small space. Everything seems a bit cramped, including the walkways. This hotel is literally wedged between to 101 freeway and Ventura Blvd -- and that means lots of road noise. This really is the type of place you go when you just need a place to sleep -- so if noise bothers you, bring earplugs.For me, though, the worst of the experience was the next morning. While I was getting dressed, the phone kept ringing and ringing. I picked it up a few times to find a dial tone. This continued for about 30 minutes... random ringing. When I mentioned it to the guy at the front desk, he was pretty rude about it, blowing me off. He said, "All calls come though here, lady, and there haven't been any. Are you sure you aren't hearing things?"  Yeah, that went over well. It's a good thing I was on my out and didn't want to deal with it.Breakfast was okay. Apparently, they've recently expanded their breakfast buffet to include hot bacon and eggs. The bacon was fine... but the eggs? YUCK! They are cooked from discs of salty yellow goo. Blech.The price was okay, considering that most rooms in this area (during summer) tend to be pretty high, but I've certainly been in much nicer hotels for less. However, it's a nice place and the rooms are clean and have just about anything you'd need (hairdryer, iron/ironing board. microwave, fridge (if it works), etc. The free breakfast was okay, but avoid the nuked egg patties.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>-RPHotelOwner, Owner at Comfort Inn Near Warner Center, responded to this reviewResponded July 29, 2011</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2011</t>
+  </si>
+  <si>
+    <t>I stayed here at the last minute one night while on business in the Warner Center area. Checking in, the young lady was really nice and gave me everything I needed. The room was small, and suited my needs. The fridge in the room did not work, though... and I'm not really sure the A/C worked very well either. Over all, though, it wasn't bad. In walking about the grounds, I noticed that some of the area looked a bit run down. The blinds in the housekeeping area were mangled, and quite visible for any of the guests walking by. That wasn't terribly attractive. The grounds were clean and pleasant, but "tight" because of the small space. Everything seems a bit cramped, including the walkways. This hotel is literally wedged between to 101 freeway and Ventura Blvd -- and that means lots of road noise. This really is the type of place you go when you just need a place to sleep -- so if noise bothers you, bring earplugs.
+For me, though, the worst of the experience was the next morning. While I was getting dressed, the phone kept ringing and ringing. I picked it up a few times to find a dial tone. This continued for about 30 minutes... random ringing. When I mentioned it to the guy at the front desk, he was pretty rude about it, blowing me off. He said, "All calls come though here,...I stayed here at the last minute one night while on business in the Warner Center area. Checking in, the young lady was really nice and gave me everything I needed. The room was small, and suited my needs. The fridge in the room did not work, though... and I'm not really sure the A/C worked very well either. Over all, though, it wasn't bad. In walking about the grounds, I noticed that some of the area looked a bit run down. The blinds in the housekeeping area were mangled, and quite visible for any of the guests walking by. That wasn't terribly attractive. The grounds were clean and pleasant, but "tight" because of the small space. Everything seems a bit cramped, including the walkways. This hotel is literally wedged between to 101 freeway and Ventura Blvd -- and that means lots of road noise. This really is the type of place you go when you just need a place to sleep -- so if noise bothers you, bring earplugs.For me, though, the worst of the experience was the next morning. While I was getting dressed, the phone kept ringing and ringing. I picked it up a few times to find a dial tone. This continued for about 30 minutes... random ringing. When I mentioned it to the guy at the front desk, he was pretty rude about it, blowing me off. He said, "All calls come though here, lady, and there haven't been any. Are you sure you aren't hearing things?"  Yeah, that went over well. It's a good thing I was on my out and didn't want to deal with it.Breakfast was okay. Apparently, they've recently expanded their breakfast buffet to include hot bacon and eggs. The bacon was fine... but the eggs? YUCK! They are cooked from discs of salty yellow goo. Blech.The price was okay, considering that most rooms in this area (during summer) tend to be pretty high, but I've certainly been in much nicer hotels for less. However, it's a nice place and the rooms are clean and have just about anything you'd need (hairdryer, iron/ironing board. microwave, fridge (if it works), etc. The free breakfast was okay, but avoid the nuked egg patties.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r96389902-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>96389902</t>
+  </si>
+  <si>
+    <t>02/12/2011</t>
+  </si>
+  <si>
+    <t>Nice but bugs ahh</t>
+  </si>
+  <si>
+    <t>Well I have been to this hotel in the past and it has always been nice but I recently went there with my young  son and my husband and the room was nice everything was pretty clean and nice. What really grossed me out was when I went to the desk and I moved some food we had there a little roach was crawling around. Which had me freaked out all night since I had my young child with me. The blanket had a hole in it from someone smoking I guess. Other than that the place is nice. The staff was okay except she told me a price without taxes so I thought I was paying less. If I knew how much I was really paying I would have got a room at like a holiday inn or best western.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>-RPHotelOwner, Owner at Comfort Inn Near Warner Center, responded to this reviewResponded February 24, 2011</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2011</t>
+  </si>
+  <si>
+    <t>Well I have been to this hotel in the past and it has always been nice but I recently went there with my young  son and my husband and the room was nice everything was pretty clean and nice. What really grossed me out was when I went to the desk and I moved some food we had there a little roach was crawling around. Which had me freaked out all night since I had my young child with me. The blanket had a hole in it from someone smoking I guess. Other than that the place is nice. The staff was okay except she told me a price without taxes so I thought I was paying less. If I knew how much I was really paying I would have got a room at like a holiday inn or best western.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r84953575-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>84953575</t>
+  </si>
+  <si>
+    <t>10/26/2010</t>
+  </si>
+  <si>
+    <t>Just okay...</t>
+  </si>
+  <si>
+    <t>We got  a room here because it was close to a meeting we had scheduled and we needed something inexpensive and convenient. This hotel did meet the requirements. It's an old building but well maintained. The rooms had a rather sterile smell to them, very clean but not very appealing. The room, while small, did have a little 2-seater table, desk, armoire, fridge and microwave. Pretty good set up if you're in town on business and need to get stuff done. Add to that the free internet, free parking and free breakfast. Finding all of this together under $100 per night in the LA area is hard to do. So the room overall was decent, nothing to write home about. The bed was very firm, which works for us but some others may not be so happy. The street noise was not too bad all night but got a bit much around 6am. There is a Denny's right next door which has the best service (late-night) of any Denny's I've ever been to. Since we got in very late, we missed breakfast. In a pinch I'd stay here again, but it wouldn't be first choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>We got  a room here because it was close to a meeting we had scheduled and we needed something inexpensive and convenient. This hotel did meet the requirements. It's an old building but well maintained. The rooms had a rather sterile smell to them, very clean but not very appealing. The room, while small, did have a little 2-seater table, desk, armoire, fridge and microwave. Pretty good set up if you're in town on business and need to get stuff done. Add to that the free internet, free parking and free breakfast. Finding all of this together under $100 per night in the LA area is hard to do. So the room overall was decent, nothing to write home about. The bed was very firm, which works for us but some others may not be so happy. The street noise was not too bad all night but got a bit much around 6am. There is a Denny's right next door which has the best service (late-night) of any Denny's I've ever been to. Since we got in very late, we missed breakfast. In a pinch I'd stay here again, but it wouldn't be first choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r81423792-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>81423792</t>
+  </si>
+  <si>
+    <t>09/28/2010</t>
+  </si>
+  <si>
+    <t>Great Rate, Friendly Staff</t>
+  </si>
+  <si>
+    <t>This was a perfect hotel for our traveling high school team.  The staff could not have been more friendly.  The rooms were nice and very clean.  The free breakfast for the kids made it so easy for us too.  I would certainly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r73836177-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>73836177</t>
+  </si>
+  <si>
+    <t>08/04/2010</t>
+  </si>
+  <si>
+    <t>Sorry-Can not recommend, lots of road noise, so-so hotel in so-so area</t>
+  </si>
+  <si>
+    <t>This hotel is wedged between the 101 freeway on one side and a very busy street on the other side so if road noise is going to bother you look elsewhere. I am not a hotel snob and can deal with some of the Comfort Inns, this one average at best. Looking a little old and  no place you would want to spend more than a night. The general area is not a slum but is a marginal area. Gas stations, liquor stores, massage joint a multitude of smaller restaurants are all very close by. Front desk staff was nice enough, modest breakfast is included but I won't be back for just a few more miles or a few more dollars I would find something I liked better.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>This hotel is wedged between the 101 freeway on one side and a very busy street on the other side so if road noise is going to bother you look elsewhere. I am not a hotel snob and can deal with some of the Comfort Inns, this one average at best. Looking a little old and  no place you would want to spend more than a night. The general area is not a slum but is a marginal area. Gas stations, liquor stores, massage joint a multitude of smaller restaurants are all very close by. Front desk staff was nice enough, modest breakfast is included but I won't be back for just a few more miles or a few more dollars I would find something I liked better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r50596683-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>50596683</t>
+  </si>
+  <si>
+    <t>12/03/2009</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>Great Hotel. Rooms greatly decorated, all the needed amenities. Great service. Location is a bit tricky (just on the border of downtown and a bad neighborhood - I judge it on its looks, have no idea if it was bad or not :)), but we did not have any trouble with that. I would highly recommend it to a friend. Superb value for the money you pay.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2007</t>
+  </si>
+  <si>
+    <t>-RPHotelOwner, Owner at Comfort Inn Near Warner Center, responded to this reviewResponded May 7, 2010</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2010</t>
+  </si>
+  <si>
+    <t>Great Hotel. Rooms greatly decorated, all the needed amenities. Great service. Location is a bit tricky (just on the border of downtown and a bad neighborhood - I judge it on its looks, have no idea if it was bad or not :)), but we did not have any trouble with that. I would highly recommend it to a friend. Superb value for the money you pay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r48757432-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>48757432</t>
+  </si>
+  <si>
+    <t>11/08/2009</t>
+  </si>
+  <si>
+    <t>Clean, friendly hotel would go back again.</t>
+  </si>
+  <si>
+    <t>Despite previous bad reviews ,the most recent a better one after the refurb,I decided to take a chance on this hotel. The hotel was a good price ,after a long flight from London ,check in was fast &amp; efficient &amp; the staff friendly &amp; helpful . Our room was overlooking the pool ,which was clean &amp; warm ,some have not so good a view at the back of the hotel. The room itself was clean &amp; spacious, lovely comfortable beds &amp; plenty of fresh towels  every day. There was a spacious dressing area, clean bathroom &amp; everything we needed. The complimentary breakfast  ( served from 6-9.30 am ) was constantly topped up &amp; a good selection this could be taken up to your room or to go. A special mention for the lovely breakfast lady Veronica who was so sweet &amp; lovely .All staff were polite friendly &amp; helpful and we had a lovely stay ( myself &amp; 4 kids 23, 16,13,7 )MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>rajgmWoodlandHills, owner at Comfort Inn Near Warner Center, responded to this reviewResponded November 10, 2009</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2009</t>
+  </si>
+  <si>
+    <t>Despite previous bad reviews ,the most recent a better one after the refurb,I decided to take a chance on this hotel. The hotel was a good price ,after a long flight from London ,check in was fast &amp; efficient &amp; the staff friendly &amp; helpful . Our room was overlooking the pool ,which was clean &amp; warm ,some have not so good a view at the back of the hotel. The room itself was clean &amp; spacious, lovely comfortable beds &amp; plenty of fresh towels  every day. There was a spacious dressing area, clean bathroom &amp; everything we needed. The complimentary breakfast  ( served from 6-9.30 am ) was constantly topped up &amp; a good selection this could be taken up to your room or to go. A special mention for the lovely breakfast lady Veronica who was so sweet &amp; lovely .All staff were polite friendly &amp; helpful and we had a lovely stay ( myself &amp; 4 kids 23, 16,13,7 )More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r35792024-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>35792024</t>
+  </si>
+  <si>
+    <t>07/25/2009</t>
+  </si>
+  <si>
+    <t>Much better than the reviews as its been refurbished but the internet is awful.</t>
+  </si>
+  <si>
+    <t>Well the reviews here arn't too good but i think the hotel has been refurbished since then.
+The staff at reception were very welcoming at check in was easy and fast.
+The area seems fine and there is a Denny's in the carpark and its located with easy access to the freeways and there are shops across the road including a supermarket.
+The hotel pool is also nice.
+The rooms are "adequate" and while not the ritz they seem acceptable and if you want the ritz i guess you go to the ritz , the tv has a good choice of channels too and the room has a fridge.
+Then onto the internet and this is where it all fell apart for me , i am a full time poker player and need reliable access to the internet and only chose the hotel as it said it had free wireless internet, however the connection seems to cut completely every 30 minutes or so to make you go to view an advert and accept their user agreement over and over again , now this while being incredibly annoying i could just about deal with but once youve done this the connection is awful and disconects every few minutes and everything goes slow.
+Ive never experienced such problems as this and when i asked at reception was told the connection was like that.
+As a result i had to check out and...Well the reviews here arn't too good but i think the hotel has been refurbished since then.The staff at reception were very welcoming at check in was easy and fast.The area seems fine and there is a Denny's in the carpark and its located with easy access to the freeways and there are shops across the road including a supermarket.The hotel pool is also nice.The rooms are "adequate" and while not the ritz they seem acceptable and if you want the ritz i guess you go to the ritz , the tv has a good choice of channels too and the room has a fridge.Then onto the internet and this is where it all fell apart for me , i am a full time poker player and need reliable access to the internet and only chose the hotel as it said it had free wireless internet, however the connection seems to cut completely every 30 minutes or so to make you go to view an advert and accept their user agreement over and over again , now this while being incredibly annoying i could just about deal with but once youve done this the connection is awful and disconects every few minutes and everything goes slow.Ive never experienced such problems as this and when i asked at reception was told the connection was like that.As a result i had to check out and find alternative accomodation with internet which was dissappointing as we were looking forward to staying here as the hotel itself seemed pleasant.If you dont require internet then this could be a good choice for cheap accomodation in a nice enough hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>Well the reviews here arn't too good but i think the hotel has been refurbished since then.
+The staff at reception were very welcoming at check in was easy and fast.
+The area seems fine and there is a Denny's in the carpark and its located with easy access to the freeways and there are shops across the road including a supermarket.
+The hotel pool is also nice.
+The rooms are "adequate" and while not the ritz they seem acceptable and if you want the ritz i guess you go to the ritz , the tv has a good choice of channels too and the room has a fridge.
+Then onto the internet and this is where it all fell apart for me , i am a full time poker player and need reliable access to the internet and only chose the hotel as it said it had free wireless internet, however the connection seems to cut completely every 30 minutes or so to make you go to view an advert and accept their user agreement over and over again , now this while being incredibly annoying i could just about deal with but once youve done this the connection is awful and disconects every few minutes and everything goes slow.
+Ive never experienced such problems as this and when i asked at reception was told the connection was like that.
+As a result i had to check out and...Well the reviews here arn't too good but i think the hotel has been refurbished since then.The staff at reception were very welcoming at check in was easy and fast.The area seems fine and there is a Denny's in the carpark and its located with easy access to the freeways and there are shops across the road including a supermarket.The hotel pool is also nice.The rooms are "adequate" and while not the ritz they seem acceptable and if you want the ritz i guess you go to the ritz , the tv has a good choice of channels too and the room has a fridge.Then onto the internet and this is where it all fell apart for me , i am a full time poker player and need reliable access to the internet and only chose the hotel as it said it had free wireless internet, however the connection seems to cut completely every 30 minutes or so to make you go to view an advert and accept their user agreement over and over again , now this while being incredibly annoying i could just about deal with but once youve done this the connection is awful and disconects every few minutes and everything goes slow.Ive never experienced such problems as this and when i asked at reception was told the connection was like that.As a result i had to check out and find alternative accomodation with internet which was dissappointing as we were looking forward to staying here as the hotel itself seemed pleasant.If you dont require internet then this could be a good choice for cheap accomodation in a nice enough hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r5597682-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>5597682</t>
+  </si>
+  <si>
+    <t>08/09/2006</t>
+  </si>
+  <si>
+    <t>Substandard</t>
+  </si>
+  <si>
+    <t>My family and I rented 3 rooms there last week, for 2 nights.  One room was alright but the other 2 were substandard.  The toilet overflowed in the room downstairs.  The room on the second floor was absolutely filthy!  The carpet was the worse I have ever seen and the chair was nasty looking.  I complained to the front desk and they said they wouyld get back to me.  Which they never did.  Upon checking out I spoke with the manager and he was unwilling to alter the bill in any way.  When I let him know I was intending on posting a negative review online about his hotel,  he indicated to me that he couldn't care less.   Stay away from this substandard  hotel and the very rude staff that work there!MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I rented 3 rooms there last week, for 2 nights.  One room was alright but the other 2 were substandard.  The toilet overflowed in the room downstairs.  The room on the second floor was absolutely filthy!  The carpet was the worse I have ever seen and the chair was nasty looking.  I complained to the front desk and they said they wouyld get back to me.  Which they never did.  Upon checking out I spoke with the manager and he was unwilling to alter the bill in any way.  When I let him know I was intending on posting a negative review online about his hotel,  he indicated to me that he couldn't care less.   Stay away from this substandard  hotel and the very rude staff that work there!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r5233791-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>5233791</t>
+  </si>
+  <si>
+    <t>05/29/2006</t>
+  </si>
+  <si>
+    <t>Very nice and clean</t>
+  </si>
+  <si>
+    <t>I was there on a  business trip.  I don't know why they had bad reviews.  The hotel looks like it has been upgraded.  I asked the front desk clerk, they said they have just finished remodeling and it's under new management.  I liked the interior of the room.  Nice wall-paper and bed sheets were very clean.  I liked it.  I thought it was as good as any five star hotel.  Good price for a room like that and I liked their breakfast.  It was a nice experience for me.  People were friendly and curtious at the front desk.  I think I will stay there if I go back to L.A. again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2006</t>
+  </si>
+  <si>
+    <t>I was there on a  business trip.  I don't know why they had bad reviews.  The hotel looks like it has been upgraded.  I asked the front desk clerk, they said they have just finished remodeling and it's under new management.  I liked the interior of the room.  Nice wall-paper and bed sheets were very clean.  I liked it.  I thought it was as good as any five star hotel.  Good price for a room like that and I liked their breakfast.  It was a nice experience for me.  People were friendly and curtious at the front desk.  I think I will stay there if I go back to L.A. again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r4361769-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>4361769</t>
+  </si>
+  <si>
+    <t>01/18/2006</t>
+  </si>
+  <si>
+    <t>Disgusting!</t>
+  </si>
+  <si>
+    <t>My children (ages 5, 15, and 17) and I stayed at this hotel for two nights as we had business in the area. I also took them to Disneyland the first day of our stay. 
+The hotel was gross. We were placed on the third floor facing the highway, even though other rooms were available. The walls looked like they had boogers and/or bodily fluids on them. The toilet was backed up and finally refused to flush at all in the end. The staff was informed of this and told me to come get a plunger! The beds were stained, but the sheets/blankets seemed clean. However, we were all bit by something during the night, possibly bedbugs(?) I'm not sure. The tv barely worked. The table was dirty and the chair upholstery was stained. The people in the next room were being very loud (---), and the staff called our room (at about midnight!) believing it was us that was being loud. This call came shortly after we returned from Disneyland, and my youngest was already asleep. I think it was because I had my three children with me that the staff assumed it was us making noise. 
+The disgusting room and rudeness of the staff ruined our trip. This was not a trip that could be easily repeated as my financial situation is very sad. My husband, the childrens father, had passed away about a year prior to this...My children (ages 5, 15, and 17) and I stayed at this hotel for two nights as we had business in the area. I also took them to Disneyland the first day of our stay. The hotel was gross. We were placed on the third floor facing the highway, even though other rooms were available. The walls looked like they had boogers and/or bodily fluids on them. The toilet was backed up and finally refused to flush at all in the end. The staff was informed of this and told me to come get a plunger! The beds were stained, but the sheets/blankets seemed clean. However, we were all bit by something during the night, possibly bedbugs(?) I'm not sure. The tv barely worked. The table was dirty and the chair upholstery was stained. The people in the next room were being very loud (---), and the staff called our room (at about midnight!) believing it was us that was being loud. This call came shortly after we returned from Disneyland, and my youngest was already asleep. I think it was because I had my three children with me that the staff assumed it was us making noise. The disgusting room and rudeness of the staff ruined our trip. This was not a trip that could be easily repeated as my financial situation is very sad. My husband, the childrens father, had passed away about a year prior to this trip and I was hoping they could enjoy themselves, unfortunately I chose this hotel because of the proximity to business I needed to attend to as well as the price. If we are fortunate enough to be able to afford another vacation I will stay at another hotel, for that matter, a different chain all together. And yes, I did complain to the main chain after we returned home and all that I received was a very insincere apology letter.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2005</t>
+  </si>
+  <si>
+    <t>My children (ages 5, 15, and 17) and I stayed at this hotel for two nights as we had business in the area. I also took them to Disneyland the first day of our stay. 
+The hotel was gross. We were placed on the third floor facing the highway, even though other rooms were available. The walls looked like they had boogers and/or bodily fluids on them. The toilet was backed up and finally refused to flush at all in the end. The staff was informed of this and told me to come get a plunger! The beds were stained, but the sheets/blankets seemed clean. However, we were all bit by something during the night, possibly bedbugs(?) I'm not sure. The tv barely worked. The table was dirty and the chair upholstery was stained. The people in the next room were being very loud (---), and the staff called our room (at about midnight!) believing it was us that was being loud. This call came shortly after we returned from Disneyland, and my youngest was already asleep. I think it was because I had my three children with me that the staff assumed it was us making noise. 
+The disgusting room and rudeness of the staff ruined our trip. This was not a trip that could be easily repeated as my financial situation is very sad. My husband, the childrens father, had passed away about a year prior to this...My children (ages 5, 15, and 17) and I stayed at this hotel for two nights as we had business in the area. I also took them to Disneyland the first day of our stay. The hotel was gross. We were placed on the third floor facing the highway, even though other rooms were available. The walls looked like they had boogers and/or bodily fluids on them. The toilet was backed up and finally refused to flush at all in the end. The staff was informed of this and told me to come get a plunger! The beds were stained, but the sheets/blankets seemed clean. However, we were all bit by something during the night, possibly bedbugs(?) I'm not sure. The tv barely worked. The table was dirty and the chair upholstery was stained. The people in the next room were being very loud (---), and the staff called our room (at about midnight!) believing it was us that was being loud. This call came shortly after we returned from Disneyland, and my youngest was already asleep. I think it was because I had my three children with me that the staff assumed it was us making noise. The disgusting room and rudeness of the staff ruined our trip. This was not a trip that could be easily repeated as my financial situation is very sad. My husband, the childrens father, had passed away about a year prior to this trip and I was hoping they could enjoy themselves, unfortunately I chose this hotel because of the proximity to business I needed to attend to as well as the price. If we are fortunate enough to be able to afford another vacation I will stay at another hotel, for that matter, a different chain all together. And yes, I did complain to the main chain after we returned home and all that I received was a very insincere apology letter.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r3169341-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>3169341</t>
+  </si>
+  <si>
+    <t>02/07/2005</t>
+  </si>
+  <si>
+    <t>Noise, Noise, and even more noise!</t>
+  </si>
+  <si>
+    <t>The hotel is sandwiched right between busy Ventura Blvd and even busier US Highway 101--we had a room on the side facing neither, but the traffic noise was unbearable and add to that the noise of every car "beeping" when its' doors were locked/unlocked by the owner.  You could hear every footstep from the room above and from anyone walking down the runways outside.  The room above us must have been "rented by the hour", traffic in/out was constant most of the day/night.  They must have used tissue paper for insulation when they built this place.  The "parking lot" was very small for the number of rooms--get there early or don't give up your space.   The breakfast room was 5 tables squeezed into the small lobby and 2 of the tables were in the very small area where the food was--with people at those tables, it was impossible to maneuver to the food.  Then throw in the fact that what looked like the "cleaning staff" was sitting at one of the tables eating and carrying on.  The continental breakfast was very cheap pastries and watered down OJ and some stale cereal with very few bowls available.  The front desk people were unfriendly/curt and were very very difficult to understand.  The only really nice thing about the room was the bathroom set-up.  The sink and very large countertop were outside and away from the room where the toilet/shower was.  That should...The hotel is sandwiched right between busy Ventura Blvd and even busier US Highway 101--we had a room on the side facing neither, but the traffic noise was unbearable and add to that the noise of every car "beeping" when its' doors were locked/unlocked by the owner.  You could hear every footstep from the room above and from anyone walking down the runways outside.  The room above us must have been "rented by the hour", traffic in/out was constant most of the day/night.  They must have used tissue paper for insulation when they built this place.  The "parking lot" was very small for the number of rooms--get there early or don't give up your space.   The breakfast room was 5 tables squeezed into the small lobby and 2 of the tables were in the very small area where the food was--with people at those tables, it was impossible to maneuver to the food.  Then throw in the fact that what looked like the "cleaning staff" was sitting at one of the tables eating and carrying on.  The continental breakfast was very cheap pastries and watered down OJ and some stale cereal with very few bowls available.  The front desk people were unfriendly/curt and were very very difficult to understand.  The only really nice thing about the room was the bathroom set-up.  The sink and very large countertop were outside and away from the room where the toilet/shower was.  That should be a MUST for any hotel--it allows for easier use by multiple people.  If I didn't have business in the immediate area, I would have NEVER stayed here.  Comfort Inns used to be a decent chain, but I haven't stayed in many decent ones lately and this one is AAA-approved!  This one last sentence should sum up this hotel--the in-room refrigerator had graffiti scrawled on the door!MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is sandwiched right between busy Ventura Blvd and even busier US Highway 101--we had a room on the side facing neither, but the traffic noise was unbearable and add to that the noise of every car "beeping" when its' doors were locked/unlocked by the owner.  You could hear every footstep from the room above and from anyone walking down the runways outside.  The room above us must have been "rented by the hour", traffic in/out was constant most of the day/night.  They must have used tissue paper for insulation when they built this place.  The "parking lot" was very small for the number of rooms--get there early or don't give up your space.   The breakfast room was 5 tables squeezed into the small lobby and 2 of the tables were in the very small area where the food was--with people at those tables, it was impossible to maneuver to the food.  Then throw in the fact that what looked like the "cleaning staff" was sitting at one of the tables eating and carrying on.  The continental breakfast was very cheap pastries and watered down OJ and some stale cereal with very few bowls available.  The front desk people were unfriendly/curt and were very very difficult to understand.  The only really nice thing about the room was the bathroom set-up.  The sink and very large countertop were outside and away from the room where the toilet/shower was.  That should...The hotel is sandwiched right between busy Ventura Blvd and even busier US Highway 101--we had a room on the side facing neither, but the traffic noise was unbearable and add to that the noise of every car "beeping" when its' doors were locked/unlocked by the owner.  You could hear every footstep from the room above and from anyone walking down the runways outside.  The room above us must have been "rented by the hour", traffic in/out was constant most of the day/night.  They must have used tissue paper for insulation when they built this place.  The "parking lot" was very small for the number of rooms--get there early or don't give up your space.   The breakfast room was 5 tables squeezed into the small lobby and 2 of the tables were in the very small area where the food was--with people at those tables, it was impossible to maneuver to the food.  Then throw in the fact that what looked like the "cleaning staff" was sitting at one of the tables eating and carrying on.  The continental breakfast was very cheap pastries and watered down OJ and some stale cereal with very few bowls available.  The front desk people were unfriendly/curt and were very very difficult to understand.  The only really nice thing about the room was the bathroom set-up.  The sink and very large countertop were outside and away from the room where the toilet/shower was.  That should be a MUST for any hotel--it allows for easier use by multiple people.  If I didn't have business in the immediate area, I would have NEVER stayed here.  Comfort Inns used to be a decent chain, but I haven't stayed in many decent ones lately and this one is AAA-approved!  This one last sentence should sum up this hotel--the in-room refrigerator had graffiti scrawled on the door!More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1666,3137 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>73</v>
+      </c>
+      <c r="X6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" t="s">
+        <v>150</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" t="s">
+        <v>157</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>158</v>
+      </c>
+      <c r="O17" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J18" t="s">
+        <v>162</v>
+      </c>
+      <c r="K18" t="s">
+        <v>163</v>
+      </c>
+      <c r="L18" t="s">
+        <v>164</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>165</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19" t="s">
+        <v>170</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>165</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J20" t="s">
+        <v>173</v>
+      </c>
+      <c r="K20" t="s">
+        <v>174</v>
+      </c>
+      <c r="L20" t="s">
+        <v>175</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>176</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" t="s">
+        <v>180</v>
+      </c>
+      <c r="L21" t="s">
+        <v>181</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>176</v>
+      </c>
+      <c r="O21" t="s">
+        <v>82</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L22" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>176</v>
+      </c>
+      <c r="O22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K23" t="s">
+        <v>190</v>
+      </c>
+      <c r="L23" t="s">
+        <v>191</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K24" t="s">
+        <v>195</v>
+      </c>
+      <c r="L24" t="s">
+        <v>196</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>197</v>
+      </c>
+      <c r="O24" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>200</v>
+      </c>
+      <c r="J25" t="s">
+        <v>201</v>
+      </c>
+      <c r="K25" t="s">
+        <v>202</v>
+      </c>
+      <c r="L25" t="s">
+        <v>203</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>204</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>205</v>
+      </c>
+      <c r="J26" t="s">
+        <v>206</v>
+      </c>
+      <c r="K26" t="s">
+        <v>207</v>
+      </c>
+      <c r="L26" t="s">
+        <v>208</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>209</v>
+      </c>
+      <c r="O26" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>211</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>212</v>
+      </c>
+      <c r="J27" t="s">
+        <v>213</v>
+      </c>
+      <c r="K27" t="s">
+        <v>214</v>
+      </c>
+      <c r="L27" t="s">
+        <v>215</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>209</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>217</v>
+      </c>
+      <c r="J28" t="s">
+        <v>218</v>
+      </c>
+      <c r="K28" t="s">
+        <v>219</v>
+      </c>
+      <c r="L28" t="s">
+        <v>220</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>221</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>223</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>224</v>
+      </c>
+      <c r="J29" t="s">
+        <v>225</v>
+      </c>
+      <c r="K29" t="s">
+        <v>226</v>
+      </c>
+      <c r="L29" t="s">
+        <v>227</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>228</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>230</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>231</v>
+      </c>
+      <c r="J30" t="s">
+        <v>232</v>
+      </c>
+      <c r="K30" t="s">
+        <v>233</v>
+      </c>
+      <c r="L30" t="s">
+        <v>234</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>235</v>
+      </c>
+      <c r="O30" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>237</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>238</v>
+      </c>
+      <c r="J31" t="s">
+        <v>239</v>
+      </c>
+      <c r="K31" t="s">
+        <v>240</v>
+      </c>
+      <c r="L31" t="s">
+        <v>241</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>242</v>
+      </c>
+      <c r="O31" t="s">
+        <v>72</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>243</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>244</v>
+      </c>
+      <c r="J32" t="s">
+        <v>245</v>
+      </c>
+      <c r="K32" t="s">
+        <v>246</v>
+      </c>
+      <c r="L32" t="s">
+        <v>247</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>242</v>
+      </c>
+      <c r="O32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>248</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>249</v>
+      </c>
+      <c r="J33" t="s">
+        <v>250</v>
+      </c>
+      <c r="K33" t="s">
+        <v>251</v>
+      </c>
+      <c r="L33" t="s">
+        <v>252</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>253</v>
+      </c>
+      <c r="O33" t="s">
+        <v>82</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>254</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>255</v>
+      </c>
+      <c r="J34" t="s">
+        <v>256</v>
+      </c>
+      <c r="K34" t="s">
+        <v>257</v>
+      </c>
+      <c r="L34" t="s">
+        <v>258</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>253</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>260</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>261</v>
+      </c>
+      <c r="J35" t="s">
+        <v>262</v>
+      </c>
+      <c r="K35" t="s">
+        <v>263</v>
+      </c>
+      <c r="L35" t="s">
+        <v>264</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>265</v>
+      </c>
+      <c r="O35" t="s">
+        <v>96</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>267</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>268</v>
+      </c>
+      <c r="J36" t="s">
+        <v>269</v>
+      </c>
+      <c r="K36" t="s">
+        <v>270</v>
+      </c>
+      <c r="L36" t="s">
+        <v>271</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>272</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>273</v>
+      </c>
+      <c r="J37" t="s">
+        <v>274</v>
+      </c>
+      <c r="K37" t="s">
+        <v>275</v>
+      </c>
+      <c r="L37" t="s">
+        <v>276</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>265</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>277</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>278</v>
+      </c>
+      <c r="J38" t="s">
+        <v>279</v>
+      </c>
+      <c r="K38" t="s">
+        <v>280</v>
+      </c>
+      <c r="L38" t="s">
+        <v>281</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>282</v>
+      </c>
+      <c r="X38" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>285</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>286</v>
+      </c>
+      <c r="J39" t="s">
+        <v>287</v>
+      </c>
+      <c r="K39" t="s">
+        <v>288</v>
+      </c>
+      <c r="L39" t="s">
+        <v>289</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>290</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>291</v>
+      </c>
+      <c r="X39" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>294</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>295</v>
+      </c>
+      <c r="J40" t="s">
+        <v>296</v>
+      </c>
+      <c r="K40" t="s">
+        <v>297</v>
+      </c>
+      <c r="L40" t="s">
+        <v>298</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>299</v>
+      </c>
+      <c r="O40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>300</v>
+      </c>
+      <c r="X40" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>303</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>304</v>
+      </c>
+      <c r="J41" t="s">
+        <v>305</v>
+      </c>
+      <c r="K41" t="s">
+        <v>306</v>
+      </c>
+      <c r="L41" t="s">
+        <v>307</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>308</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>310</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>311</v>
+      </c>
+      <c r="J42" t="s">
+        <v>312</v>
+      </c>
+      <c r="K42" t="s">
+        <v>313</v>
+      </c>
+      <c r="L42" t="s">
+        <v>314</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>315</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>316</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>317</v>
+      </c>
+      <c r="J43" t="s">
+        <v>318</v>
+      </c>
+      <c r="K43" t="s">
+        <v>319</v>
+      </c>
+      <c r="L43" t="s">
+        <v>320</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>321</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>323</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>324</v>
+      </c>
+      <c r="J44" t="s">
+        <v>325</v>
+      </c>
+      <c r="K44" t="s">
+        <v>326</v>
+      </c>
+      <c r="L44" t="s">
+        <v>327</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>328</v>
+      </c>
+      <c r="O44" t="s">
+        <v>82</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>329</v>
+      </c>
+      <c r="X44" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>332</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>333</v>
+      </c>
+      <c r="J45" t="s">
+        <v>334</v>
+      </c>
+      <c r="K45" t="s">
+        <v>335</v>
+      </c>
+      <c r="L45" t="s">
+        <v>336</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>337</v>
+      </c>
+      <c r="O45" t="s">
+        <v>72</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>338</v>
+      </c>
+      <c r="X45" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>341</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>342</v>
+      </c>
+      <c r="J46" t="s">
+        <v>343</v>
+      </c>
+      <c r="K46" t="s">
+        <v>344</v>
+      </c>
+      <c r="L46" t="s">
+        <v>345</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>346</v>
+      </c>
+      <c r="O46" t="s">
+        <v>72</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>348</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>349</v>
+      </c>
+      <c r="J47" t="s">
+        <v>350</v>
+      </c>
+      <c r="K47" t="s">
+        <v>351</v>
+      </c>
+      <c r="L47" t="s">
+        <v>352</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>354</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>355</v>
+      </c>
+      <c r="J48" t="s">
+        <v>356</v>
+      </c>
+      <c r="K48" t="s">
+        <v>357</v>
+      </c>
+      <c r="L48" t="s">
+        <v>358</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>359</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>361</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>362</v>
+      </c>
+      <c r="J49" t="s">
+        <v>363</v>
+      </c>
+      <c r="K49" t="s">
+        <v>364</v>
+      </c>
+      <c r="L49" t="s">
+        <v>365</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>366</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>368</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>369</v>
+      </c>
+      <c r="J50" t="s">
+        <v>370</v>
+      </c>
+      <c r="K50" t="s">
+        <v>371</v>
+      </c>
+      <c r="L50" t="s">
+        <v>372</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>373</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_130.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_130.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="423">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>fdipace</t>
+  </si>
+  <si>
     <t>06/29/2018</t>
   </si>
   <si>
@@ -187,6 +190,9 @@
   </si>
   <si>
     <t>Hotel is nestled between Ventura Blvd. and the 101 so you cannot escape the noise.  Don't be scared by the outside of this hotel.  It looks like a dump.  However my room was modern with all new furnishings and a brand new bathroom and a fantastic bed.  Why a 2 star? Because my room had vertical blinds that let light in all night long.  Why would a hotel in 2018 use cheap plastic vertical blinds that went out in 1980?  The outside halls are brightly lit so unless you have good shades (some of the rooms do) you cannot escape the light. I had to sleep on one side to avoid the light.  The owner of the hotel must of spent a fortune redoing the rooms why not add curtains?!  My shower was totally modern too bad it didn't have hot water.  On a positive note if light and luke warm water doesn't bother you this hotel is a steal for less then $100.More</t>
+  </si>
+  <si>
+    <t>newyork300</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r547966021-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
@@ -222,6 +228,9 @@
 Gives it more of a cleaner fresh , private vibe. Building has a great floor plan as well with elevators and stairs leading into the back areas if you’re on the other side of the hotel. Only a couple of rooms on each side. I checked out the back area as well. It looked great. Always do a run down of the building wherever I travel. I like to know where all the exits...I stayed at the Comfort inn on October for a week. The location was fantastic. Close to many restaurants , convenient stores and more. Close proximity to Santa Monica and other main attractions. I went down to Santa Monica Beach and loved the surroundings. ( The location to LAX airport was not too close. But I stayed away from LA areas. Many areas were in Engle wood marketed as LA. I didn’t have the time to do that much research into locations. So I went further up north yet not far from it all. For the location it was well valued. $150 night I paid at the time. Other areas close to LA were charging more and or less and had horrible reviews. They seemed run down and not safe. ) This hotel seemed safe , secure with a great vibe to it. I loved that my room was on the second floor with an entrance from outside overlooking the outdoor pool area to enter it. Gives it more of a cleaner fresh , private vibe. Building has a great floor plan as well with elevators and stairs leading into the back areas if you’re on the other side of the hotel. Only a couple of rooms on each side. I checked out the back area as well. It looked great. Always do a run down of the building wherever I travel. I like to know where all the exits and elevators are. There’s nothing worse than hotels with 1 narrow , long corridor leading into all of the rooms with carpeted , dirty hallways. ( like 50 rooms on one floor and you see all these ppl coming out of it. ) Here you rarely see your neighbor stepping in and out of his room. I got a double room with 2 full beds. My room was nice , clean and quiet. There was a separate mirrored sink separated from the bathroom . Big plus if you’re traveling with someone. Outdoor pool looked great. I didn’t go in it but tanned by it. free breakfast , nice private little place. More</t>
   </si>
   <si>
+    <t>LVMom3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r517782099-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -252,6 +261,9 @@
     <t>When we first pulled up to this place, we looked and each other, kind of laughed and thought "oh my, what have we gotten ourselves into?"  The lobby smelled STONG of Lysol, which always worrries me.  What are you covering up?  Nice lady checked us in quickly.   She said "your room is in the back.  Drove around to find a view of the 101 freeway and homeless people doing laundry.  Entered the room, which was small, but remodeled.  The room was the surprise.  Very clean and very comfortable.  The bed and the pillows were better than some hotels I've stayed in that were 4-5 star.  Slept like a baby (I wear earplugs, that was quite helpful).  While the outside is in desperate need of attention, the room was actually very nice to sleep in.  And in all honesty, that's really what you need from a hotel.More</t>
   </si>
   <si>
+    <t>ClaimsMachine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r497225848-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -276,6 +288,9 @@
     <t>Ive stayed at this hotel a number of times.  This time exceeded my expectations.  The bed was very comfortable, the pool area very clean, and the air conditioning borderline freezing (the way I like it!).  My only complaint was the breakfast area being very small.  Short of that, everything was great!More</t>
   </si>
   <si>
+    <t>harposCal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r487479348-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>Woodlands hills is a lovely up scale area, and the hotels there can be pricey. We were traveling for leisure, going to a B Day Party up on the Hills. This hotel was reasonably priced, and very close to the Party. Other hotels charged high for parking, had no pool &amp; tub, etc. We got a top floor nice room clean quiet and updated furniture, Staff was very friendly, efficient and hospitable. Poll and tub were fairly clean, Hot tub is about to be re done some jets didn't work., Parking lot was free, safe, Breakfast was very good for a CI, I have seen much worse. overall a great value for the price, i would stay there again anytime i'm in the area.Tip; there s a Dennys next door if your hungry late, and a Ralphs across the streetMore</t>
   </si>
   <si>
+    <t>Jeff M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r473490753-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -315,6 +333,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Dansker58</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r430289336-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -333,6 +354,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>A C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r424858149-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -354,6 +378,9 @@
     <t>This motel appear to be an owner oprator one.  Nice people, friendly staff. But the non-smoking room assigned to me was previously a "Smoking"  room,   the number was room 310.   The issue here is just by sticking A sticky on door that says "Non-Smkoing" , you can't  declare that is not smoking unless you  was the carpet, the drapes scrape walls or etc.   I could smell smkoe all night in my lungs where I am an asthma patient. I put up with it for 3 day then checked out.   I think if a room is designed as "Non-Smoking " then, it needs to be certified by an Independent firm.   My advise, ask if mote,hotel is owner oprater, then as more questions.More</t>
   </si>
   <si>
+    <t>Maya L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r422624405-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -369,6 +396,9 @@
     <t xml:space="preserve">Rooms are clean and comfortable. Great location in our case. We visited friends and relatives, so it was close to all. Service is good.Breakfast was ok. Hot pancakes, muffins, juices, coffee, eggs. Just enough to start the day with. </t>
   </si>
   <si>
+    <t>23Dorsett</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r407424155-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -390,6 +420,9 @@
     <t>When entering the single king room at night, it took the A/C over 4 hours to cool the room down enough to be comfortable.  Room was musty and found 2 air fresheners on the floor at opposite ends of the room.  Furniture has seen better days, no chair at the table to do computing on, rather a uncomfortable cushioned chair in the corner.  Plenty of electrical outlets to charge electronics with though.  TV barely bigger than the microwave, mini-fridge okay for a couple days if needed.  Stairs on the east end of the building has issues with kick-plates coming loose and bounce around if you touch them.  Bed average but to me wasn't comfortable.  Parking for full size vehicles is a nightmare and beware if your towing - don't plan on parking here.  Driveway under port is 7'6" on one side and 6'6" on the outlet side, if you go to the Denny's drive you can weave your way around the lot to the back, but if towing (I had a small single axle generator) they will not allow parking even if you break your rig down for 2 slots.  They couldn't get their stories together why this isn't allowed and refused to contact management for discussion even though when I checked out there were ample slots open.  Park on the busy street if you dare.More</t>
   </si>
   <si>
+    <t>BusyWife</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r405925634-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -405,6 +438,9 @@
     <t>We had a single king room.  The room was clean and had plenty of room.  Also had a refrigerator. Very nice and clean outdoor pool and hot tub.  There was a complimentary full breakfast which was very good but not enough tables to sit.  We had to take our breakfast to our room for two of the three days which is why the 4 star rating instead of 5.</t>
   </si>
   <si>
+    <t>marilyn w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r341747551-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -423,6 +459,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>KevinT888</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r319119914-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -444,6 +483,9 @@
     <t>For many people, it is unthinkable of booking a hotel in your own town and for yourself. But it is totally normal in Los Angeles where the traffic is so terrible that takes people hours just for going to work or going back home during the weekdays. For me, this Comfort Inn is my solution to the traffic problem in LA. When the traffic is bad, or I have a late meeting in office, I just go to Comfort Inn and stay there for the night. The hotel is not the luxury...the facility is clean, remodeled...everything meets my expectation of a 2-STAR hotel. The surprise is inside the room. It has 5-STAR beds. The bed is very comfortable, bedding is at high quality, like a 5-STAR hotel bed without a plate of chocolates on it. It does not have a view nor an endless pool. But I am not coming here for vacation, therefore a clean &amp; comfortable bed with a working shower is all I needed.The hotel is next to Freeway 101, it is very convenient to get off or get back onto the freeway.More</t>
   </si>
   <si>
+    <t>Spats-Fanny</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r301886345-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -462,6 +504,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Marina G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r300015776-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -483,6 +528,9 @@
     <t>The hotel is decent, but the service not so much. They charge way too much and don't provide ANY housekeeping in the room during your stay. Needless to say that I had to clean up my room, I had to run to the reception desk to ask for soap and shampoo and clean towels. Very disappointing!The WiFi was down most of the time, so I wasn't able to use my laptop only my phone.The breakfast room is VERY small and has only 8 small tables for hundreds of guests. Around 8.30 am it is so crowded, that we had to wait in line to have breakfast.Also the parking is too small for all the guests' cars and it is challenging to find a spot if you arrive late at night.More</t>
   </si>
   <si>
+    <t>Ed Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r242602005-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -504,6 +552,9 @@
     <t>We arrived on a Sunday.  An hour or so after arrival I went to get a glass of water, NO WATER FOR YOU.  There was air pressure though, so I waited and finally got water.  I had checked in without a car, so chose to wait out the drought.  Monday the desk called to say the water would be off for a short period of time.  Hot water? Out of the question, sometimes it would be warm, if you had the time to wait for it.  Cable service went out three times, once due to a power failure.  Wi-Fi agreement was so long and complicated I used my hotspot instead.  I was returning to the area the next week, booked a different hotel.  This makes me rethink using Choice Hotels at all.More</t>
   </si>
   <si>
+    <t>William J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r237632439-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -522,6 +573,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>SakuKim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r232627006-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -537,6 +591,9 @@
     <t>Ask for room at third floor facing the inner yard, pool or parking- just so that it will be a bit more quite as it locates very close to the bigger roads entering LA from north. A good advice is to bring your swimming gear/suit as they have a hot water tub and swimming pool which is really handy after a long drive. Grossery store (Ralphs), Japanese and Mexican style fast food places 4 minutes walk from the hotel.</t>
   </si>
   <si>
+    <t>Pankaj T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r198233506-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -555,6 +612,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Psyflux</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r198121932-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -570,6 +630,9 @@
     <t>Convenient hotel with nice room and facilities. Breakfast had good selection and staff were helpful. Excellent vintage market across the road in the school grounds when we stayed. Only gripe is there is quite a lot of road noise as its next to a really busy road.</t>
   </si>
   <si>
+    <t>Paul P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r197368091-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -585,6 +648,9 @@
     <t xml:space="preserve">Room was nice. Good shower, quiet, clean. Housekeeping was very nice about extra towels,etc. Good breakfast. Made my own waffles and could eat as much as I wanted. Front desk people were very nice and helpful.   </t>
   </si>
   <si>
+    <t>LosAngelesCaliNikki</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r171447382-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -600,6 +666,9 @@
     <t xml:space="preserve">This place really isn't so bad, I just didn't feel super safe as a single woman traveling on business. Nothing happened but I was uncomfortable coming back to my room in the evening and seeing men smoking and drinking off the balcony and knowing which room I was going in to. Also, breakfast is poor quality food and I didn't have hot water to shower with 3 out of the 5 days I was there. </t>
   </si>
   <si>
+    <t>califmac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r170638208-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -621,6 +690,9 @@
     <t>First, don't be fooled by photos (of course), it is NOT that nice.  Needs some TLC in the rooms and exterior.  We got a room with two queen beds--smallest queen beds ever seen on earth!  Bathroom is very run down and small.  Lamps are filled with a mixture of 'white' light and 'brown' light - very confusing.  A/C doesn't work good and electrical sockets don't work in places.  The Breakfast area is cramped, crowded and not good at all--don't go to the Denny's next door; bad service that is slow; like a root canal.  Staff is a little cold and not very friendly.  Also - they don't tell you that you could have a room facing the Highway....road noise all night long.  Oh, they will offer you another room....for 30-40 extra a night!!  They don't even mention that in the reservation site.  Also, smallest refrigerator with no microwave.  Who does that?  I guess these people do. If you HAVE to stay somewhere....sure, but I would suggest you find somewhere else.  We stayed for four nights and thankfully we did not stay in the room very much.More</t>
   </si>
   <si>
+    <t>mhernan702</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r170151656-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -636,6 +708,9 @@
     <t xml:space="preserve">My family and I stayed here a few days ago, and it was a great stay! Nice size rooms, very clean, super comfy beds, AC was quiet and worked great! Staff was friendly, breakfast was good. Parking was a little tricky if you came back to the hotel after 8 pm, but we never had a problem finding a spot. Only small issue was the small room they serve breakfast in, try to get there before 9 am! We will definitely stay here again! </t>
   </si>
   <si>
+    <t>Lydia V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r166764876-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -657,6 +732,9 @@
     <t>We checked into our room yesterday afternoon and were not real pleased that we got a room that was off the freeway and without any handicapped accessible parking but the room wasn't bad so we dealth with it.  We went to dinner with family and when we came back there wasn't any parking anywhere near our room and to add insult to injury one of the parking spaces in front of our room was taken by a TRAILER!  This establishment required you to post a parking sticker in your window so where did they put the one for the trailer.  We asked the person at the desk to request that the trailer be moved so that we could park near our room.  The van that had towed the trailer was right next to the trailer and they should have been able to locate the owner easily as you had to give your license plate number with your room info.  They wanted us to park in one of the two handicapped spots that were near the office which was 2 buildings away!  Suffice to say that after waiting almost a hour for them to take care of the situation my husband finally asked the front desk clerk what she was doing to take care of the situation and the manager came in and told him that he didn't want us staying there and he refunded our money.  It was 11:15PM on...We checked into our room yesterday afternoon and were not real pleased that we got a room that was off the freeway and without any handicapped accessible parking but the room wasn't bad so we dealth with it.  We went to dinner with family and when we came back there wasn't any parking anywhere near our room and to add insult to injury one of the parking spaces in front of our room was taken by a TRAILER!  This establishment required you to post a parking sticker in your window so where did they put the one for the trailer.  We asked the person at the desk to request that the trailer be moved so that we could park near our room.  The van that had towed the trailer was right next to the trailer and they should have been able to locate the owner easily as you had to give your license plate number with your room info.  They wanted us to park in one of the two handicapped spots that were near the office which was 2 buildings away!  Suffice to say that after waiting almost a hour for them to take care of the situation my husband finally asked the front desk clerk what she was doing to take care of the situation and the manager came in and told him that he didn't want us staying there and he refunded our money.  It was 11:15PM on the Sunday of a four day 4th of July weekend.  Note, this was a prepaid reservation with a request for a first story room as there was a handicapped guest in our group.  Very bad customer service and no respect shown for a handicapped Vietnam Veteran.More</t>
   </si>
   <si>
+    <t>Jeff H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r166119113-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -672,6 +750,9 @@
     <t>This Comfort Inn is decent.  Unlike most, it has exterior corridors and the rooms are fairly small.  I had a king and only a desk chair was in the room.  The desk staff was rather snippy, so it must be that management does not train well on customer service.  The room itself was clean and the internet was good.  It took awhile for the room to cool down and at 97 degrees outside, it was uncomfortable for the first 2 hours.  The breakfast was on the poor side of typical for a Comfort Inn.</t>
   </si>
   <si>
+    <t>jhg155</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r161653890-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -693,6 +774,9 @@
     <t>I stayed in this hotel for two nights while in LA on business.  No, its not a new property, but it is clean and well kept. That means more to me than newness.  I requested and received a room on the top floor away from the freeway.  Noise was not an issue.  There were nice shutters on the windows that I could open to let in some light.  The room was not huge, but the sink area was good.  No closet, but an armoire was provided to put my clothes in. The fridge was not on when I arrived, but I turned it on and it worked fine.  The bed was comfortable and I slept well.  The internet service was good.  The hotel was easy to get in and out of (which is a great plus in LA).  The breakfast area was tiny so I didn't spend much time there.  Breakfast food was so-so.  At check-out, the clerk gave me the receipt for another room.  I caught it in the parking lot and got it straight before I left. Overall a good stay. I would probably stay here again given the chance.More</t>
   </si>
   <si>
+    <t>MARC T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r150371162-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -714,6 +798,9 @@
     <t>Is a really nice hotel !Great rooms . . . clean . . . @ a great priceWe booked this since we needed to be often in downtown LA . . . most of the people warned us for traffic but mostly it was a 30 min drive  . . . isn't bad . . . if we need to cross Brussels . . . it takes usually longer . . .The only problems (3)  I had was that the inspection of the elevator was 2 years over date . . .I noticed it when I was standing in it to solve problem 2 . . .  the vending machine on the main floor didn't work . . . and was causing problem number 3 . . . this wasn't going last either . . .I informed the Manager by mail of these 3 items (several times) but never ever received a reply . . . . a really pitty since other people might take the elevator inspection a lot more serious as we did . . .But that's up to him . . .For the rest . . . great breakfast . . . always coffee at the fron desk and even when not . . . they made some fresh . . .So besides these 3 items . . . really nice clean place !HAGOneMore</t>
   </si>
   <si>
+    <t>Tony G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r136938055-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -735,6 +822,9 @@
     <t>I had to book a room last minute and wasn't sure about this location or Comfort Inn in general. The three of us that stayed in the room were pleasantly surprised. It was an updated room and very clean. The mattresses were brand new and the bedding was clean and fresh. The room had a little fridge and a coffee maker. The Wi-Fi wasn't great but better than a lot of other more expensive hotels in terms of the speed. The hotel was right off the freeway which made it easy to get to and we at the Denny's for a late-night meal when everything else was closed. The only issue we had was the parking - every single spot was full and had to park along the sidewalk but the security guy said that was ok. All-in-all it was better than we expected and I can comfortably recommend this place.More</t>
   </si>
   <si>
+    <t>Redpatch7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r135747135-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -753,6 +843,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Andrew T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r134468177-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -768,6 +861,9 @@
     <t>A clean well run hotel/motel in a good location outside of busy LA city. A very nice pool area and a conveniently located Denny's next door provide a low budget stay. Lots of really good resturants nearby and supermarket only a stone through away. It's easy to get to Universal Studios and Hollywood if this is why you are in LA.</t>
   </si>
   <si>
+    <t>Bhavin69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r132938750-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -786,6 +882,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>Santa_Barbara_Native</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r132284034-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -802,6 +901,9 @@
   </si>
   <si>
     <t>so i booked my shin dig of a room last minute and read the reviews from TA. I did not have my expectations set high with all the recent reviews. So I paid a little high which was probably due to fathers day weekend. I do have to say the room was clean and comfy. The drawbacks.... The room is quiet and never heard my neighbors, but my room was facing the 101 freeway! Arrgg..... Shut the door and I can still hear the freakin cars and trucks roaring by... BLAH! I was soo tired that I did not bother me much.. Well I guess thats probably cuz I grew up next to the 101 freeway!! LOL... My wife also seen a large rat cruzin by in the parking lot, which is not surprising because the parking lot is adjacent to the freeway. Other than the freeway and rat, the place is ok, just make sure your room is not facing the darn freeway. The breakfast was good, the only messed up part is that they do not let you take the food back to your room (WACK)!More</t>
+  </si>
+  <si>
+    <t>Sumant S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r128565808-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
@@ -827,6 +929,9 @@
  Although the nightmare began when I checked out, they had taken my payment through on the night I left, as they do, my flight was 6 or 7 in the morning and I had left quite early, on arrival to the airport I looked through my bag and discovered that I had left my Ipod back at the hotel. When I had called the desk clerk and told him about my problem, he did not seem so bothered, refused to co-operate by saying he could not leave the desk for 2 mins. I finally asked a friend to pick it up for me in the afternoon and send it by mail for me, on arrival they had informed her that they would not give it to her on the grounds that I did not pay for my last night there. They had not informed me of this information and gave...Stayed here for 7 days and initially when I checked in, the woman at the desk was very warm and kind, she had a whole conversation with me and even gave me some good points on where to eat and go. The room was spacious and clean, although the toilet area was kind of small. Everything in the room worked, so bonus points for that, and the breakfast was fine. As I was near the main road and not the freeway, I heard less noise and had a comfortable sleep. Although the nightmare began when I checked out, they had taken my payment through on the night I left, as they do, my flight was 6 or 7 in the morning and I had left quite early, on arrival to the airport I looked through my bag and discovered that I had left my Ipod back at the hotel. When I had called the desk clerk and told him about my problem, he did not seem so bothered, refused to co-operate by saying he could not leave the desk for 2 mins. I finally asked a friend to pick it up for me in the afternoon and send it by mail for me, on arrival they had informed her that they would not give it to her on the grounds that I did not pay for my last night there. They had not informed me of this information and gave my friend grief about this, refusing to give my personal belongings and holding it as a down payment. Is this a hotel or a loans sharks hideout? my tip for anyone staying here would be, make sure you check you have all your belongings before you leave and stay there for just a few nights.More</t>
   </si>
   <si>
+    <t>bigcop73</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r125306977-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -842,6 +947,9 @@
     <t>Very nice place to stay, quiet, out of center LA. Great pool, cool breakfast, Denny's beside, grocer Ralph's 2 minute walk.Highway not far if you want to drive to the beach</t>
   </si>
   <si>
+    <t>Lisa U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r123412799-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -857,6 +965,9 @@
     <t>You definitely get what you pay for. We had enough hot water for a 5 minute shower. Then we got a room with a king bed and only had 4 pillows and asked if we could get some more and they brought us just one pillow. Its suppose to be a nice area but its really not. But it does have a Dennys on the same property and a little shopping center across the street.</t>
   </si>
   <si>
+    <t>Craig G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r115511352-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -879,6 +990,9 @@
   </si>
   <si>
     <t>Started when are room keys had to be reprogramed the first night. It got worse. Breakfast was from 6:30 to 9:30, but if you weren't there by 9:00 you didn't get anything. The staff stop refilling breakfast items about 8:45.On our second morning we discovered they had shorted us a bath towel. I went to the front to get one, but they were out. Housekeeping was supposed to deliver one in 5 mins. My wife finally had to dry off with a hand towel. The towel didn't show up for 45 mins. The next night they shorted us again. I would find someplace else to stay if I were you. I know I won't stay here again.More</t>
+  </si>
+  <si>
+    <t>CrossMyDesk</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r113130235-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
@@ -910,6 +1024,9 @@
 For me, though, the worst of the experience was the next morning. While I was getting dressed, the phone kept ringing and ringing. I picked it up a few times to find a dial tone. This continued for about 30 minutes... random ringing. When I mentioned it to the guy at the front desk, he was pretty rude about it, blowing me off. He said, "All calls come though here,...I stayed here at the last minute one night while on business in the Warner Center area. Checking in, the young lady was really nice and gave me everything I needed. The room was small, and suited my needs. The fridge in the room did not work, though... and I'm not really sure the A/C worked very well either. Over all, though, it wasn't bad. In walking about the grounds, I noticed that some of the area looked a bit run down. The blinds in the housekeeping area were mangled, and quite visible for any of the guests walking by. That wasn't terribly attractive. The grounds were clean and pleasant, but "tight" because of the small space. Everything seems a bit cramped, including the walkways. This hotel is literally wedged between to 101 freeway and Ventura Blvd -- and that means lots of road noise. This really is the type of place you go when you just need a place to sleep -- so if noise bothers you, bring earplugs.For me, though, the worst of the experience was the next morning. While I was getting dressed, the phone kept ringing and ringing. I picked it up a few times to find a dial tone. This continued for about 30 minutes... random ringing. When I mentioned it to the guy at the front desk, he was pretty rude about it, blowing me off. He said, "All calls come though here, lady, and there haven't been any. Are you sure you aren't hearing things?"  Yeah, that went over well. It's a good thing I was on my out and didn't want to deal with it.Breakfast was okay. Apparently, they've recently expanded their breakfast buffet to include hot bacon and eggs. The bacon was fine... but the eggs? YUCK! They are cooked from discs of salty yellow goo. Blech.The price was okay, considering that most rooms in this area (during summer) tend to be pretty high, but I've certainly been in much nicer hotels for less. However, it's a nice place and the rooms are clean and have just about anything you'd need (hairdryer, iron/ironing board. microwave, fridge (if it works), etc. The free breakfast was okay, but avoid the nuked egg patties.More</t>
   </si>
   <si>
+    <t>dreams42</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r96389902-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -937,6 +1054,9 @@
     <t>Well I have been to this hotel in the past and it has always been nice but I recently went there with my young  son and my husband and the room was nice everything was pretty clean and nice. What really grossed me out was when I went to the desk and I moved some food we had there a little roach was crawling around. Which had me freaked out all night since I had my young child with me. The blanket had a hole in it from someone smoking I guess. Other than that the place is nice. The staff was okay except she told me a price without taxes so I thought I was paying less. If I knew how much I was really paying I would have got a room at like a holiday inn or best western.More</t>
   </si>
   <si>
+    <t>BronwenL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r84953575-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -958,6 +1078,9 @@
     <t>We got  a room here because it was close to a meeting we had scheduled and we needed something inexpensive and convenient. This hotel did meet the requirements. It's an old building but well maintained. The rooms had a rather sterile smell to them, very clean but not very appealing. The room, while small, did have a little 2-seater table, desk, armoire, fridge and microwave. Pretty good set up if you're in town on business and need to get stuff done. Add to that the free internet, free parking and free breakfast. Finding all of this together under $100 per night in the LA area is hard to do. So the room overall was decent, nothing to write home about. The bed was very firm, which works for us but some others may not be so happy. The street noise was not too bad all night but got a bit much around 6am. There is a Denny's right next door which has the best service (late-night) of any Denny's I've ever been to. Since we got in very late, we missed breakfast. In a pinch I'd stay here again, but it wouldn't be first choice.More</t>
   </si>
   <si>
+    <t>AliceMadera_CA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r81423792-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -976,6 +1099,9 @@
     <t>September 2010</t>
   </si>
   <si>
+    <t>ElGuapo49</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r73836177-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -997,6 +1123,9 @@
     <t>This hotel is wedged between the 101 freeway on one side and a very busy street on the other side so if road noise is going to bother you look elsewhere. I am not a hotel snob and can deal with some of the Comfort Inns, this one average at best. Looking a little old and  no place you would want to spend more than a night. The general area is not a slum but is a marginal area. Gas stations, liquor stores, massage joint a multitude of smaller restaurants are all very close by. Front desk staff was nice enough, modest breakfast is included but I won't be back for just a few more miles or a few more dollars I would find something I liked better.More</t>
   </si>
   <si>
+    <t>infectbnl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r50596683-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1024,6 +1153,9 @@
     <t>Great Hotel. Rooms greatly decorated, all the needed amenities. Great service. Location is a bit tricky (just on the border of downtown and a bad neighborhood - I judge it on its looks, have no idea if it was bad or not :)), but we did not have any trouble with that. I would highly recommend it to a friend. Superb value for the money you pay.More</t>
   </si>
   <si>
+    <t>MUMTOBLISS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r48757432-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1049,6 +1181,9 @@
   </si>
   <si>
     <t>Despite previous bad reviews ,the most recent a better one after the refurb,I decided to take a chance on this hotel. The hotel was a good price ,after a long flight from London ,check in was fast &amp; efficient &amp; the staff friendly &amp; helpful . Our room was overlooking the pool ,which was clean &amp; warm ,some have not so good a view at the back of the hotel. The room itself was clean &amp; spacious, lovely comfortable beds &amp; plenty of fresh towels  every day. There was a spacious dressing area, clean bathroom &amp; everything we needed. The complimentary breakfast  ( served from 6-9.30 am ) was constantly topped up &amp; a good selection this could be taken up to your room or to go. A special mention for the lovely breakfast lady Veronica who was so sweet &amp; lovely .All staff were polite friendly &amp; helpful and we had a lovely stay ( myself &amp; 4 kids 23, 16,13,7 )More</t>
+  </si>
+  <si>
+    <t>Marky_Crash</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r35792024-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
@@ -1086,6 +1221,9 @@
 As a result i had to check out and...Well the reviews here arn't too good but i think the hotel has been refurbished since then.The staff at reception were very welcoming at check in was easy and fast.The area seems fine and there is a Denny's in the carpark and its located with easy access to the freeways and there are shops across the road including a supermarket.The hotel pool is also nice.The rooms are "adequate" and while not the ritz they seem acceptable and if you want the ritz i guess you go to the ritz , the tv has a good choice of channels too and the room has a fridge.Then onto the internet and this is where it all fell apart for me , i am a full time poker player and need reliable access to the internet and only chose the hotel as it said it had free wireless internet, however the connection seems to cut completely every 30 minutes or so to make you go to view an advert and accept their user agreement over and over again , now this while being incredibly annoying i could just about deal with but once youve done this the connection is awful and disconects every few minutes and everything goes slow.Ive never experienced such problems as this and when i asked at reception was told the connection was like that.As a result i had to check out and find alternative accomodation with internet which was dissappointing as we were looking forward to staying here as the hotel itself seemed pleasant.If you dont require internet then this could be a good choice for cheap accomodation in a nice enough hotel.More</t>
   </si>
   <si>
+    <t>PammyRae</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r5597682-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1104,6 +1242,9 @@
     <t>My family and I rented 3 rooms there last week, for 2 nights.  One room was alright but the other 2 were substandard.  The toilet overflowed in the room downstairs.  The room on the second floor was absolutely filthy!  The carpet was the worse I have ever seen and the chair was nasty looking.  I complained to the front desk and they said they wouyld get back to me.  Which they never did.  Upon checking out I spoke with the manager and he was unwilling to alter the bill in any way.  When I let him know I was intending on posting a negative review online about his hotel,  he indicated to me that he couldn't care less.   Stay away from this substandard  hotel and the very rude staff that work there!More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r5233791-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1123,6 +1264,9 @@
   </si>
   <si>
     <t>I was there on a  business trip.  I don't know why they had bad reviews.  The hotel looks like it has been upgraded.  I asked the front desk clerk, they said they have just finished remodeling and it's under new management.  I liked the interior of the room.  Nice wall-paper and bed sheets were very clean.  I liked it.  I thought it was as good as any five star hotel.  Good price for a room like that and I liked their breakfast.  It was a nice experience for me.  People were friendly and curtious at the front desk.  I think I will stay there if I go back to L.A. again.More</t>
+  </si>
+  <si>
+    <t>AZGirl68</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r4361769-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
@@ -1148,6 +1292,9 @@
     <t>My children (ages 5, 15, and 17) and I stayed at this hotel for two nights as we had business in the area. I also took them to Disneyland the first day of our stay. 
 The hotel was gross. We were placed on the third floor facing the highway, even though other rooms were available. The walls looked like they had boogers and/or bodily fluids on them. The toilet was backed up and finally refused to flush at all in the end. The staff was informed of this and told me to come get a plunger! The beds were stained, but the sheets/blankets seemed clean. However, we were all bit by something during the night, possibly bedbugs(?) I'm not sure. The tv barely worked. The table was dirty and the chair upholstery was stained. The people in the next room were being very loud (---), and the staff called our room (at about midnight!) believing it was us that was being loud. This call came shortly after we returned from Disneyland, and my youngest was already asleep. I think it was because I had my three children with me that the staff assumed it was us making noise. 
 The disgusting room and rudeness of the staff ruined our trip. This was not a trip that could be easily repeated as my financial situation is very sad. My husband, the childrens father, had passed away about a year prior to this...My children (ages 5, 15, and 17) and I stayed at this hotel for two nights as we had business in the area. I also took them to Disneyland the first day of our stay. The hotel was gross. We were placed on the third floor facing the highway, even though other rooms were available. The walls looked like they had boogers and/or bodily fluids on them. The toilet was backed up and finally refused to flush at all in the end. The staff was informed of this and told me to come get a plunger! The beds were stained, but the sheets/blankets seemed clean. However, we were all bit by something during the night, possibly bedbugs(?) I'm not sure. The tv barely worked. The table was dirty and the chair upholstery was stained. The people in the next room were being very loud (---), and the staff called our room (at about midnight!) believing it was us that was being loud. This call came shortly after we returned from Disneyland, and my youngest was already asleep. I think it was because I had my three children with me that the staff assumed it was us making noise. The disgusting room and rudeness of the staff ruined our trip. This was not a trip that could be easily repeated as my financial situation is very sad. My husband, the childrens father, had passed away about a year prior to this trip and I was hoping they could enjoy themselves, unfortunately I chose this hotel because of the proximity to business I needed to attend to as well as the price. If we are fortunate enough to be able to afford another vacation I will stay at another hotel, for that matter, a different chain all together. And yes, I did complain to the main chain after we returned home and all that I received was a very insincere apology letter.More</t>
+  </si>
+  <si>
+    <t>ynp-CV</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r3169341-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
@@ -1670,43 +1817,47 @@
       <c r="A2" t="n">
         <v>10408</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>63194</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1722,56 +1873,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>10408</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>131296</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1783,56 +1938,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>10408</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>131297</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1844,56 +2003,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>10408</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>131298</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1905,56 +2068,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>10408</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>131299</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1970,56 +2137,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>10408</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>22459</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>94</v>
       </c>
-      <c r="L7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>89</v>
-      </c>
       <c r="O7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2033,50 +2204,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>10408</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>131300</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="O8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2090,50 +2265,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>10408</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>32759</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="O9" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -2153,50 +2332,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>10408</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>131301</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2210,50 +2393,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10408</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>131302</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
@@ -2273,50 +2460,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>10408</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>131303</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -2336,50 +2527,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>10408</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>57675</v>
+      </c>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="O13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2397,50 +2592,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>10408</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>63441</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="K14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="L14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -2458,50 +2657,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>10408</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>131304</v>
+      </c>
+      <c r="C15" t="s">
+        <v>153</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="J15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="K15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="O15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -2521,50 +2724,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>10408</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>131305</v>
+      </c>
+      <c r="C16" t="s">
+        <v>160</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="O16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -2582,50 +2789,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>10408</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>131306</v>
+      </c>
+      <c r="C17" t="s">
+        <v>168</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="J17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="K17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="L17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="O17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -2645,50 +2856,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>10408</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>466</v>
+      </c>
+      <c r="C18" t="s">
+        <v>176</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="J18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="K18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -2708,50 +2923,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>10408</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>131307</v>
+      </c>
+      <c r="C19" t="s">
+        <v>183</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="J19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="K19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -2771,50 +2990,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>10408</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>131308</v>
+      </c>
+      <c r="C20" t="s">
+        <v>189</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="J20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="K20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="L20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2838,50 +3061,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>10408</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>131309</v>
+      </c>
+      <c r="C21" t="s">
+        <v>196</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="J21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="K21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="O21" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2895,50 +3122,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>10408</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>191</v>
+      </c>
+      <c r="C22" t="s">
+        <v>202</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="J22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="K22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="L22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="O22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -2962,41 +3193,45 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>10408</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>131310</v>
+      </c>
+      <c r="C23" t="s">
+        <v>208</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="J23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="K23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
@@ -3025,50 +3260,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>10408</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>131311</v>
+      </c>
+      <c r="C24" t="s">
+        <v>214</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="J24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="K24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="O24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -3092,41 +3331,45 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>10408</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>131312</v>
+      </c>
+      <c r="C25" t="s">
+        <v>222</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="J25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="K25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="L25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
@@ -3155,50 +3398,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>10408</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>14489</v>
+      </c>
+      <c r="C26" t="s">
+        <v>228</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="J26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="K26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -3222,50 +3469,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>10408</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>538</v>
+      </c>
+      <c r="C27" t="s">
+        <v>236</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="J27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="K27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -3289,50 +3540,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>10408</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>6902</v>
+      </c>
+      <c r="C28" t="s">
+        <v>242</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="J28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="K28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -3356,50 +3611,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>10408</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>131313</v>
+      </c>
+      <c r="C29" t="s">
+        <v>250</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="J29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="K29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="L29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -3423,50 +3682,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>10408</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>1312</v>
+      </c>
+      <c r="C30" t="s">
+        <v>258</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="J30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="K30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="L30" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="O30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -3490,50 +3753,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>10408</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>131314</v>
+      </c>
+      <c r="C31" t="s">
+        <v>266</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="J31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="K31" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="L31" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="O31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3557,50 +3824,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>10408</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C32" t="s">
+        <v>273</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="J32" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="K32" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="L32" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="O32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3624,50 +3895,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>10408</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>131315</v>
+      </c>
+      <c r="C33" t="s">
+        <v>279</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="J33" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="K33" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="L33" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="O33" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3691,50 +3966,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>10408</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>131316</v>
+      </c>
+      <c r="C34" t="s">
+        <v>286</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="J34" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="K34" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="L34" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -3758,50 +4037,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>10408</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>131317</v>
+      </c>
+      <c r="C35" t="s">
+        <v>293</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="J35" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="K35" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="O35" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -3825,41 +4108,45 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>10408</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>131318</v>
+      </c>
+      <c r="C36" t="s">
+        <v>301</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="J36" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="K36" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="L36" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
@@ -3878,50 +4165,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>10408</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>131319</v>
+      </c>
+      <c r="C37" t="s">
+        <v>307</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="J37" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="K37" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="L37" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -3945,41 +4236,45 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>10408</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>9723</v>
+      </c>
+      <c r="C38" t="s">
+        <v>313</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="J38" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="K38" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="L38" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
@@ -4006,56 +4301,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="X38" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="Y38" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>10408</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>131320</v>
+      </c>
+      <c r="C39" t="s">
+        <v>322</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="J39" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="K39" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="L39" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>2</v>
@@ -4073,56 +4372,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="X39" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="Y39" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>10408</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>131321</v>
+      </c>
+      <c r="C40" t="s">
+        <v>332</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="J40" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="K40" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="L40" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="O40" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P40" t="n">
         <v>2</v>
@@ -4144,56 +4447,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="X40" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="Y40" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>10408</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>131322</v>
+      </c>
+      <c r="C41" t="s">
+        <v>342</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="J41" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="K41" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="L41" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -4215,50 +4522,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>10408</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>131323</v>
+      </c>
+      <c r="C42" t="s">
+        <v>350</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="J42" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="K42" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="L42" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4282,50 +4593,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>10408</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>131324</v>
+      </c>
+      <c r="C43" t="s">
+        <v>357</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="J43" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="K43" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="L43" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -4349,50 +4664,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>10408</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>131325</v>
+      </c>
+      <c r="C44" t="s">
+        <v>365</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="J44" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="K44" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="L44" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="O44" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4404,56 +4723,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="X44" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="Y44" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>10408</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>131326</v>
+      </c>
+      <c r="C45" t="s">
+        <v>375</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
       <c r="J45" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="K45" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="L45" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
       <c r="O45" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4475,56 +4798,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
       <c r="X45" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="Y45" t="s">
-        <v>340</v>
+        <v>384</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>10408</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>131327</v>
+      </c>
+      <c r="C46" t="s">
+        <v>385</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>342</v>
+        <v>387</v>
       </c>
       <c r="J46" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="K46" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="L46" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="O46" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -4548,41 +4875,45 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>10408</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>131328</v>
+      </c>
+      <c r="C47" t="s">
+        <v>393</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>349</v>
+        <v>395</v>
       </c>
       <c r="J47" t="s">
-        <v>350</v>
+        <v>396</v>
       </c>
       <c r="K47" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="L47" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
@@ -4611,50 +4942,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>10408</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>400</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="J48" t="s">
-        <v>356</v>
+        <v>403</v>
       </c>
       <c r="K48" t="s">
-        <v>357</v>
+        <v>404</v>
       </c>
       <c r="L48" t="s">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4676,50 +5011,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>360</v>
+        <v>407</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>10408</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>131329</v>
+      </c>
+      <c r="C49" t="s">
+        <v>408</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="J49" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
       <c r="K49" t="s">
-        <v>364</v>
+        <v>412</v>
       </c>
       <c r="L49" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>1</v>
@@ -4741,41 +5080,45 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>367</v>
+        <v>415</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>10408</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>131330</v>
+      </c>
+      <c r="C50" t="s">
+        <v>416</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>368</v>
+        <v>417</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="J50" t="s">
-        <v>370</v>
+        <v>419</v>
       </c>
       <c r="K50" t="s">
-        <v>371</v>
+        <v>420</v>
       </c>
       <c r="L50" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
@@ -4794,7 +5137,7 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_130.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_130.xlsx
@@ -1887,7 +1887,7 @@
         <v>10408</v>
       </c>
       <c r="B3" t="n">
-        <v>131296</v>
+        <v>162057</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -1952,7 +1952,7 @@
         <v>10408</v>
       </c>
       <c r="B4" t="n">
-        <v>131297</v>
+        <v>162058</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -2017,7 +2017,7 @@
         <v>10408</v>
       </c>
       <c r="B5" t="n">
-        <v>131298</v>
+        <v>162059</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -2082,7 +2082,7 @@
         <v>10408</v>
       </c>
       <c r="B6" t="n">
-        <v>131299</v>
+        <v>162060</v>
       </c>
       <c r="C6" t="s">
         <v>88</v>
@@ -2212,7 +2212,7 @@
         <v>10408</v>
       </c>
       <c r="B8" t="n">
-        <v>131300</v>
+        <v>162061</v>
       </c>
       <c r="C8" t="s">
         <v>103</v>
@@ -2340,7 +2340,7 @@
         <v>10408</v>
       </c>
       <c r="B10" t="n">
-        <v>131301</v>
+        <v>162062</v>
       </c>
       <c r="C10" t="s">
         <v>118</v>
@@ -2401,7 +2401,7 @@
         <v>10408</v>
       </c>
       <c r="B11" t="n">
-        <v>131302</v>
+        <v>162063</v>
       </c>
       <c r="C11" t="s">
         <v>124</v>
@@ -2468,7 +2468,7 @@
         <v>10408</v>
       </c>
       <c r="B12" t="n">
-        <v>131303</v>
+        <v>162064</v>
       </c>
       <c r="C12" t="s">
         <v>132</v>
@@ -2665,7 +2665,7 @@
         <v>10408</v>
       </c>
       <c r="B15" t="n">
-        <v>131304</v>
+        <v>162065</v>
       </c>
       <c r="C15" t="s">
         <v>153</v>
@@ -2732,7 +2732,7 @@
         <v>10408</v>
       </c>
       <c r="B16" t="n">
-        <v>131305</v>
+        <v>162066</v>
       </c>
       <c r="C16" t="s">
         <v>160</v>
@@ -2797,7 +2797,7 @@
         <v>10408</v>
       </c>
       <c r="B17" t="n">
-        <v>131306</v>
+        <v>162067</v>
       </c>
       <c r="C17" t="s">
         <v>168</v>
@@ -2931,7 +2931,7 @@
         <v>10408</v>
       </c>
       <c r="B19" t="n">
-        <v>131307</v>
+        <v>162068</v>
       </c>
       <c r="C19" t="s">
         <v>183</v>
@@ -2998,7 +2998,7 @@
         <v>10408</v>
       </c>
       <c r="B20" t="n">
-        <v>131308</v>
+        <v>162069</v>
       </c>
       <c r="C20" t="s">
         <v>189</v>
@@ -3069,7 +3069,7 @@
         <v>10408</v>
       </c>
       <c r="B21" t="n">
-        <v>131309</v>
+        <v>162070</v>
       </c>
       <c r="C21" t="s">
         <v>196</v>
@@ -3201,7 +3201,7 @@
         <v>10408</v>
       </c>
       <c r="B23" t="n">
-        <v>131310</v>
+        <v>162071</v>
       </c>
       <c r="C23" t="s">
         <v>208</v>
@@ -3268,7 +3268,7 @@
         <v>10408</v>
       </c>
       <c r="B24" t="n">
-        <v>131311</v>
+        <v>131478</v>
       </c>
       <c r="C24" t="s">
         <v>214</v>
@@ -3339,7 +3339,7 @@
         <v>10408</v>
       </c>
       <c r="B25" t="n">
-        <v>131312</v>
+        <v>162072</v>
       </c>
       <c r="C25" t="s">
         <v>222</v>
@@ -3619,7 +3619,7 @@
         <v>10408</v>
       </c>
       <c r="B29" t="n">
-        <v>131313</v>
+        <v>162073</v>
       </c>
       <c r="C29" t="s">
         <v>250</v>
@@ -3761,7 +3761,7 @@
         <v>10408</v>
       </c>
       <c r="B31" t="n">
-        <v>131314</v>
+        <v>162074</v>
       </c>
       <c r="C31" t="s">
         <v>266</v>
@@ -3903,7 +3903,7 @@
         <v>10408</v>
       </c>
       <c r="B33" t="n">
-        <v>131315</v>
+        <v>162075</v>
       </c>
       <c r="C33" t="s">
         <v>279</v>
@@ -3974,7 +3974,7 @@
         <v>10408</v>
       </c>
       <c r="B34" t="n">
-        <v>131316</v>
+        <v>162076</v>
       </c>
       <c r="C34" t="s">
         <v>286</v>
@@ -4045,7 +4045,7 @@
         <v>10408</v>
       </c>
       <c r="B35" t="n">
-        <v>131317</v>
+        <v>162077</v>
       </c>
       <c r="C35" t="s">
         <v>293</v>
@@ -4116,7 +4116,7 @@
         <v>10408</v>
       </c>
       <c r="B36" t="n">
-        <v>131318</v>
+        <v>162078</v>
       </c>
       <c r="C36" t="s">
         <v>301</v>
@@ -4173,7 +4173,7 @@
         <v>10408</v>
       </c>
       <c r="B37" t="n">
-        <v>131319</v>
+        <v>162079</v>
       </c>
       <c r="C37" t="s">
         <v>307</v>
@@ -4315,7 +4315,7 @@
         <v>10408</v>
       </c>
       <c r="B39" t="n">
-        <v>131320</v>
+        <v>162080</v>
       </c>
       <c r="C39" t="s">
         <v>322</v>
@@ -4386,7 +4386,7 @@
         <v>10408</v>
       </c>
       <c r="B40" t="n">
-        <v>131321</v>
+        <v>162081</v>
       </c>
       <c r="C40" t="s">
         <v>332</v>
@@ -4461,7 +4461,7 @@
         <v>10408</v>
       </c>
       <c r="B41" t="n">
-        <v>131322</v>
+        <v>162082</v>
       </c>
       <c r="C41" t="s">
         <v>342</v>
@@ -4530,7 +4530,7 @@
         <v>10408</v>
       </c>
       <c r="B42" t="n">
-        <v>131323</v>
+        <v>162083</v>
       </c>
       <c r="C42" t="s">
         <v>350</v>
@@ -4601,7 +4601,7 @@
         <v>10408</v>
       </c>
       <c r="B43" t="n">
-        <v>131324</v>
+        <v>162084</v>
       </c>
       <c r="C43" t="s">
         <v>357</v>
@@ -4672,7 +4672,7 @@
         <v>10408</v>
       </c>
       <c r="B44" t="n">
-        <v>131325</v>
+        <v>162085</v>
       </c>
       <c r="C44" t="s">
         <v>365</v>
@@ -4737,7 +4737,7 @@
         <v>10408</v>
       </c>
       <c r="B45" t="n">
-        <v>131326</v>
+        <v>162086</v>
       </c>
       <c r="C45" t="s">
         <v>375</v>
@@ -4812,7 +4812,7 @@
         <v>10408</v>
       </c>
       <c r="B46" t="n">
-        <v>131327</v>
+        <v>162087</v>
       </c>
       <c r="C46" t="s">
         <v>385</v>
@@ -4883,7 +4883,7 @@
         <v>10408</v>
       </c>
       <c r="B47" t="n">
-        <v>131328</v>
+        <v>162088</v>
       </c>
       <c r="C47" t="s">
         <v>393</v>
@@ -5019,7 +5019,7 @@
         <v>10408</v>
       </c>
       <c r="B49" t="n">
-        <v>131329</v>
+        <v>162089</v>
       </c>
       <c r="C49" t="s">
         <v>408</v>
@@ -5088,7 +5088,7 @@
         <v>10408</v>
       </c>
       <c r="B50" t="n">
-        <v>131330</v>
+        <v>162090</v>
       </c>
       <c r="C50" t="s">
         <v>416</v>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_130.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_130.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="602">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,132 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>fdipace</t>
-  </si>
-  <si>
-    <t>06/29/2018</t>
+    <t>09/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r613580958-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>82684</t>
+  </si>
+  <si>
+    <t>613580958</t>
+  </si>
+  <si>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>Loved</t>
+  </si>
+  <si>
+    <t>Great place , great price , comfortable beds an just down the street is all the stores/ restaurants you need . The location is great, least when I went there was I problem. It was quiet and relaxing &amp; cleanMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>ComfortInnWoodland, Hotel Manager at Comfort Inn Near Warner Center, responded to this reviewResponded yesterday</t>
+  </si>
+  <si>
+    <t>Responded yesterday</t>
+  </si>
+  <si>
+    <t>Great place , great price , comfortable beds an just down the street is all the stores/ restaurants you need . The location is great, least when I went there was I problem. It was quiet and relaxing &amp; cleanMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r599663802-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>599663802</t>
+  </si>
+  <si>
+    <t>07/25/2018</t>
+  </si>
+  <si>
+    <t>Don't let a rough exterior scare you</t>
+  </si>
+  <si>
+    <t>Hotel is undergoing a major remodel so it looks pretty messy and torn up. The pool is also closed. The room on the other hand was stunning! Faux wood vynil flooring and modern paneling give the room a fresh, restful feel, especially after a long day at a trade show. Fully hot breakfast available but it's next door to a Denny's so catching a late supper is no problem. Until construction is done, I would not recommend for children. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>ComfortInnWoodland, Hotel Manager at Comfort Inn Near Warner Center, responded to this reviewResponded July 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2018</t>
+  </si>
+  <si>
+    <t>Hotel is undergoing a major remodel so it looks pretty messy and torn up. The pool is also closed. The room on the other hand was stunning! Faux wood vynil flooring and modern paneling give the room a fresh, restful feel, especially after a long day at a trade show. Fully hot breakfast available but it's next door to a Denny's so catching a late supper is no problem. Until construction is done, I would not recommend for children. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r588185510-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>588185510</t>
+  </si>
+  <si>
+    <t>06/17/2018</t>
+  </si>
+  <si>
+    <t>Big Disappointment</t>
+  </si>
+  <si>
+    <t>When we drove in, it was obvious that the hotel was undergoing an external facelift. There was debris everywhere. When we entered the room, we thought we were at a Motel 6 - small room, fake wood for a floor, no carpet. The pool was closed. Never received notice of the closed pool or renovation. Way over-priced. The bathroom and breakfast were the only redeeming features. They should have charged less in view of the situation.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>ComfortInnWoodland, Hotel Manager at Comfort Inn Near Warner Center, responded to this reviewResponded June 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2018</t>
+  </si>
+  <si>
+    <t>When we drove in, it was obvious that the hotel was undergoing an external facelift. There was debris everywhere. When we entered the room, we thought we were at a Motel 6 - small room, fake wood for a floor, no carpet. The pool was closed. Never received notice of the closed pool or renovation. Way over-priced. The bathroom and breakfast were the only redeeming features. They should have charged less in view of the situation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r573994179-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>573994179</t>
+  </si>
+  <si>
+    <t>04/17/2018</t>
+  </si>
+  <si>
+    <t>Don't Stay Here</t>
+  </si>
+  <si>
+    <t>Floors in the room are filthy, my socks were black from walking around.  No hot water for the showers for two days.  Offered to take off one days rental.  Told they would take it off when we left.  Had to ask again at checkout played dumb but I got it. Free breakfast was very limited and the same everyday.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>ComfortInnWoodland, Hotel Manager at Comfort Inn Near Warner Center, responded to this reviewResponded April 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2018</t>
+  </si>
+  <si>
+    <t>Floors in the room are filthy, my socks were black from walking around.  No hot water for the showers for two days.  Offered to take off one days rental.  Told they would take it off when we left.  Had to ask again at checkout played dumb but I got it. Free breakfast was very limited and the same everyday.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r556959057-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
-    <t>32655</t>
-  </si>
-  <si>
-    <t>82684</t>
-  </si>
-  <si>
     <t>556959057</t>
   </si>
   <si>
@@ -180,9 +291,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>ComfortInnWoodland, Guest Relations Manager at Comfort Inn Near Warner Center, responded to this reviewResponded January 29, 2018</t>
   </si>
   <si>
@@ -190,9 +298,6 @@
   </si>
   <si>
     <t>Hotel is nestled between Ventura Blvd. and the 101 so you cannot escape the noise.  Don't be scared by the outside of this hotel.  It looks like a dump.  However my room was modern with all new furnishings and a brand new bathroom and a fantastic bed.  Why a 2 star? Because my room had vertical blinds that let light in all night long.  Why would a hotel in 2018 use cheap plastic vertical blinds that went out in 1980?  The outside halls are brightly lit so unless you have good shades (some of the rooms do) you cannot escape the light. I had to sleep on one side to avoid the light.  The owner of the hotel must of spent a fortune redoing the rooms why not add curtains?!  My shower was totally modern too bad it didn't have hot water.  On a positive note if light and luke warm water doesn't bother you this hotel is a steal for less then $100.More</t>
-  </si>
-  <si>
-    <t>newyork300</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r547966021-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
@@ -228,9 +333,6 @@
 Gives it more of a cleaner fresh , private vibe. Building has a great floor plan as well with elevators and stairs leading into the back areas if you’re on the other side of the hotel. Only a couple of rooms on each side. I checked out the back area as well. It looked great. Always do a run down of the building wherever I travel. I like to know where all the exits...I stayed at the Comfort inn on October for a week. The location was fantastic. Close to many restaurants , convenient stores and more. Close proximity to Santa Monica and other main attractions. I went down to Santa Monica Beach and loved the surroundings. ( The location to LAX airport was not too close. But I stayed away from LA areas. Many areas were in Engle wood marketed as LA. I didn’t have the time to do that much research into locations. So I went further up north yet not far from it all. For the location it was well valued. $150 night I paid at the time. Other areas close to LA were charging more and or less and had horrible reviews. They seemed run down and not safe. ) This hotel seemed safe , secure with a great vibe to it. I loved that my room was on the second floor with an entrance from outside overlooking the outdoor pool area to enter it. Gives it more of a cleaner fresh , private vibe. Building has a great floor plan as well with elevators and stairs leading into the back areas if you’re on the other side of the hotel. Only a couple of rooms on each side. I checked out the back area as well. It looked great. Always do a run down of the building wherever I travel. I like to know where all the exits and elevators are. There’s nothing worse than hotels with 1 narrow , long corridor leading into all of the rooms with carpeted , dirty hallways. ( like 50 rooms on one floor and you see all these ppl coming out of it. ) Here you rarely see your neighbor stepping in and out of his room. I got a double room with 2 full beds. My room was nice , clean and quiet. There was a separate mirrored sink separated from the bathroom . Big plus if you’re traveling with someone. Outdoor pool looked great. I didn’t go in it but tanned by it. free breakfast , nice private little place. More</t>
   </si>
   <si>
-    <t>LVMom3</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r517782099-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -249,9 +351,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>ComfortInnWoodland, Webmaster at Comfort Inn Near Warner Center, responded to this reviewResponded December 5, 2017</t>
   </si>
   <si>
@@ -261,7 +360,66 @@
     <t>When we first pulled up to this place, we looked and each other, kind of laughed and thought "oh my, what have we gotten ourselves into?"  The lobby smelled STONG of Lysol, which always worrries me.  What are you covering up?  Nice lady checked us in quickly.   She said "your room is in the back.  Drove around to find a view of the 101 freeway and homeless people doing laundry.  Entered the room, which was small, but remodeled.  The room was the surprise.  Very clean and very comfortable.  The bed and the pillows were better than some hotels I've stayed in that were 4-5 star.  Slept like a baby (I wear earplugs, that was quite helpful).  While the outside is in desperate need of attention, the room was actually very nice to sleep in.  And in all honesty, that's really what you need from a hotel.More</t>
   </si>
   <si>
-    <t>ClaimsMachine</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r507065975-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>507065975</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>Horrible Service, Rooms, &amp; Internet</t>
+  </si>
+  <si>
+    <t>I  have written hundreds of reviews on TripAdvisor and take the power of feedback very seriously. I hope you find my review helpful.
+We found this place on another site and based on the reviews, we booked it.Bad choice.
+The problem started when we called to request 2 double beds versus 1 King. The guy who answered the phone said he could switch us, but didn't know how. The actual guy working the front desk was polite but simply said he didn't know how to do it. He said he would leave a note for the next manager and get us switched. 
+We called back a few days later and spoke to Susan. She was NOT helpful. She was rude. She insisted that we pay $20 more per night for a 2 double beds versus 1 King. We explained how we had spoken to someone previously. She then began her best attempt at private detective: "Who did you speak to? At what time? At what day? What was their name? What did they sound like?" Susan obviously has been trained by Comfort Inn to specialize in interrogation. When I asked Susan for the name of the General Manager, she said she had another call and hung up on us.
+We checked into a room with 1 King bed. The room was dirty. I can upload pictures later, but suffice it to say, there was visible mold in the bathroom in...I  have written hundreds of reviews on TripAdvisor and take the power of feedback very seriously. I hope you find my review helpful.We found this place on another site and based on the reviews, we booked it.Bad choice.The problem started when we called to request 2 double beds versus 1 King. The guy who answered the phone said he could switch us, but didn't know how. The actual guy working the front desk was polite but simply said he didn't know how to do it. He said he would leave a note for the next manager and get us switched. We called back a few days later and spoke to Susan. She was NOT helpful. She was rude. She insisted that we pay $20 more per night for a 2 double beds versus 1 King. We explained how we had spoken to someone previously. She then began her best attempt at private detective: "Who did you speak to? At what time? At what day? What was their name? What did they sound like?" Susan obviously has been trained by Comfort Inn to specialize in interrogation. When I asked Susan for the name of the General Manager, she said she had another call and hung up on us.We checked into a room with 1 King bed. The room was dirty. I can upload pictures later, but suffice it to say, there was visible mold in the bathroom in multiple locations. The carpets were visibly dirty. The chair in the room, which we were told was a "couch" had a nasty stain on it. Yes, we were told the room had a couch. When I asked the man working at the front desk, he insisted the chair was a couch.The internet was slower than dial-up. We could not use the hotel's wi-fi to pull anything reasonable. We had to rely on our hot-spots on our phones. Horrible internet. I waited 5 minutes for a short video to load and it timed-out.The pool had visible debris floating in the water. It needed to be cleaned. They gave us "tickets" to use for breakfast. Evidently, their management doesn't know how to manage breakfast so they insist on you bringing a ticket with you for their sparse breakfast offerings.They also insisted on us putting a small raffle-ticket sized ticket in our car so we would not be towed,  even though they wrote down my license plate, car type and color of the car. I am not a complainer. Read my other 200+ reviews. However, this hotel does NOT deserve your hard earned money.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>I  have written hundreds of reviews on TripAdvisor and take the power of feedback very seriously. I hope you find my review helpful.
+We found this place on another site and based on the reviews, we booked it.Bad choice.
+The problem started when we called to request 2 double beds versus 1 King. The guy who answered the phone said he could switch us, but didn't know how. The actual guy working the front desk was polite but simply said he didn't know how to do it. He said he would leave a note for the next manager and get us switched. 
+We called back a few days later and spoke to Susan. She was NOT helpful. She was rude. She insisted that we pay $20 more per night for a 2 double beds versus 1 King. We explained how we had spoken to someone previously. She then began her best attempt at private detective: "Who did you speak to? At what time? At what day? What was their name? What did they sound like?" Susan obviously has been trained by Comfort Inn to specialize in interrogation. When I asked Susan for the name of the General Manager, she said she had another call and hung up on us.
+We checked into a room with 1 King bed. The room was dirty. I can upload pictures later, but suffice it to say, there was visible mold in the bathroom in...I  have written hundreds of reviews on TripAdvisor and take the power of feedback very seriously. I hope you find my review helpful.We found this place on another site and based on the reviews, we booked it.Bad choice.The problem started when we called to request 2 double beds versus 1 King. The guy who answered the phone said he could switch us, but didn't know how. The actual guy working the front desk was polite but simply said he didn't know how to do it. He said he would leave a note for the next manager and get us switched. We called back a few days later and spoke to Susan. She was NOT helpful. She was rude. She insisted that we pay $20 more per night for a 2 double beds versus 1 King. We explained how we had spoken to someone previously. She then began her best attempt at private detective: "Who did you speak to? At what time? At what day? What was their name? What did they sound like?" Susan obviously has been trained by Comfort Inn to specialize in interrogation. When I asked Susan for the name of the General Manager, she said she had another call and hung up on us.We checked into a room with 1 King bed. The room was dirty. I can upload pictures later, but suffice it to say, there was visible mold in the bathroom in multiple locations. The carpets were visibly dirty. The chair in the room, which we were told was a "couch" had a nasty stain on it. Yes, we were told the room had a couch. When I asked the man working at the front desk, he insisted the chair was a couch.The internet was slower than dial-up. We could not use the hotel's wi-fi to pull anything reasonable. We had to rely on our hot-spots on our phones. Horrible internet. I waited 5 minutes for a short video to load and it timed-out.The pool had visible debris floating in the water. It needed to be cleaned. They gave us "tickets" to use for breakfast. Evidently, their management doesn't know how to manage breakfast so they insist on you bringing a ticket with you for their sparse breakfast offerings.They also insisted on us putting a small raffle-ticket sized ticket in our car so we would not be towed,  even though they wrote down my license plate, car type and color of the car. I am not a complainer. Read my other 200+ reviews. However, this hotel does NOT deserve your hard earned money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r500780935-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>500780935</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>Lack of power = cold shower!</t>
+  </si>
+  <si>
+    <t>We stayed here for 1 night and that was enough! 
+We arrived late and checked in, the area did not feel very safe so I wish we had arrived in the daylight. 
+The room appeared clean and it was fairly comfortable, had to unplug the fridge as it was so noisy but this wouldn't have been a problem with what happened next..! 
+About 2am I was awoken with a bright flash, the next thing there was the sound of gushing water, followed by another bright flash and the water continuing. I went to check my phone to see if it was suppose to rain (thought maybe a storm) but no Wi-Fi and my phone isn't charging, strange, went to put the light on, no power! 
+Turned out that a truck had crashed into the electricity pole outside the hotel and taken the power out. 
+No power, even when we check out at 10 the next day, the room was in darkness and of course, no power meant the shower only had cold water. We had to pack in the dark, (it was light outside but we were in the centre of the motel so no natural light coming through) no torches were offered, no discount for the fact that the place was pretty much shut down - nothing. 
+In the UK most places have a back up generator for the power going out, not sure if this is just something...We stayed here for 1 night and that was enough! We arrived late and checked in, the area did not feel very safe so I wish we had arrived in the daylight. The room appeared clean and it was fairly comfortable, had to unplug the fridge as it was so noisy but this wouldn't have been a problem with what happened next..! About 2am I was awoken with a bright flash, the next thing there was the sound of gushing water, followed by another bright flash and the water continuing. I went to check my phone to see if it was suppose to rain (thought maybe a storm) but no Wi-Fi and my phone isn't charging, strange, went to put the light on, no power! Turned out that a truck had crashed into the electricity pole outside the hotel and taken the power out. No power, even when we check out at 10 the next day, the room was in darkness and of course, no power meant the shower only had cold water. We had to pack in the dark, (it was light outside but we were in the centre of the motel so no natural light coming through) no torches were offered, no discount for the fact that the place was pretty much shut down - nothing. In the UK most places have a back up generator for the power going out, not sure if this is just something that isn't done in the USA but we have to have at least emergency lighting for such things, nothing. I appreciate this wasn't the hotels fault but no apology for the inconvenience, no offer of a future discount let alone one there and then all left a bit of a bitter after taste.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We stayed here for 1 night and that was enough! 
+We arrived late and checked in, the area did not feel very safe so I wish we had arrived in the daylight. 
+The room appeared clean and it was fairly comfortable, had to unplug the fridge as it was so noisy but this wouldn't have been a problem with what happened next..! 
+About 2am I was awoken with a bright flash, the next thing there was the sound of gushing water, followed by another bright flash and the water continuing. I went to check my phone to see if it was suppose to rain (thought maybe a storm) but no Wi-Fi and my phone isn't charging, strange, went to put the light on, no power! 
+Turned out that a truck had crashed into the electricity pole outside the hotel and taken the power out. 
+No power, even when we check out at 10 the next day, the room was in darkness and of course, no power meant the shower only had cold water. We had to pack in the dark, (it was light outside but we were in the centre of the motel so no natural light coming through) no torches were offered, no discount for the fact that the place was pretty much shut down - nothing. 
+In the UK most places have a back up generator for the power going out, not sure if this is just something...We stayed here for 1 night and that was enough! We arrived late and checked in, the area did not feel very safe so I wish we had arrived in the daylight. The room appeared clean and it was fairly comfortable, had to unplug the fridge as it was so noisy but this wouldn't have been a problem with what happened next..! About 2am I was awoken with a bright flash, the next thing there was the sound of gushing water, followed by another bright flash and the water continuing. I went to check my phone to see if it was suppose to rain (thought maybe a storm) but no Wi-Fi and my phone isn't charging, strange, went to put the light on, no power! Turned out that a truck had crashed into the electricity pole outside the hotel and taken the power out. No power, even when we check out at 10 the next day, the room was in darkness and of course, no power meant the shower only had cold water. We had to pack in the dark, (it was light outside but we were in the centre of the motel so no natural light coming through) no torches were offered, no discount for the fact that the place was pretty much shut down - nothing. In the UK most places have a back up generator for the power going out, not sure if this is just something that isn't done in the USA but we have to have at least emergency lighting for such things, nothing. I appreciate this wasn't the hotels fault but no apology for the inconvenience, no offer of a future discount let alone one there and then all left a bit of a bitter after taste.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r497225848-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
@@ -282,15 +440,9 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Ive stayed at this hotel a number of times.  This time exceeded my expectations.  The bed was very comfortable, the pool area very clean, and the air conditioning borderline freezing (the way I like it!).  My only complaint was the breakfast area being very small.  Short of that, everything was great!More</t>
   </si>
   <si>
-    <t>harposCal</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r487479348-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -312,9 +464,6 @@
     <t>Woodlands hills is a lovely up scale area, and the hotels there can be pricey. We were traveling for leisure, going to a B Day Party up on the Hills. This hotel was reasonably priced, and very close to the Party. Other hotels charged high for parking, had no pool &amp; tub, etc. We got a top floor nice room clean quiet and updated furniture, Staff was very friendly, efficient and hospitable. Poll and tub were fairly clean, Hot tub is about to be re done some jets didn't work., Parking lot was free, safe, Breakfast was very good for a CI, I have seen much worse. overall a great value for the price, i would stay there again anytime i'm in the area.Tip; there s a Dennys next door if your hungry late, and a Ralphs across the streetMore</t>
   </si>
   <si>
-    <t>Jeff M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r473490753-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -333,7 +482,40 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Dansker58</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r468359452-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>468359452</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t>Cold As Ice</t>
+  </si>
+  <si>
+    <t>Look if you want a 5 star hotel go to the Waldorf Astoria in Beverly Hills. If you need a decent place for overnight then this is the place for you.  Everything in the room worked fine. Only complaint is the mini fridge should be turned on before guest arrive.  The ice machine was out of service on the 2nd. floor. had to use the one on the 3rd. floor.  I told the desk clerk. Let's hope they fixed it.  Breakfast was fine. I would stay here again.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r454828347-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>454828347</t>
+  </si>
+  <si>
+    <t>01/25/2017</t>
+  </si>
+  <si>
+    <t>Average facility in need of repair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The front desk agent was courteous but impersonal and difficult to understand.  The one and only ice machine (on the second floor) was not working.  My room was clean but in poor condition.  See photo below.  That is the bathroom door separating the toilet from the vanity area.. and it was completely closed when I took the photo!  </t>
+  </si>
+  <si>
+    <t>January 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r430289336-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
@@ -354,9 +536,6 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t>A C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r424858149-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -378,9 +557,6 @@
     <t>This motel appear to be an owner oprator one.  Nice people, friendly staff. But the non-smoking room assigned to me was previously a "Smoking"  room,   the number was room 310.   The issue here is just by sticking A sticky on door that says "Non-Smkoing" , you can't  declare that is not smoking unless you  was the carpet, the drapes scrape walls or etc.   I could smell smkoe all night in my lungs where I am an asthma patient. I put up with it for 3 day then checked out.   I think if a room is designed as "Non-Smoking " then, it needs to be certified by an Independent firm.   My advise, ask if mote,hotel is owner oprater, then as more questions.More</t>
   </si>
   <si>
-    <t>Maya L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r422624405-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -396,7 +572,40 @@
     <t xml:space="preserve">Rooms are clean and comfortable. Great location in our case. We visited friends and relatives, so it was close to all. Service is good.Breakfast was ok. Hot pancakes, muffins, juices, coffee, eggs. Just enough to start the day with. </t>
   </si>
   <si>
-    <t>23Dorsett</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r409088430-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>409088430</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Below Par</t>
+  </si>
+  <si>
+    <t>For such a good location and price, I expected a quality experience similar to other motels nearby. However, this was a major disappointment. I booked the lowest price on a 3rd party website. With no warning when booking, that apparently locked us into the worst section of the building just feet away from the 101 Ventura freeway. It was very noisy and I did not feel safe in the parking lot by the room. The front door wouldn't lock completely. It just partially closed making it necessary to use the key to open but it wasn't really closed all the way. The carpet looked dirty and the room hadn't been updated in at least 30 years. The room did seem clean and I did not see any vermin. That's probably because the rat traps I saw were working pretty well. Breakfast was passable and front desk friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>For such a good location and price, I expected a quality experience similar to other motels nearby. However, this was a major disappointment. I booked the lowest price on a 3rd party website. With no warning when booking, that apparently locked us into the worst section of the building just feet away from the 101 Ventura freeway. It was very noisy and I did not feel safe in the parking lot by the room. The front door wouldn't lock completely. It just partially closed making it necessary to use the key to open but it wasn't really closed all the way. The carpet looked dirty and the room hadn't been updated in at least 30 years. The room did seem clean and I did not see any vermin. That's probably because the rat traps I saw were working pretty well. Breakfast was passable and front desk friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r408741682-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>408741682</t>
+  </si>
+  <si>
+    <t>COMFORT INN IS COMFERTABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We want to say THANK YOU ! to All the staff that made out trip relaxing and stress free !  This is a WONDERFUL hotel !  LOVED your HOT breackfast !  It was DELICIOUS  ! !  I give you all a 5 stars , well deserved especially the lady at the front desk I didn't catch your name but she is so so kind , always with a smile and willing to make sure that our stay was relaxing ! THANK YOU AGAIN !   THE THOMAS FAMILY </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r407424155-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
@@ -414,15 +623,9 @@
     <t>When entering the single king room at night, it took the A/C over 4 hours to cool the room down enough to be comfortable.  Room was musty and found 2 air fresheners on the floor at opposite ends of the room.  Furniture has seen better days, no chair at the table to do computing on, rather a uncomfortable cushioned chair in the corner.  Plenty of electrical outlets to charge electronics with though.  TV barely bigger than the microwave, mini-fridge okay for a couple days if needed.  Stairs on the east end of the building has issues with kick-plates coming loose and bounce around if you touch them.  Bed average but to me wasn't comfortable.  Parking for full size vehicles is a nightmare and beware if your towing - don't plan on parking here.  Driveway under port is 7'6" on one side and 6'6" on the outlet side, if you go to the Denny's drive you can weave your way around the lot to the back, but if towing (I had a small single axle generator) they will not allow parking even if you break your rig down for 2 slots.  They couldn't get their stories together why this isn't allowed and refused to contact management for discussion even though when I checked out there were ample slots open.  Park on the busy street if you dare.MoreShow less</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
     <t>When entering the single king room at night, it took the A/C over 4 hours to cool the room down enough to be comfortable.  Room was musty and found 2 air fresheners on the floor at opposite ends of the room.  Furniture has seen better days, no chair at the table to do computing on, rather a uncomfortable cushioned chair in the corner.  Plenty of electrical outlets to charge electronics with though.  TV barely bigger than the microwave, mini-fridge okay for a couple days if needed.  Stairs on the east end of the building has issues with kick-plates coming loose and bounce around if you touch them.  Bed average but to me wasn't comfortable.  Parking for full size vehicles is a nightmare and beware if your towing - don't plan on parking here.  Driveway under port is 7'6" on one side and 6'6" on the outlet side, if you go to the Denny's drive you can weave your way around the lot to the back, but if towing (I had a small single axle generator) they will not allow parking even if you break your rig down for 2 slots.  They couldn't get their stories together why this isn't allowed and refused to contact management for discussion even though when I checked out there were ample slots open.  Park on the busy street if you dare.More</t>
   </si>
   <si>
-    <t>BusyWife</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r405925634-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -438,9 +641,6 @@
     <t>We had a single king room.  The room was clean and had plenty of room.  Also had a refrigerator. Very nice and clean outdoor pool and hot tub.  There was a complimentary full breakfast which was very good but not enough tables to sit.  We had to take our breakfast to our room for two of the three days which is why the 4 star rating instead of 5.</t>
   </si>
   <si>
-    <t>marilyn w</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r341747551-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -459,7 +659,50 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t>KevinT888</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r341571339-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>341571339</t>
+  </si>
+  <si>
+    <t>01/20/2016</t>
+  </si>
+  <si>
+    <t>Quick overnight near LAX</t>
+  </si>
+  <si>
+    <t>I was surprised at how nice this hotel was considering the low price for the overnight stay for my family of three. The price included breakfast and parking. Our room was clean and the bed was comfortable.  The breakfast was good.  The staff was super nice.We will definitely stay here again. We always seem to fly out of LA at crazy hours. We travel to Santa Barbara but usually fly into LAX.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r335574132-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>335574132</t>
+  </si>
+  <si>
+    <t>12/28/2015</t>
+  </si>
+  <si>
+    <t>One of the Worst Nights I Ever Spent</t>
+  </si>
+  <si>
+    <t>My husband and I checked in on Dec. 23, for a one night stay.  We arrived shortly after 3pm, dropped off our bags, and left quickly as we had a busy day and evening planned.  We didn't get back to the hotel until after 10pm.  We washed up and got ready for bed, exhausted after a long day.
+Hoping to watch the evening news, we turned on the TV and saw the message, "No Signal" on the screen.  We tried pushing a few buttons, changing channels, volume, etc., but nothing worked.  Still no signal.
+We decided to use our iPad to check our e-mail, using the free wi-fi promised by the hotel.  We saw the wi-fi signal on the top of the screen, but the message said our e-mail couldn't be received.  Strike Two.
+I opened the refrigerator to get the bottle of water I had put in there earlier.  It was warm, as was the refrigerator.  Turning the dials made no difference.  The refrigerator wouldn't turn on.  Strike Three
+With no TV, no wi-fi, no cold water, we decided to get into bed and call it a night.  The bed felt like a slab of concrete.  It had no give whatsoever.  I got practically no sleep at all that night.  On the 24th, we flew back to NY on the red-eye, and I slept the whole way.
+I wrote an e-mail to the hotel and to the main office...My husband and I checked in on Dec. 23, for a one night stay.  We arrived shortly after 3pm, dropped off our bags, and left quickly as we had a busy day and evening planned.  We didn't get back to the hotel until after 10pm.  We washed up and got ready for bed, exhausted after a long day.Hoping to watch the evening news, we turned on the TV and saw the message, "No Signal" on the screen.  We tried pushing a few buttons, changing channels, volume, etc., but nothing worked.  Still no signal.We decided to use our iPad to check our e-mail, using the free wi-fi promised by the hotel.  We saw the wi-fi signal on the top of the screen, but the message said our e-mail couldn't be received.  Strike Two.I opened the refrigerator to get the bottle of water I had put in there earlier.  It was warm, as was the refrigerator.  Turning the dials made no difference.  The refrigerator wouldn't turn on.  Strike ThreeWith no TV, no wi-fi, no cold water, we decided to get into bed and call it a night.  The bed felt like a slab of concrete.  It had no give whatsoever.  I got practically no sleep at all that night.  On the 24th, we flew back to NY on the red-eye, and I slept the whole way.I wrote an e-mail to the hotel and to the main office of Comfort Inn.  So far I received an e-mail of apology from the manager of the hotel, hoping we'll come back and give them another chance.  FAT CHANCE!  We paid for a stay that promised TV, free wi-fi, a refrigerator, and one would assume by the name, Comfort.  We received none of those things and we feel we should get our money back.There are many hotels along Ventura Blvd. in Woodland Hills.  Choose a different one and save yourself a lot of aggravation.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I checked in on Dec. 23, for a one night stay.  We arrived shortly after 3pm, dropped off our bags, and left quickly as we had a busy day and evening planned.  We didn't get back to the hotel until after 10pm.  We washed up and got ready for bed, exhausted after a long day.
+Hoping to watch the evening news, we turned on the TV and saw the message, "No Signal" on the screen.  We tried pushing a few buttons, changing channels, volume, etc., but nothing worked.  Still no signal.
+We decided to use our iPad to check our e-mail, using the free wi-fi promised by the hotel.  We saw the wi-fi signal on the top of the screen, but the message said our e-mail couldn't be received.  Strike Two.
+I opened the refrigerator to get the bottle of water I had put in there earlier.  It was warm, as was the refrigerator.  Turning the dials made no difference.  The refrigerator wouldn't turn on.  Strike Three
+With no TV, no wi-fi, no cold water, we decided to get into bed and call it a night.  The bed felt like a slab of concrete.  It had no give whatsoever.  I got practically no sleep at all that night.  On the 24th, we flew back to NY on the red-eye, and I slept the whole way.
+I wrote an e-mail to the hotel and to the main office...My husband and I checked in on Dec. 23, for a one night stay.  We arrived shortly after 3pm, dropped off our bags, and left quickly as we had a busy day and evening planned.  We didn't get back to the hotel until after 10pm.  We washed up and got ready for bed, exhausted after a long day.Hoping to watch the evening news, we turned on the TV and saw the message, "No Signal" on the screen.  We tried pushing a few buttons, changing channels, volume, etc., but nothing worked.  Still no signal.We decided to use our iPad to check our e-mail, using the free wi-fi promised by the hotel.  We saw the wi-fi signal on the top of the screen, but the message said our e-mail couldn't be received.  Strike Two.I opened the refrigerator to get the bottle of water I had put in there earlier.  It was warm, as was the refrigerator.  Turning the dials made no difference.  The refrigerator wouldn't turn on.  Strike ThreeWith no TV, no wi-fi, no cold water, we decided to get into bed and call it a night.  The bed felt like a slab of concrete.  It had no give whatsoever.  I got practically no sleep at all that night.  On the 24th, we flew back to NY on the red-eye, and I slept the whole way.I wrote an e-mail to the hotel and to the main office of Comfort Inn.  So far I received an e-mail of apology from the manager of the hotel, hoping we'll come back and give them another chance.  FAT CHANCE!  We paid for a stay that promised TV, free wi-fi, a refrigerator, and one would assume by the name, Comfort.  We received none of those things and we feel we should get our money back.There are many hotels along Ventura Blvd. in Woodland Hills.  Choose a different one and save yourself a lot of aggravation.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r319119914-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
@@ -477,15 +720,9 @@
     <t>For many people, it is unthinkable of booking a hotel in your own town and for yourself. But it is totally normal in Los Angeles where the traffic is so terrible that takes people hours just for going to work or going back home during the weekdays. For me, this Comfort Inn is my solution to the traffic problem in LA. When the traffic is bad, or I have a late meeting in office, I just go to Comfort Inn and stay there for the night. The hotel is not the luxury...the facility is clean, remodeled...everything meets my expectation of a 2-STAR hotel. The surprise is inside the room. It has 5-STAR beds. The bed is very comfortable, bedding is at high quality, like a 5-STAR hotel bed without a plate of chocolates on it. It does not have a view nor an endless pool. But I am not coming here for vacation, therefore a clean &amp; comfortable bed with a working shower is all I needed.The hotel is next to Freeway 101, it is very convenient to get off or get back onto the freeway.MoreShow less</t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
     <t>For many people, it is unthinkable of booking a hotel in your own town and for yourself. But it is totally normal in Los Angeles where the traffic is so terrible that takes people hours just for going to work or going back home during the weekdays. For me, this Comfort Inn is my solution to the traffic problem in LA. When the traffic is bad, or I have a late meeting in office, I just go to Comfort Inn and stay there for the night. The hotel is not the luxury...the facility is clean, remodeled...everything meets my expectation of a 2-STAR hotel. The surprise is inside the room. It has 5-STAR beds. The bed is very comfortable, bedding is at high quality, like a 5-STAR hotel bed without a plate of chocolates on it. It does not have a view nor an endless pool. But I am not coming here for vacation, therefore a clean &amp; comfortable bed with a working shower is all I needed.The hotel is next to Freeway 101, it is very convenient to get off or get back onto the freeway.More</t>
   </si>
   <si>
-    <t>Spats-Fanny</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r301886345-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -504,9 +741,6 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t>Marina G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r300015776-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -528,7 +762,47 @@
     <t>The hotel is decent, but the service not so much. They charge way too much and don't provide ANY housekeeping in the room during your stay. Needless to say that I had to clean up my room, I had to run to the reception desk to ask for soap and shampoo and clean towels. Very disappointing!The WiFi was down most of the time, so I wasn't able to use my laptop only my phone.The breakfast room is VERY small and has only 8 small tables for hundreds of guests. Around 8.30 am it is so crowded, that we had to wait in line to have breakfast.Also the parking is too small for all the guests' cars and it is challenging to find a spot if you arrive late at night.More</t>
   </si>
   <si>
-    <t>Ed Z</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r294773915-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>294773915</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>Ok option</t>
+  </si>
+  <si>
+    <t>Affordable hotel....decent area....good access to interstate for getting around LA.
+Has had a recent "facelift" but still a lot of old design and features in the room.  At least the a/c worked!!!  Some things in need of repair and some areas needed a good cleaning.  The shower faucet in our room was near impossible to turn on.  Very old style and we were afraid we were going to bust the handle off trying to run it on.
+My biggest disappointment with the hotel is that I booked our stay months in advance requesting a room with a parking lot view as we were driving our sports car across country and wanted to be able to keep an eye on it.  We were given one of very few rooms on this property that did NOT have a view of the lot!!!!  We had a single window on the side of the building where there was a single lane section of road along side of the hotel for access to the back lot but there was no parking available where we could view the car.  Of course we were here for 3 nights to which I didn't sleep well wondering about the car.  But seriously there were probably 3 rooms in the entire hotel with the view...ours and the 2 in the same spot on the upper levels.  Luckily everything was fine....if something had happened to the car I would have been...Affordable hotel....decent area....good access to interstate for getting around LA.Has had a recent "facelift" but still a lot of old design and features in the room.  At least the a/c worked!!!  Some things in need of repair and some areas needed a good cleaning.  The shower faucet in our room was near impossible to turn on.  Very old style and we were afraid we were going to bust the handle off trying to run it on.My biggest disappointment with the hotel is that I booked our stay months in advance requesting a room with a parking lot view as we were driving our sports car across country and wanted to be able to keep an eye on it.  We were given one of very few rooms on this property that did NOT have a view of the lot!!!!  We had a single window on the side of the building where there was a single lane section of road along side of the hotel for access to the back lot but there was no parking available where we could view the car.  Of course we were here for 3 nights to which I didn't sleep well wondering about the car.  But seriously there were probably 3 rooms in the entire hotel with the view...ours and the 2 in the same spot on the upper levels.  Luckily everything was fine....if something had happened to the car I would have been far beyond furious.If you don't care to honor special requests then don't make the option available!MoreShow less</t>
+  </si>
+  <si>
+    <t>Affordable hotel....decent area....good access to interstate for getting around LA.
+Has had a recent "facelift" but still a lot of old design and features in the room.  At least the a/c worked!!!  Some things in need of repair and some areas needed a good cleaning.  The shower faucet in our room was near impossible to turn on.  Very old style and we were afraid we were going to bust the handle off trying to run it on.
+My biggest disappointment with the hotel is that I booked our stay months in advance requesting a room with a parking lot view as we were driving our sports car across country and wanted to be able to keep an eye on it.  We were given one of very few rooms on this property that did NOT have a view of the lot!!!!  We had a single window on the side of the building where there was a single lane section of road along side of the hotel for access to the back lot but there was no parking available where we could view the car.  Of course we were here for 3 nights to which I didn't sleep well wondering about the car.  But seriously there were probably 3 rooms in the entire hotel with the view...ours and the 2 in the same spot on the upper levels.  Luckily everything was fine....if something had happened to the car I would have been...Affordable hotel....decent area....good access to interstate for getting around LA.Has had a recent "facelift" but still a lot of old design and features in the room.  At least the a/c worked!!!  Some things in need of repair and some areas needed a good cleaning.  The shower faucet in our room was near impossible to turn on.  Very old style and we were afraid we were going to bust the handle off trying to run it on.My biggest disappointment with the hotel is that I booked our stay months in advance requesting a room with a parking lot view as we were driving our sports car across country and wanted to be able to keep an eye on it.  We were given one of very few rooms on this property that did NOT have a view of the lot!!!!  We had a single window on the side of the building where there was a single lane section of road along side of the hotel for access to the back lot but there was no parking available where we could view the car.  Of course we were here for 3 nights to which I didn't sleep well wondering about the car.  But seriously there were probably 3 rooms in the entire hotel with the view...ours and the 2 in the same spot on the upper levels.  Luckily everything was fine....if something had happened to the car I would have been far beyond furious.If you don't care to honor special requests then don't make the option available!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r255338256-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>255338256</t>
+  </si>
+  <si>
+    <t>02/19/2015</t>
+  </si>
+  <si>
+    <t>The worst, very rude!</t>
+  </si>
+  <si>
+    <t>This was one of the worst places I have ever stayed, and I have traveled extensively! Front desk staff was the rudest!!! When I called with questions before my stay I was hung up on twice. After arrival he was more interested in watching  tv than in helping me check-in. He acted like I was bothering him. When I asked what gym they had a contract with as it stated on the website he informed me "none" &amp; then told me to figure it out on my own...really? Onto the room...filthy. Hair in the shower &amp; in the soap dish at sink. GROSS! Chair &amp; carpet black with dirt &amp; the carpet had never been vacuumed around the edges, food etc. I would have changed hotels if I didn't have other family members coming to stay there also. When I told management about things all that was said was "come again". Never, ever!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>This was one of the worst places I have ever stayed, and I have traveled extensively! Front desk staff was the rudest!!! When I called with questions before my stay I was hung up on twice. After arrival he was more interested in watching  tv than in helping me check-in. He acted like I was bothering him. When I asked what gym they had a contract with as it stated on the website he informed me "none" &amp; then told me to figure it out on my own...really? Onto the room...filthy. Hair in the shower &amp; in the soap dish at sink. GROSS! Chair &amp; carpet black with dirt &amp; the carpet had never been vacuumed around the edges, food etc. I would have changed hotels if I didn't have other family members coming to stay there also. When I told management about things all that was said was "come again". Never, ever!!!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r242602005-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
@@ -552,9 +826,6 @@
     <t>We arrived on a Sunday.  An hour or so after arrival I went to get a glass of water, NO WATER FOR YOU.  There was air pressure though, so I waited and finally got water.  I had checked in without a car, so chose to wait out the drought.  Monday the desk called to say the water would be off for a short period of time.  Hot water? Out of the question, sometimes it would be warm, if you had the time to wait for it.  Cable service went out three times, once due to a power failure.  Wi-Fi agreement was so long and complicated I used my hotspot instead.  I was returning to the area the next week, booked a different hotel.  This makes me rethink using Choice Hotels at all.More</t>
   </si>
   <si>
-    <t>William J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r237632439-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -573,9 +844,6 @@
     <t>October 2014</t>
   </si>
   <si>
-    <t>SakuKim</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r232627006-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -591,7 +859,43 @@
     <t>Ask for room at third floor facing the inner yard, pool or parking- just so that it will be a bit more quite as it locates very close to the bigger roads entering LA from north. A good advice is to bring your swimming gear/suit as they have a hot water tub and swimming pool which is really handy after a long drive. Grossery store (Ralphs), Japanese and Mexican style fast food places 4 minutes walk from the hotel.</t>
   </si>
   <si>
-    <t>Pankaj T</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r228728861-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>228728861</t>
+  </si>
+  <si>
+    <t>09/13/2014</t>
+  </si>
+  <si>
+    <t>So so experience</t>
+  </si>
+  <si>
+    <t>I have stayed here twice before so I was very surprised to have these things present.  The breakfast was pretty subpar.  The eggs were just fine however the sausage was pretty dry and didn't seem that warm.  The front desk staff was very nice and the rooms were very clean.  The mattresses were super firm but the pillows were some of the nicest I've ever used in a hotel.  The proximity to Burbank airport and Universal Studios made this location very pleasing for me.  There are also some excellent restaurants within walking distance to the hotel.  I would stay away from the Denny's next-door is the service is always bad in the food not good at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>I have stayed here twice before so I was very surprised to have these things present.  The breakfast was pretty subpar.  The eggs were just fine however the sausage was pretty dry and didn't seem that warm.  The front desk staff was very nice and the rooms were very clean.  The mattresses were super firm but the pillows were some of the nicest I've ever used in a hotel.  The proximity to Burbank airport and Universal Studios made this location very pleasing for me.  There are also some excellent restaurants within walking distance to the hotel.  I would stay away from the Denny's next-door is the service is always bad in the food not good at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r225077643-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>225077643</t>
+  </si>
+  <si>
+    <t>08/28/2014</t>
+  </si>
+  <si>
+    <t>Great stay and great location!</t>
+  </si>
+  <si>
+    <t>Not being able to afford to stay in the "big" LA spots, we found this hotel through TripAdvisor and it was not only reasonably priced, but close enough to travel a short distance to Beverly Hills and West Hollywood (about 20 minutes!). We were so pleased with this hotel! A plus is that the sink is located outside the bathroom, which I'm sure both my boyfriend and I appreciate so I could get ready each day on my own time (lol)! Denny's is right next door, which came in handy for breakfast. Can't say enough good things about this hotel!</t>
+  </si>
+  <si>
+    <t>August 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r198233506-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
@@ -612,9 +916,6 @@
     <t>March 2014</t>
   </si>
   <si>
-    <t>Psyflux</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r198121932-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -630,9 +931,6 @@
     <t>Convenient hotel with nice room and facilities. Breakfast had good selection and staff were helpful. Excellent vintage market across the road in the school grounds when we stayed. Only gripe is there is quite a lot of road noise as its next to a really busy road.</t>
   </si>
   <si>
-    <t>Paul P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r197368091-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -648,7 +946,43 @@
     <t xml:space="preserve">Room was nice. Good shower, quiet, clean. Housekeeping was very nice about extra towels,etc. Good breakfast. Made my own waffles and could eat as much as I wanted. Front desk people were very nice and helpful.   </t>
   </si>
   <si>
-    <t>LosAngelesCaliNikki</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r194075295-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>194075295</t>
+  </si>
+  <si>
+    <t>02/14/2014</t>
+  </si>
+  <si>
+    <t>Worst stay ever,anywhere.</t>
+  </si>
+  <si>
+    <t>I stayed at this inn last September and I had to stay, because my reservation was pre-paid .the service was terrible.It seemed like the staff went out of their to be rude.I could'nt get extra towels,a blanket,even my t.v. remote did'nt work.When I asked for another one ,I was told none werew available. I asked to speak to the G.M. and,it seemed, either had'nt come in yet or had just left.Even if it was free I'd never stay there again</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r188961900-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>188961900</t>
+  </si>
+  <si>
+    <t>12/29/2013</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Have stayed here before and have always had a great experience. The front counter staff was helpful and courteous both at check in and check out.The rooms are good size and were very nice. Everything was clean and comfortable.There is a small breakfast area for quick eats in the morning. Nothing fancy - but great to grab a cup of coffee some fruit and a pastry. Can get a little busy - if you want a sit down breakfast, there is a Denny's right in front of the hotel.Had no problem with parking. And if you go to one of the other local hotels be prepared to spend 10-20 dollars a night to self-park. Keep that in mind when you are comparing prices.This is a great location and I would recommend the Comfort Inn for future stays.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Have stayed here before and have always had a great experience. The front counter staff was helpful and courteous both at check in and check out.The rooms are good size and were very nice. Everything was clean and comfortable.There is a small breakfast area for quick eats in the morning. Nothing fancy - but great to grab a cup of coffee some fruit and a pastry. Can get a little busy - if you want a sit down breakfast, there is a Denny's right in front of the hotel.Had no problem with parking. And if you go to one of the other local hotels be prepared to spend 10-20 dollars a night to self-park. Keep that in mind when you are comparing prices.This is a great location and I would recommend the Comfort Inn for future stays.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r171447382-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
@@ -666,9 +1000,6 @@
     <t xml:space="preserve">This place really isn't so bad, I just didn't feel super safe as a single woman traveling on business. Nothing happened but I was uncomfortable coming back to my room in the evening and seeing men smoking and drinking off the balcony and knowing which room I was going in to. Also, breakfast is poor quality food and I didn't have hot water to shower with 3 out of the 5 days I was there. </t>
   </si>
   <si>
-    <t>califmac</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r170638208-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -690,9 +1021,6 @@
     <t>First, don't be fooled by photos (of course), it is NOT that nice.  Needs some TLC in the rooms and exterior.  We got a room with two queen beds--smallest queen beds ever seen on earth!  Bathroom is very run down and small.  Lamps are filled with a mixture of 'white' light and 'brown' light - very confusing.  A/C doesn't work good and electrical sockets don't work in places.  The Breakfast area is cramped, crowded and not good at all--don't go to the Denny's next door; bad service that is slow; like a root canal.  Staff is a little cold and not very friendly.  Also - they don't tell you that you could have a room facing the Highway....road noise all night long.  Oh, they will offer you another room....for 30-40 extra a night!!  They don't even mention that in the reservation site.  Also, smallest refrigerator with no microwave.  Who does that?  I guess these people do. If you HAVE to stay somewhere....sure, but I would suggest you find somewhere else.  We stayed for four nights and thankfully we did not stay in the room very much.More</t>
   </si>
   <si>
-    <t>mhernan702</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r170151656-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -708,7 +1036,43 @@
     <t xml:space="preserve">My family and I stayed here a few days ago, and it was a great stay! Nice size rooms, very clean, super comfy beds, AC was quiet and worked great! Staff was friendly, breakfast was good. Parking was a little tricky if you came back to the hotel after 8 pm, but we never had a problem finding a spot. Only small issue was the small room they serve breakfast in, try to get there before 9 am! We will definitely stay here again! </t>
   </si>
   <si>
-    <t>Lydia V</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r168937869-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>168937869</t>
+  </si>
+  <si>
+    <t>07/24/2013</t>
+  </si>
+  <si>
+    <t>Great, clean property, pool is kept clean</t>
+  </si>
+  <si>
+    <t>I do agree parking can be a bit tricky, but even though most nights we didn't get in until 9 or 10 pm there was a security guard all nights that allowed us to park parallel right in front of our room.  I also loved how clean it was and how clean they kept the pool and the surrounding area.  It's also super convenient that there is a Denny's right next door that is open 24 hours.  The eating area is super cramped though and that would be a slight complaint but most days we grabbed our breakfast to go so it wasn't a huge deal, but if you're a big family, plan on taking it back to your room because there is really next to no eating space.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>I do agree parking can be a bit tricky, but even though most nights we didn't get in until 9 or 10 pm there was a security guard all nights that allowed us to park parallel right in front of our room.  I also loved how clean it was and how clean they kept the pool and the surrounding area.  It's also super convenient that there is a Denny's right next door that is open 24 hours.  The eating area is super cramped though and that would be a slight complaint but most days we grabbed our breakfast to go so it wasn't a huge deal, but if you're a big family, plan on taking it back to your room because there is really next to no eating space.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r167114674-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>167114674</t>
+  </si>
+  <si>
+    <t>07/10/2013</t>
+  </si>
+  <si>
+    <t>No Parking spots</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 2 nights, The rooms where not so good, the parking lot is small... I had to go in  and one of the workers had to move her vehicle just so we would have a place to park, and the breakfast room is always so packed that you wouldnt want to go in there. They only had 6 tables and each table only sat 2 people.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r166764876-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
@@ -726,15 +1090,9 @@
     <t>We checked into our room yesterday afternoon and were not real pleased that we got a room that was off the freeway and without any handicapped accessible parking but the room wasn't bad so we dealth with it.  We went to dinner with family and when we came back there wasn't any parking anywhere near our room and to add insult to injury one of the parking spaces in front of our room was taken by a TRAILER!  This establishment required you to post a parking sticker in your window so where did they put the one for the trailer.  We asked the person at the desk to request that the trailer be moved so that we could park near our room.  The van that had towed the trailer was right next to the trailer and they should have been able to locate the owner easily as you had to give your license plate number with your room info.  They wanted us to park in one of the two handicapped spots that were near the office which was 2 buildings away!  Suffice to say that after waiting almost a hour for them to take care of the situation my husband finally asked the front desk clerk what she was doing to take care of the situation and the manager came in and told him that he didn't want us staying there and he refunded our money.  It was 11:15PM on...We checked into our room yesterday afternoon and were not real pleased that we got a room that was off the freeway and without any handicapped accessible parking but the room wasn't bad so we dealth with it.  We went to dinner with family and when we came back there wasn't any parking anywhere near our room and to add insult to injury one of the parking spaces in front of our room was taken by a TRAILER!  This establishment required you to post a parking sticker in your window so where did they put the one for the trailer.  We asked the person at the desk to request that the trailer be moved so that we could park near our room.  The van that had towed the trailer was right next to the trailer and they should have been able to locate the owner easily as you had to give your license plate number with your room info.  They wanted us to park in one of the two handicapped spots that were near the office which was 2 buildings away!  Suffice to say that after waiting almost a hour for them to take care of the situation my husband finally asked the front desk clerk what she was doing to take care of the situation and the manager came in and told him that he didn't want us staying there and he refunded our money.  It was 11:15PM on the Sunday of a four day 4th of July weekend.  Note, this was a prepaid reservation with a request for a first story room as there was a handicapped guest in our group.  Very bad customer service and no respect shown for a handicapped Vietnam Veteran.MoreShow less</t>
   </si>
   <si>
-    <t>July 2013</t>
-  </si>
-  <si>
     <t>We checked into our room yesterday afternoon and were not real pleased that we got a room that was off the freeway and without any handicapped accessible parking but the room wasn't bad so we dealth with it.  We went to dinner with family and when we came back there wasn't any parking anywhere near our room and to add insult to injury one of the parking spaces in front of our room was taken by a TRAILER!  This establishment required you to post a parking sticker in your window so where did they put the one for the trailer.  We asked the person at the desk to request that the trailer be moved so that we could park near our room.  The van that had towed the trailer was right next to the trailer and they should have been able to locate the owner easily as you had to give your license plate number with your room info.  They wanted us to park in one of the two handicapped spots that were near the office which was 2 buildings away!  Suffice to say that after waiting almost a hour for them to take care of the situation my husband finally asked the front desk clerk what she was doing to take care of the situation and the manager came in and told him that he didn't want us staying there and he refunded our money.  It was 11:15PM on...We checked into our room yesterday afternoon and were not real pleased that we got a room that was off the freeway and without any handicapped accessible parking but the room wasn't bad so we dealth with it.  We went to dinner with family and when we came back there wasn't any parking anywhere near our room and to add insult to injury one of the parking spaces in front of our room was taken by a TRAILER!  This establishment required you to post a parking sticker in your window so where did they put the one for the trailer.  We asked the person at the desk to request that the trailer be moved so that we could park near our room.  The van that had towed the trailer was right next to the trailer and they should have been able to locate the owner easily as you had to give your license plate number with your room info.  They wanted us to park in one of the two handicapped spots that were near the office which was 2 buildings away!  Suffice to say that after waiting almost a hour for them to take care of the situation my husband finally asked the front desk clerk what she was doing to take care of the situation and the manager came in and told him that he didn't want us staying there and he refunded our money.  It was 11:15PM on the Sunday of a four day 4th of July weekend.  Note, this was a prepaid reservation with a request for a first story room as there was a handicapped guest in our group.  Very bad customer service and no respect shown for a handicapped Vietnam Veteran.More</t>
   </si>
   <si>
-    <t>Jeff H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r166119113-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -750,9 +1108,6 @@
     <t>This Comfort Inn is decent.  Unlike most, it has exterior corridors and the rooms are fairly small.  I had a king and only a desk chair was in the room.  The desk staff was rather snippy, so it must be that management does not train well on customer service.  The room itself was clean and the internet was good.  It took awhile for the room to cool down and at 97 degrees outside, it was uncomfortable for the first 2 hours.  The breakfast was on the poor side of typical for a Comfort Inn.</t>
   </si>
   <si>
-    <t>jhg155</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r161653890-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -774,7 +1129,40 @@
     <t>I stayed in this hotel for two nights while in LA on business.  No, its not a new property, but it is clean and well kept. That means more to me than newness.  I requested and received a room on the top floor away from the freeway.  Noise was not an issue.  There were nice shutters on the windows that I could open to let in some light.  The room was not huge, but the sink area was good.  No closet, but an armoire was provided to put my clothes in. The fridge was not on when I arrived, but I turned it on and it worked fine.  The bed was comfortable and I slept well.  The internet service was good.  The hotel was easy to get in and out of (which is a great plus in LA).  The breakfast area was tiny so I didn't spend much time there.  Breakfast food was so-so.  At check-out, the clerk gave me the receipt for another room.  I caught it in the parking lot and got it straight before I left. Overall a good stay. I would probably stay here again given the chance.More</t>
   </si>
   <si>
-    <t>MARC T</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r159074894-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>159074894</t>
+  </si>
+  <si>
+    <t>04/28/2013</t>
+  </si>
+  <si>
+    <t>Very clean!!!...... But.....</t>
+  </si>
+  <si>
+    <t>Full day planned!! Stopped to check in before going to our destination. Staff was nice however she gave us the room key to another guest.... We woke them up when we tried to go in their room. Once in our room we found it to be very clean and the decor was nice. We headed to our destination, and when we got back.... There was NO parking. The next morning when checking out I was treated like it was an inconvience to help me..... The room and cleaning staff were amazing and the price was a great deal. The management and check in staff..... Well.....  Could have done without..... We stay at comfort and quality inns all the time.... This was not the greatest check in staff.....MoreShow less</t>
+  </si>
+  <si>
+    <t>Full day planned!! Stopped to check in before going to our destination. Staff was nice however she gave us the room key to another guest.... We woke them up when we tried to go in their room. Once in our room we found it to be very clean and the decor was nice. We headed to our destination, and when we got back.... There was NO parking. The next morning when checking out I was treated like it was an inconvience to help me..... The room and cleaning staff were amazing and the price was a great deal. The management and check in staff..... Well.....  Could have done without..... We stay at comfort and quality inns all the time.... This was not the greatest check in staff.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r157125981-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>157125981</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Great Stay for the 7th time . . . :-)</t>
+  </si>
+  <si>
+    <t>We really love it here.Close enough to downtown and (if your lucky) a 30 min drive to Santa Monica beach ;-)Great staff that is always friendly and helpful.Rooms are ok and have flatscreen tv.Anyway we just use our room to sleep.For the rest of the day we are working in LA.Breakfast is good too with sausages, eggs, fruit, different kind of bread, bake yourself waffles so more than eno</t>
+  </si>
+  <si>
+    <t>April 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r150371162-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
@@ -798,9 +1186,6 @@
     <t>Is a really nice hotel !Great rooms . . . clean . . . @ a great priceWe booked this since we needed to be often in downtown LA . . . most of the people warned us for traffic but mostly it was a 30 min drive  . . . isn't bad . . . if we need to cross Brussels . . . it takes usually longer . . .The only problems (3)  I had was that the inspection of the elevator was 2 years over date . . .I noticed it when I was standing in it to solve problem 2 . . .  the vending machine on the main floor didn't work . . . and was causing problem number 3 . . . this wasn't going last either . . .I informed the Manager by mail of these 3 items (several times) but never ever received a reply . . . . a really pitty since other people might take the elevator inspection a lot more serious as we did . . .But that's up to him . . .For the rest . . . great breakfast . . . always coffee at the fron desk and even when not . . . they made some fresh . . .So besides these 3 items . . . really nice clean place !HAGOneMore</t>
   </si>
   <si>
-    <t>Tony G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r136938055-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -822,9 +1207,6 @@
     <t>I had to book a room last minute and wasn't sure about this location or Comfort Inn in general. The three of us that stayed in the room were pleasantly surprised. It was an updated room and very clean. The mattresses were brand new and the bedding was clean and fresh. The room had a little fridge and a coffee maker. The Wi-Fi wasn't great but better than a lot of other more expensive hotels in terms of the speed. The hotel was right off the freeway which made it easy to get to and we at the Denny's for a late-night meal when everything else was closed. The only issue we had was the parking - every single spot was full and had to park along the sidewalk but the security guy said that was ok. All-in-all it was better than we expected and I can comfortably recommend this place.More</t>
   </si>
   <si>
-    <t>Redpatch7</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r135747135-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -843,7 +1225,28 @@
     <t>July 2012</t>
   </si>
   <si>
-    <t>Andrew T</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r135700277-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>135700277</t>
+  </si>
+  <si>
+    <t>This hotel was in a god location right off the highway in a nice part of town. Rooms were nice and updated. Staff was very friendly and helpful. There is a grocery store a block away and a dennys right next to the hotel. the breakfest at the hotel was not all that good needs to be upgraded. but othere than that. i recomend this location for a family vacation. its a 20 min. drive to Universal Studios and a 15 min  drive to the beach.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r134823575-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>134823575</t>
+  </si>
+  <si>
+    <t>07/19/2012</t>
+  </si>
+  <si>
+    <t>Clean and Comfortable</t>
+  </si>
+  <si>
+    <t>Considerate the fact that you will probably spend most of your time outside... We found this motel very clean, comfortable and very close to high way... which was fast connecting and getting into everywhere we needed. It is not a shiny spot... but the people there are really nice, and the rooms are very comfortable. It is a sane choice in LA.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r134468177-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
@@ -861,9 +1264,6 @@
     <t>A clean well run hotel/motel in a good location outside of busy LA city. A very nice pool area and a conveniently located Denny's next door provide a low budget stay. Lots of really good resturants nearby and supermarket only a stone through away. It's easy to get to Universal Studios and Hollywood if this is why you are in LA.</t>
   </si>
   <si>
-    <t>Bhavin69</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r132938750-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -882,9 +1282,6 @@
     <t>June 2012</t>
   </si>
   <si>
-    <t>Santa_Barbara_Native</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r132284034-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -903,7 +1300,40 @@
     <t>so i booked my shin dig of a room last minute and read the reviews from TA. I did not have my expectations set high with all the recent reviews. So I paid a little high which was probably due to fathers day weekend. I do have to say the room was clean and comfy. The drawbacks.... The room is quiet and never heard my neighbors, but my room was facing the 101 freeway! Arrgg..... Shut the door and I can still hear the freakin cars and trucks roaring by... BLAH! I was soo tired that I did not bother me much.. Well I guess thats probably cuz I grew up next to the 101 freeway!! LOL... My wife also seen a large rat cruzin by in the parking lot, which is not surprising because the parking lot is adjacent to the freeway. Other than the freeway and rat, the place is ok, just make sure your room is not facing the darn freeway. The breakfast was good, the only messed up part is that they do not let you take the food back to your room (WACK)!More</t>
   </si>
   <si>
-    <t>Sumant S</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r131517365-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>131517365</t>
+  </si>
+  <si>
+    <t>06/07/2012</t>
+  </si>
+  <si>
+    <t>Awesome Property!</t>
+  </si>
+  <si>
+    <t>Very nice facility!  Pool, hot-tub are great.  Very comfortable rooms.  An ample breakfast in the AM as well.  My boys were VERY happy here!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r128908019-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>128908019</t>
+  </si>
+  <si>
+    <t>04/27/2012</t>
+  </si>
+  <si>
+    <t>Loved it!</t>
+  </si>
+  <si>
+    <t>We were visiting LA with the whole family and planned to visit Universal Studios etc. Unfortunately, my dad made a  reservation at some Motel 6 for $50. We arrived there and it was a nightmare. The rooms were dark and did not smell good. Also the neighborhood was scary!....so I decided to call this place because I had previously worked for a Comfort Inn in San Mateo, CA. From the moment I spoke to the front desk girl, I had a feeling this place was going to be better. I persuaded my dad to cancel our reservation at Motel 6 and we drove to this place and we loved this place from the moment we entered the parking lot. We paid $89 instead of $50 but it was worth it. This place was a life saver. The rooms were clean, neighborhood is great, Dannys in the parking lot, and a nice swimming pool.....we love this place and will definitely be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>We were visiting LA with the whole family and planned to visit Universal Studios etc. Unfortunately, my dad made a  reservation at some Motel 6 for $50. We arrived there and it was a nightmare. The rooms were dark and did not smell good. Also the neighborhood was scary!....so I decided to call this place because I had previously worked for a Comfort Inn in San Mateo, CA. From the moment I spoke to the front desk girl, I had a feeling this place was going to be better. I persuaded my dad to cancel our reservation at Motel 6 and we drove to this place and we loved this place from the moment we entered the parking lot. We paid $89 instead of $50 but it was worth it. This place was a life saver. The rooms were clean, neighborhood is great, Dannys in the parking lot, and a nice swimming pool.....we love this place and will definitely be back!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r128565808-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
@@ -929,9 +1359,6 @@
  Although the nightmare began when I checked out, they had taken my payment through on the night I left, as they do, my flight was 6 or 7 in the morning and I had left quite early, on arrival to the airport I looked through my bag and discovered that I had left my Ipod back at the hotel. When I had called the desk clerk and told him about my problem, he did not seem so bothered, refused to co-operate by saying he could not leave the desk for 2 mins. I finally asked a friend to pick it up for me in the afternoon and send it by mail for me, on arrival they had informed her that they would not give it to her on the grounds that I did not pay for my last night there. They had not informed me of this information and gave...Stayed here for 7 days and initially when I checked in, the woman at the desk was very warm and kind, she had a whole conversation with me and even gave me some good points on where to eat and go. The room was spacious and clean, although the toilet area was kind of small. Everything in the room worked, so bonus points for that, and the breakfast was fine. As I was near the main road and not the freeway, I heard less noise and had a comfortable sleep. Although the nightmare began when I checked out, they had taken my payment through on the night I left, as they do, my flight was 6 or 7 in the morning and I had left quite early, on arrival to the airport I looked through my bag and discovered that I had left my Ipod back at the hotel. When I had called the desk clerk and told him about my problem, he did not seem so bothered, refused to co-operate by saying he could not leave the desk for 2 mins. I finally asked a friend to pick it up for me in the afternoon and send it by mail for me, on arrival they had informed her that they would not give it to her on the grounds that I did not pay for my last night there. They had not informed me of this information and gave my friend grief about this, refusing to give my personal belongings and holding it as a down payment. Is this a hotel or a loans sharks hideout? my tip for anyone staying here would be, make sure you check you have all your belongings before you leave and stay there for just a few nights.More</t>
   </si>
   <si>
-    <t>bigcop73</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r125306977-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -947,9 +1374,6 @@
     <t>Very nice place to stay, quiet, out of center LA. Great pool, cool breakfast, Denny's beside, grocer Ralph's 2 minute walk.Highway not far if you want to drive to the beach</t>
   </si>
   <si>
-    <t>Lisa U</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r123412799-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -965,7 +1389,37 @@
     <t>You definitely get what you pay for. We had enough hot water for a 5 minute shower. Then we got a room with a king bed and only had 4 pillows and asked if we could get some more and they brought us just one pillow. Its suppose to be a nice area but its really not. But it does have a Dennys on the same property and a little shopping center across the street.</t>
   </si>
   <si>
-    <t>Craig G</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r122678967-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>122678967</t>
+  </si>
+  <si>
+    <t>01/06/2012</t>
+  </si>
+  <si>
+    <t>Very Loud</t>
+  </si>
+  <si>
+    <t>Worst Comfort Inn I have ever stayed at. Lots of young adults and minors loitering there. There is a High School across the street. The freeway is right next to the property and very very loud. The room are very small and the walls are paper thin. There is a lot of police activity there on the property. I did not feel comfortable staying there. There was a guy surfing porn right next to the front desk when I checked in.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r116274507-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>116274507</t>
+  </si>
+  <si>
+    <t>08/04/2011</t>
+  </si>
+  <si>
+    <t>In an area with not a lot of good choices this is one.</t>
+  </si>
+  <si>
+    <t>A clean well run hotel in an ok location if you need to be in Woodland Hills Ca. A very nice pool area and a Dennys next door privide a good low priced trip. Lots of realy good resturants near by Mortons, Kate Madalini, Roys, Flemings and a lot more.  It's easy to get to Universal Studios and Hollywood if the freways are not to bad.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r115511352-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
@@ -990,9 +1444,6 @@
   </si>
   <si>
     <t>Started when are room keys had to be reprogramed the first night. It got worse. Breakfast was from 6:30 to 9:30, but if you weren't there by 9:00 you didn't get anything. The staff stop refilling breakfast items about 8:45.On our second morning we discovered they had shorted us a bath towel. I went to the front to get one, but they were out. Housekeeping was supposed to deliver one in 5 mins. My wife finally had to dry off with a hand towel. The towel didn't show up for 45 mins. The next night they shorted us again. I would find someplace else to stay if I were you. I know I won't stay here again.More</t>
-  </si>
-  <si>
-    <t>CrossMyDesk</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r113130235-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
@@ -1011,9 +1462,6 @@
 For me, though, the worst of the experience was the next morning. While I was getting dressed, the phone kept ringing and ringing. I picked it up a few times to find a dial tone. This continued for about 30 minutes... random ringing. When I mentioned it to the guy at the front desk, he was pretty rude about it, blowing me off. He said, "All calls come though here,...I stayed here at the last minute one night while on business in the Warner Center area. Checking in, the young lady was really nice and gave me everything I needed. The room was small, and suited my needs. The fridge in the room did not work, though... and I'm not really sure the A/C worked very well either. Over all, though, it wasn't bad. In walking about the grounds, I noticed that some of the area looked a bit run down. The blinds in the housekeeping area were mangled, and quite visible for any of the guests walking by. That wasn't terribly attractive. The grounds were clean and pleasant, but "tight" because of the small space. Everything seems a bit cramped, including the walkways. This hotel is literally wedged between to 101 freeway and Ventura Blvd -- and that means lots of road noise. This really is the type of place you go when you just need a place to sleep -- so if noise bothers you, bring earplugs.For me, though, the worst of the experience was the next morning. While I was getting dressed, the phone kept ringing and ringing. I picked it up a few times to find a dial tone. This continued for about 30 minutes... random ringing. When I mentioned it to the guy at the front desk, he was pretty rude about it, blowing me off. He said, "All calls come though here, lady, and there haven't been any. Are you sure you aren't hearing things?"  Yeah, that went over well. It's a good thing I was on my out and didn't want to deal with it.Breakfast was okay. Apparently, they've recently expanded their breakfast buffet to include hot bacon and eggs. The bacon was fine... but the eggs? YUCK! They are cooked from discs of salty yellow goo. Blech.The price was okay, considering that most rooms in this area (during summer) tend to be pretty high, but I've certainly been in much nicer hotels for less. However, it's a nice place and the rooms are clean and have just about anything you'd need (hairdryer, iron/ironing board. microwave, fridge (if it works), etc. The free breakfast was okay, but avoid the nuked egg patties.MoreShow less</t>
   </si>
   <si>
-    <t>June 2011</t>
-  </si>
-  <si>
     <t>-RPHotelOwner, Owner at Comfort Inn Near Warner Center, responded to this reviewResponded July 29, 2011</t>
   </si>
   <si>
@@ -1024,9 +1472,6 @@
 For me, though, the worst of the experience was the next morning. While I was getting dressed, the phone kept ringing and ringing. I picked it up a few times to find a dial tone. This continued for about 30 minutes... random ringing. When I mentioned it to the guy at the front desk, he was pretty rude about it, blowing me off. He said, "All calls come though here,...I stayed here at the last minute one night while on business in the Warner Center area. Checking in, the young lady was really nice and gave me everything I needed. The room was small, and suited my needs. The fridge in the room did not work, though... and I'm not really sure the A/C worked very well either. Over all, though, it wasn't bad. In walking about the grounds, I noticed that some of the area looked a bit run down. The blinds in the housekeeping area were mangled, and quite visible for any of the guests walking by. That wasn't terribly attractive. The grounds were clean and pleasant, but "tight" because of the small space. Everything seems a bit cramped, including the walkways. This hotel is literally wedged between to 101 freeway and Ventura Blvd -- and that means lots of road noise. This really is the type of place you go when you just need a place to sleep -- so if noise bothers you, bring earplugs.For me, though, the worst of the experience was the next morning. While I was getting dressed, the phone kept ringing and ringing. I picked it up a few times to find a dial tone. This continued for about 30 minutes... random ringing. When I mentioned it to the guy at the front desk, he was pretty rude about it, blowing me off. He said, "All calls come though here, lady, and there haven't been any. Are you sure you aren't hearing things?"  Yeah, that went over well. It's a good thing I was on my out and didn't want to deal with it.Breakfast was okay. Apparently, they've recently expanded their breakfast buffet to include hot bacon and eggs. The bacon was fine... but the eggs? YUCK! They are cooked from discs of salty yellow goo. Blech.The price was okay, considering that most rooms in this area (during summer) tend to be pretty high, but I've certainly been in much nicer hotels for less. However, it's a nice place and the rooms are clean and have just about anything you'd need (hairdryer, iron/ironing board. microwave, fridge (if it works), etc. The free breakfast was okay, but avoid the nuked egg patties.More</t>
   </si>
   <si>
-    <t>dreams42</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r96389902-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1054,7 +1499,43 @@
     <t>Well I have been to this hotel in the past and it has always been nice but I recently went there with my young  son and my husband and the room was nice everything was pretty clean and nice. What really grossed me out was when I went to the desk and I moved some food we had there a little roach was crawling around. Which had me freaked out all night since I had my young child with me. The blanket had a hole in it from someone smoking I guess. Other than that the place is nice. The staff was okay except she told me a price without taxes so I thought I was paying less. If I knew how much I was really paying I would have got a room at like a holiday inn or best western.More</t>
   </si>
   <si>
-    <t>BronwenL</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r87944968-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>87944968</t>
+  </si>
+  <si>
+    <t>11/22/2010</t>
+  </si>
+  <si>
+    <t>unprofessional staff with a horrible attitude.</t>
+  </si>
+  <si>
+    <t>Durring our stay I will say that the rooms were very clean. Yet there were nothing but issues from the start with the front desk staff. The first said she made our reservation, even giving me a confirmation number, which when we tried to look up, turned out to be false. Then, the air conditioning in our room failed, and the staff refused to move us even though they were virtually empty. When I spoke to the manager, he yelled at me claiming I was out of line to think I deserved to be relocated. Not only were we lied to by the staff, but also screamed at by them. Then, when it was time to check out, the front desk staff did not know how to do a manual check out when the computer system was down. All around, an unpleasant experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>Durring our stay I will say that the rooms were very clean. Yet there were nothing but issues from the start with the front desk staff. The first said she made our reservation, even giving me a confirmation number, which when we tried to look up, turned out to be false. Then, the air conditioning in our room failed, and the staff refused to move us even though they were virtually empty. When I spoke to the manager, he yelled at me claiming I was out of line to think I deserved to be relocated. Not only were we lied to by the staff, but also screamed at by them. Then, when it was time to check out, the front desk staff did not know how to do a manual check out when the computer system was down. All around, an unpleasant experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r87643436-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>87643436</t>
+  </si>
+  <si>
+    <t>11/19/2010</t>
+  </si>
+  <si>
+    <t>AWESOME HOTEL.....AWESOME ROOM....WARM AND FRIENDLY STAFF!!</t>
+  </si>
+  <si>
+    <t>Just want to say a big thank you to the staff at the Comfort Inn!We stayed for 4 nights and it was well worth the price..couldn't get any better!!They upgraded us to the bigger room right across from the pool..room 108!The room was very clean, the pool the right temperature and the breakfast in the morning was great.I HIGHLY recommend this hotel!! We will be back next year!THANK YOU!</t>
+  </si>
+  <si>
+    <t>November 2010</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r84953575-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
@@ -1078,9 +1559,6 @@
     <t>We got  a room here because it was close to a meeting we had scheduled and we needed something inexpensive and convenient. This hotel did meet the requirements. It's an old building but well maintained. The rooms had a rather sterile smell to them, very clean but not very appealing. The room, while small, did have a little 2-seater table, desk, armoire, fridge and microwave. Pretty good set up if you're in town on business and need to get stuff done. Add to that the free internet, free parking and free breakfast. Finding all of this together under $100 per night in the LA area is hard to do. So the room overall was decent, nothing to write home about. The bed was very firm, which works for us but some others may not be so happy. The street noise was not too bad all night but got a bit much around 6am. There is a Denny's right next door which has the best service (late-night) of any Denny's I've ever been to. Since we got in very late, we missed breakfast. In a pinch I'd stay here again, but it wouldn't be first choice.More</t>
   </si>
   <si>
-    <t>AliceMadera_CA</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r81423792-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1099,9 +1577,6 @@
     <t>September 2010</t>
   </si>
   <si>
-    <t>ElGuapo49</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r73836177-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1123,7 +1598,40 @@
     <t>This hotel is wedged between the 101 freeway on one side and a very busy street on the other side so if road noise is going to bother you look elsewhere. I am not a hotel snob and can deal with some of the Comfort Inns, this one average at best. Looking a little old and  no place you would want to spend more than a night. The general area is not a slum but is a marginal area. Gas stations, liquor stores, massage joint a multitude of smaller restaurants are all very close by. Front desk staff was nice enough, modest breakfast is included but I won't be back for just a few more miles or a few more dollars I would find something I liked better.More</t>
   </si>
   <si>
-    <t>infectbnl</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r64002684-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>64002684</t>
+  </si>
+  <si>
+    <t>05/12/2010</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>Breakfast could use a little more protein, good sleep and no charge parking, easy to find</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r63565824-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>63565824</t>
+  </si>
+  <si>
+    <t>05/08/2010</t>
+  </si>
+  <si>
+    <t>Motel style, great price</t>
+  </si>
+  <si>
+    <t>I stayed at the Comfort Inn for 2 nights, and chose it because of the price and proximity to the venue for a wedding I was attending.The hotel is more like a motel, but at under $70 a night, its very good value for money.The room was a decent size, the bed was huge and comfortable (pillows could have been firmer), the bathroom area was fine, and the room had a big flatscreen tv, fridge, coffee maker etc. A simple but adequate breakfast is included in the price, and the pool &amp; spa area is actually very nice. Denny's is next door which some might see as a plus, and others a minus, but it certainly didn't bother me. As others have mentioned, internet access is annoying, and the free wireless only ever seemed to work for 2 minutes at a time, but apart from that, I felt like I got everything I expected and needed.If you're looking for decent value for money, and need to be in the Woodland Hills area, then this motel will do you just fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at the Comfort Inn for 2 nights, and chose it because of the price and proximity to the venue for a wedding I was attending.The hotel is more like a motel, but at under $70 a night, its very good value for money.The room was a decent size, the bed was huge and comfortable (pillows could have been firmer), the bathroom area was fine, and the room had a big flatscreen tv, fridge, coffee maker etc. A simple but adequate breakfast is included in the price, and the pool &amp; spa area is actually very nice. Denny's is next door which some might see as a plus, and others a minus, but it certainly didn't bother me. As others have mentioned, internet access is annoying, and the free wireless only ever seemed to work for 2 minutes at a time, but apart from that, I felt like I got everything I expected and needed.If you're looking for decent value for money, and need to be in the Woodland Hills area, then this motel will do you just fine.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r50596683-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
@@ -1153,9 +1661,6 @@
     <t>Great Hotel. Rooms greatly decorated, all the needed amenities. Great service. Location is a bit tricky (just on the border of downtown and a bad neighborhood - I judge it on its looks, have no idea if it was bad or not :)), but we did not have any trouble with that. I would highly recommend it to a friend. Superb value for the money you pay.More</t>
   </si>
   <si>
-    <t>MUMTOBLISS</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r48757432-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1181,9 +1686,6 @@
   </si>
   <si>
     <t>Despite previous bad reviews ,the most recent a better one after the refurb,I decided to take a chance on this hotel. The hotel was a good price ,after a long flight from London ,check in was fast &amp; efficient &amp; the staff friendly &amp; helpful . Our room was overlooking the pool ,which was clean &amp; warm ,some have not so good a view at the back of the hotel. The room itself was clean &amp; spacious, lovely comfortable beds &amp; plenty of fresh towels  every day. There was a spacious dressing area, clean bathroom &amp; everything we needed. The complimentary breakfast  ( served from 6-9.30 am ) was constantly topped up &amp; a good selection this could be taken up to your room or to go. A special mention for the lovely breakfast lady Veronica who was so sweet &amp; lovely .All staff were polite friendly &amp; helpful and we had a lovely stay ( myself &amp; 4 kids 23, 16,13,7 )More</t>
-  </si>
-  <si>
-    <t>Marky_Crash</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r35792024-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
@@ -1221,7 +1723,76 @@
 As a result i had to check out and...Well the reviews here arn't too good but i think the hotel has been refurbished since then.The staff at reception were very welcoming at check in was easy and fast.The area seems fine and there is a Denny's in the carpark and its located with easy access to the freeways and there are shops across the road including a supermarket.The hotel pool is also nice.The rooms are "adequate" and while not the ritz they seem acceptable and if you want the ritz i guess you go to the ritz , the tv has a good choice of channels too and the room has a fridge.Then onto the internet and this is where it all fell apart for me , i am a full time poker player and need reliable access to the internet and only chose the hotel as it said it had free wireless internet, however the connection seems to cut completely every 30 minutes or so to make you go to view an advert and accept their user agreement over and over again , now this while being incredibly annoying i could just about deal with but once youve done this the connection is awful and disconects every few minutes and everything goes slow.Ive never experienced such problems as this and when i asked at reception was told the connection was like that.As a result i had to check out and find alternative accomodation with internet which was dissappointing as we were looking forward to staying here as the hotel itself seemed pleasant.If you dont require internet then this could be a good choice for cheap accomodation in a nice enough hotel.More</t>
   </si>
   <si>
-    <t>PammyRae</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r10896607-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>10896607</t>
+  </si>
+  <si>
+    <t>11/18/2007</t>
+  </si>
+  <si>
+    <t>Worst experience EVER!!!</t>
+  </si>
+  <si>
+    <t>We spent one horrible night at this place.   First, the t.v. did not work and we were told someone would come up and fix it, which did not happen.  Then about 12:30 a.m., after we fell asleep, a large group of teenagers from the highschool across the street starting running along the corriders, screaming, pounding, breaking bottles, and at least one, throwing up outside a guest room door.   The front desk sent ineffective security which could not control the situation, and about 2-2:30 a.m., the LA police (which had to be called by a guest) showed up and kicked them out..  When we asked the front desk manager this morning if there were chaperones, he said there were none; the rooms clearly were rented to minors with no chaperones.  There were only two Kleenexes in the box, only one bar of soap (no separate one for the shower), and, to top matters off, there was no hot water when I showered, but rather, ice cold water.  We were originally going to stay one more night, but relocated today to another motel in the area.  This appears to be a low-budget operation with inadequate and ineffective staff and security.  We will NEVER stay  there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t>rajgmWoodlandHills, owner at Comfort Inn Near Warner Center, responded to this reviewResponded March 30, 2009</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2009</t>
+  </si>
+  <si>
+    <t>We spent one horrible night at this place.   First, the t.v. did not work and we were told someone would come up and fix it, which did not happen.  Then about 12:30 a.m., after we fell asleep, a large group of teenagers from the highschool across the street starting running along the corriders, screaming, pounding, breaking bottles, and at least one, throwing up outside a guest room door.   The front desk sent ineffective security which could not control the situation, and about 2-2:30 a.m., the LA police (which had to be called by a guest) showed up and kicked them out..  When we asked the front desk manager this morning if there were chaperones, he said there were none; the rooms clearly were rented to minors with no chaperones.  There were only two Kleenexes in the box, only one bar of soap (no separate one for the shower), and, to top matters off, there was no hot water when I showered, but rather, ice cold water.  We were originally going to stay one more night, but relocated today to another motel in the area.  This appears to be a low-budget operation with inadequate and ineffective staff and security.  We will NEVER stay  there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r7952536-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>7952536</t>
+  </si>
+  <si>
+    <t>06/19/2007</t>
+  </si>
+  <si>
+    <t>Unacceptable</t>
+  </si>
+  <si>
+    <t>I had an unpleasant experience at this motel and will not be returning. However, I acknowledge the motel had some good points, which I list first. It may be possible to have a decent experience here if you stay on the side furthest away from the Denny's, and if you check the plumbing first to make sure it works properly, and if you find the room to be acceptably clean.  But with so many hotel choices nearby, I wouldn't chance it.
+Positives (or Neutral) :
+* Unusually firm mattress
+* Refrigerator in room next size up from tiny
+* Microwave in room
+* Swimming pool that's larger than what you'd expect in such a small motel.
+* Although the room is small, the decor is neutral and pleasant.
+* My partner found the breakfast acceptable. It included: 2 kinds of cereal, waffles, muffins, toast, 2 kinds of juice, and coffee.
+And now the negatives which greatly outweighed the positives for me:
+* Dirty bathroom with many hairs on the floor. Yuck.
+* Shower water temperature varied wildly from hot to cold.
+* No cold water in the bathroom faucet. My partner and I had to quickly wash our hands before the water completely warmed up, or we would have been scalded. A child could have easily been scalded.
+* VERY LOUD. We were in room 210, two rooms away from the Dennys which shares the parking lot. I was kept...I had an unpleasant experience at this motel and will not be returning. However, I acknowledge the motel had some good points, which I list first. It may be possible to have a decent experience here if you stay on the side furthest away from the Denny's, and if you check the plumbing first to make sure it works properly, and if you find the room to be acceptably clean.  But with so many hotel choices nearby, I wouldn't chance it.Positives (or Neutral) :* Unusually firm mattress* Refrigerator in room next size up from tiny* Microwave in room* Swimming pool that's larger than what you'd expect in such a small motel.* Although the room is small, the decor is neutral and pleasant.* My partner found the breakfast acceptable. It included: 2 kinds of cereal, waffles, muffins, toast, 2 kinds of juice, and coffee.And now the negatives which greatly outweighed the positives for me:* Dirty bathroom with many hairs on the floor. Yuck.* Shower water temperature varied wildly from hot to cold.* No cold water in the bathroom faucet. My partner and I had to quickly wash our hands before the water completely warmed up, or we would have been scalded. A child could have easily been scalded.* VERY LOUD. We were in room 210, two rooms away from the Dennys which shares the parking lot. I was kept up in the middle of the night (3:30 to after 4 am) by people blasting car radio and having loud conversations in the parking lot. I had no idea Dennys is open 24 hours a day, but found out the hard way.* A too small, tight parking lot.  We were okay b/c we were there on a Sunday night, but had we been there Saturday night when they were sold out, we would have had a problem.* I noticed a flea jumping on the bed. And as Dr. Phil said, "for every one you see there's a hundred you don't." That may have explained why a previous reviewer's family was bitten up at night.The cost was $96 a night (AAA discount), before taxes and fees. In my experience, motels in the L.A. area that cost under $100 are dives. I recommend staying away.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2007</t>
+  </si>
+  <si>
+    <t>I had an unpleasant experience at this motel and will not be returning. However, I acknowledge the motel had some good points, which I list first. It may be possible to have a decent experience here if you stay on the side furthest away from the Denny's, and if you check the plumbing first to make sure it works properly, and if you find the room to be acceptably clean.  But with so many hotel choices nearby, I wouldn't chance it.
+Positives (or Neutral) :
+* Unusually firm mattress
+* Refrigerator in room next size up from tiny
+* Microwave in room
+* Swimming pool that's larger than what you'd expect in such a small motel.
+* Although the room is small, the decor is neutral and pleasant.
+* My partner found the breakfast acceptable. It included: 2 kinds of cereal, waffles, muffins, toast, 2 kinds of juice, and coffee.
+And now the negatives which greatly outweighed the positives for me:
+* Dirty bathroom with many hairs on the floor. Yuck.
+* Shower water temperature varied wildly from hot to cold.
+* No cold water in the bathroom faucet. My partner and I had to quickly wash our hands before the water completely warmed up, or we would have been scalded. A child could have easily been scalded.
+* VERY LOUD. We were in room 210, two rooms away from the Dennys which shares the parking lot. I was kept...I had an unpleasant experience at this motel and will not be returning. However, I acknowledge the motel had some good points, which I list first. It may be possible to have a decent experience here if you stay on the side furthest away from the Denny's, and if you check the plumbing first to make sure it works properly, and if you find the room to be acceptably clean.  But with so many hotel choices nearby, I wouldn't chance it.Positives (or Neutral) :* Unusually firm mattress* Refrigerator in room next size up from tiny* Microwave in room* Swimming pool that's larger than what you'd expect in such a small motel.* Although the room is small, the decor is neutral and pleasant.* My partner found the breakfast acceptable. It included: 2 kinds of cereal, waffles, muffins, toast, 2 kinds of juice, and coffee.And now the negatives which greatly outweighed the positives for me:* Dirty bathroom with many hairs on the floor. Yuck.* Shower water temperature varied wildly from hot to cold.* No cold water in the bathroom faucet. My partner and I had to quickly wash our hands before the water completely warmed up, or we would have been scalded. A child could have easily been scalded.* VERY LOUD. We were in room 210, two rooms away from the Dennys which shares the parking lot. I was kept up in the middle of the night (3:30 to after 4 am) by people blasting car radio and having loud conversations in the parking lot. I had no idea Dennys is open 24 hours a day, but found out the hard way.* A too small, tight parking lot.  We were okay b/c we were there on a Sunday night, but had we been there Saturday night when they were sold out, we would have had a problem.* I noticed a flea jumping on the bed. And as Dr. Phil said, "for every one you see there's a hundred you don't." That may have explained why a previous reviewer's family was bitten up at night.The cost was $96 a night (AAA discount), before taxes and fees. In my experience, motels in the L.A. area that cost under $100 are dives. I recommend staying away.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r5597682-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
@@ -1242,9 +1813,6 @@
     <t>My family and I rented 3 rooms there last week, for 2 nights.  One room was alright but the other 2 were substandard.  The toilet overflowed in the room downstairs.  The room on the second floor was absolutely filthy!  The carpet was the worse I have ever seen and the chair was nasty looking.  I complained to the front desk and they said they wouyld get back to me.  Which they never did.  Upon checking out I spoke with the manager and he was unwilling to alter the bill in any way.  When I let him know I was intending on posting a negative review online about his hotel,  he indicated to me that he couldn't care less.   Stay away from this substandard  hotel and the very rude staff that work there!More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r5233791-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1264,9 +1832,6 @@
   </si>
   <si>
     <t>I was there on a  business trip.  I don't know why they had bad reviews.  The hotel looks like it has been upgraded.  I asked the front desk clerk, they said they have just finished remodeling and it's under new management.  I liked the interior of the room.  Nice wall-paper and bed sheets were very clean.  I liked it.  I thought it was as good as any five star hotel.  Good price for a room like that and I liked their breakfast.  It was a nice experience for me.  People were friendly and curtious at the front desk.  I think I will stay there if I go back to L.A. again.More</t>
-  </si>
-  <si>
-    <t>AZGirl68</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r4361769-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
@@ -1294,7 +1859,37 @@
 The disgusting room and rudeness of the staff ruined our trip. This was not a trip that could be easily repeated as my financial situation is very sad. My husband, the childrens father, had passed away about a year prior to this...My children (ages 5, 15, and 17) and I stayed at this hotel for two nights as we had business in the area. I also took them to Disneyland the first day of our stay. The hotel was gross. We were placed on the third floor facing the highway, even though other rooms were available. The walls looked like they had boogers and/or bodily fluids on them. The toilet was backed up and finally refused to flush at all in the end. The staff was informed of this and told me to come get a plunger! The beds were stained, but the sheets/blankets seemed clean. However, we were all bit by something during the night, possibly bedbugs(?) I'm not sure. The tv barely worked. The table was dirty and the chair upholstery was stained. The people in the next room were being very loud (---), and the staff called our room (at about midnight!) believing it was us that was being loud. This call came shortly after we returned from Disneyland, and my youngest was already asleep. I think it was because I had my three children with me that the staff assumed it was us making noise. The disgusting room and rudeness of the staff ruined our trip. This was not a trip that could be easily repeated as my financial situation is very sad. My husband, the childrens father, had passed away about a year prior to this trip and I was hoping they could enjoy themselves, unfortunately I chose this hotel because of the proximity to business I needed to attend to as well as the price. If we are fortunate enough to be able to afford another vacation I will stay at another hotel, for that matter, a different chain all together. And yes, I did complain to the main chain after we returned home and all that I received was a very insincere apology letter.More</t>
   </si>
   <si>
-    <t>ynp-CV</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r3801698-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>3801698</t>
+  </si>
+  <si>
+    <t>08/22/2005</t>
+  </si>
+  <si>
+    <t>Garbage Dump</t>
+  </si>
+  <si>
+    <t>The other reviews are correct. Unfortunately I didn't read them before I went. STAY AWAY!!!. The room smelled terribly of wet paint covering rotten walls. When I complained the staff gave me a room key to check another room. I accidentally walked in on a family that was already in that room. I went back to tell the staff and they gave me the key to another room. Well, guess what. Someone was in that room too! Finally I got one more key and was able to check out the room. It smelled the same. It was too late and we were too tired to go in search of another hotel. We had to ask for clean sheets. The sheets on the bed were dirty. We had to buy some air freshener to try to mask the smell. It didn't work. This place is a run down dump.MoreShow less</t>
+  </si>
+  <si>
+    <t>The other reviews are correct. Unfortunately I didn't read them before I went. STAY AWAY!!!. The room smelled terribly of wet paint covering rotten walls. When I complained the staff gave me a room key to check another room. I accidentally walked in on a family that was already in that room. I went back to tell the staff and they gave me the key to another room. Well, guess what. Someone was in that room too! Finally I got one more key and was able to check out the room. It smelled the same. It was too late and we were too tired to go in search of another hotel. We had to ask for clean sheets. The sheets on the bed were dirty. We had to buy some air freshener to try to mask the smell. It didn't work. This place is a run down dump.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r3696208-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>3696208</t>
+  </si>
+  <si>
+    <t>07/23/2005</t>
+  </si>
+  <si>
+    <t>Stay away!</t>
+  </si>
+  <si>
+    <t>I love Comfort Inns, but this was definitely not on par with the rest of the chain. It is located on a busy road--lots of traffic. The room was dirty and we had to ask for pillows for the beds as well as towels. Much to our dismay, we didn't discover the shower didn't work until the next morning when we had to cope with water temp. going from scalding to freezing and water pressure from a slight stream to drips. The staff was curt and unfriendly. Luckily, we only needed the room 1 night. I would not recommend this hotel.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82684-r3169341-Comfort_Inn_Near_Warner_Center-Los_Angeles_California.html</t>
@@ -1817,116 +2412,104 @@
       <c r="A2" t="n">
         <v>10408</v>
       </c>
-      <c r="B2" t="n">
-        <v>63194</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>3</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>10408</v>
       </c>
-      <c r="B3" t="n">
-        <v>162057</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>63</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1938,60 +2521,56 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
         <v>65</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>66</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>10408</v>
       </c>
-      <c r="B4" t="n">
-        <v>162058</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
         <v>69</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>70</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>71</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
         <v>72</v>
       </c>
-      <c r="L4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>74</v>
-      </c>
       <c r="O4" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2003,194 +2582,186 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>10408</v>
       </c>
-      <c r="B5" t="n">
-        <v>162059</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
         <v>79</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
         <v>80</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>81</v>
       </c>
-      <c r="J5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>85</v>
-      </c>
       <c r="O5" t="s">
-        <v>86</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>10408</v>
       </c>
-      <c r="B6" t="n">
-        <v>162060</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
         <v>88</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>89</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
         <v>90</v>
       </c>
-      <c r="J6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K6" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" t="s">
-        <v>93</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>94</v>
-      </c>
       <c r="O6" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>4</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="X6" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="Y6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>10408</v>
       </c>
-      <c r="B7" t="n">
-        <v>22459</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
         <v>97</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>98</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>99</v>
       </c>
-      <c r="K7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>94</v>
-      </c>
       <c r="O7" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2201,57 +2772,57 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" t="s">
+        <v>101</v>
+      </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>10408</v>
       </c>
-      <c r="B8" t="n">
-        <v>162061</v>
-      </c>
-      <c r="C8" t="s">
-        <v>103</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>104</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>105</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>106</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>107</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
         <v>108</v>
       </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>109</v>
-      </c>
       <c r="O8" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2262,103 +2833,103 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
+        <v>110</v>
+      </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>10408</v>
       </c>
-      <c r="B9" t="n">
-        <v>32759</v>
-      </c>
-      <c r="C9" t="s">
-        <v>110</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O9" t="s">
-        <v>102</v>
-      </c>
-      <c r="P9" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
       <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s">
+        <v>110</v>
+      </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>10408</v>
       </c>
-      <c r="B10" t="n">
-        <v>162062</v>
-      </c>
-      <c r="C10" t="s">
-        <v>118</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
         <v>119</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
         <v>120</v>
@@ -2373,120 +2944,120 @@
         <v>123</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>75</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" t="s">
+        <v>110</v>
+      </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10408</v>
       </c>
-      <c r="B11" t="n">
-        <v>162063</v>
-      </c>
-      <c r="C11" t="s">
-        <v>124</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>2</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>109</v>
+      </c>
+      <c r="X11" t="s">
+        <v>110</v>
+      </c>
       <c r="Y11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>10408</v>
       </c>
-      <c r="B12" t="n">
-        <v>162064</v>
-      </c>
-      <c r="C12" t="s">
-        <v>132</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
         <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
         <v>134</v>
@@ -2501,22 +3072,20 @@
         <v>137</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="O12" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>5</v>
@@ -2524,101 +3093,93 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>109</v>
+      </c>
+      <c r="X12" t="s">
+        <v>110</v>
+      </c>
       <c r="Y12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>10408</v>
       </c>
-      <c r="B13" t="n">
-        <v>57675</v>
-      </c>
-      <c r="C13" t="s">
-        <v>138</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="O13" t="s">
-        <v>86</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>10408</v>
       </c>
-      <c r="B14" t="n">
-        <v>63441</v>
-      </c>
-      <c r="C14" t="s">
-        <v>145</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
         <v>146</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
         <v>147</v>
@@ -2633,23 +3194,25 @@
         <v>150</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
         <v>151</v>
       </c>
       <c r="O14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2657,198 +3220,176 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>10408</v>
       </c>
-      <c r="B15" t="n">
-        <v>162065</v>
-      </c>
-      <c r="C15" t="s">
-        <v>153</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" t="s">
         <v>154</v>
       </c>
-      <c r="G15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>155</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>156</v>
-      </c>
-      <c r="K15" t="s">
-        <v>157</v>
-      </c>
-      <c r="L15" t="s">
-        <v>158</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O15" t="s">
-        <v>75</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>3</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>3</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>10408</v>
       </c>
-      <c r="B16" t="n">
-        <v>162066</v>
-      </c>
-      <c r="C16" t="s">
-        <v>160</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" t="s">
         <v>161</v>
       </c>
-      <c r="G16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="L16" t="s">
         <v>162</v>
       </c>
-      <c r="J16" t="s">
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
         <v>163</v>
       </c>
-      <c r="K16" t="s">
-        <v>164</v>
-      </c>
-      <c r="L16" t="s">
-        <v>165</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3</v>
-      </c>
-      <c r="N16" t="s">
-        <v>166</v>
-      </c>
       <c r="O16" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>1</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>10408</v>
       </c>
-      <c r="B17" t="n">
-        <v>162067</v>
-      </c>
-      <c r="C17" t="s">
-        <v>168</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" t="s">
+        <v>167</v>
+      </c>
+      <c r="L17" t="s">
+        <v>168</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
         <v>169</v>
       </c>
-      <c r="G17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" t="s">
-        <v>170</v>
-      </c>
-      <c r="J17" t="s">
-        <v>171</v>
-      </c>
-      <c r="K17" t="s">
-        <v>172</v>
-      </c>
-      <c r="L17" t="s">
-        <v>173</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="s">
-        <v>174</v>
-      </c>
       <c r="O17" t="s">
-        <v>75</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2856,133 +3397,117 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>10408</v>
       </c>
-      <c r="B18" t="n">
-        <v>466</v>
-      </c>
-      <c r="C18" t="s">
-        <v>176</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="O18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>10408</v>
       </c>
-      <c r="B19" t="n">
-        <v>162068</v>
-      </c>
-      <c r="C19" t="s">
-        <v>183</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="J19" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="K19" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="L19" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O19" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>3</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2990,199 +3515,179 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>10408</v>
       </c>
-      <c r="B20" t="n">
-        <v>162069</v>
-      </c>
-      <c r="C20" t="s">
-        <v>189</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="J20" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="K20" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="L20" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="O20" t="s">
-        <v>54</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>4</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>10408</v>
       </c>
-      <c r="B21" t="n">
-        <v>162070</v>
-      </c>
-      <c r="C21" t="s">
-        <v>196</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="J21" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="K21" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="L21" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="O21" t="s">
-        <v>86</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>10408</v>
       </c>
-      <c r="B22" t="n">
-        <v>191</v>
-      </c>
-      <c r="C22" t="s">
-        <v>202</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="J22" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="K22" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L22" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="O22" t="s">
-        <v>75</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R22" t="n">
         <v>5</v>
       </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
         <v>5</v>
@@ -3193,66 +3698,60 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>10408</v>
       </c>
-      <c r="B23" t="n">
-        <v>162071</v>
-      </c>
-      <c r="C23" t="s">
-        <v>208</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="J23" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="K23" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="L23" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
-      </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>204</v>
+      </c>
+      <c r="O23" t="s">
+        <v>124</v>
+      </c>
       <c r="P23" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
-      <c r="R23" t="n">
-        <v>3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3260,70 +3759,60 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>10408</v>
       </c>
-      <c r="B24" t="n">
-        <v>131478</v>
-      </c>
-      <c r="C24" t="s">
-        <v>214</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="J24" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="K24" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="O24" t="s">
-        <v>75</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
       <c r="R24" t="n">
-        <v>1</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3331,66 +3820,62 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>10408</v>
       </c>
-      <c r="B25" t="n">
-        <v>162072</v>
-      </c>
-      <c r="C25" t="s">
-        <v>222</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="J25" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="K25" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
-      </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>204</v>
+      </c>
+      <c r="O25" t="s">
+        <v>124</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3398,70 +3883,60 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>10408</v>
       </c>
-      <c r="B26" t="n">
-        <v>14489</v>
-      </c>
-      <c r="C26" t="s">
-        <v>228</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="J26" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="K26" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="O26" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" t="n">
-        <v>4</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3469,66 +3944,58 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>10408</v>
       </c>
-      <c r="B27" t="n">
-        <v>538</v>
-      </c>
-      <c r="C27" t="s">
-        <v>236</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="J27" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="K27" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="L27" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="O27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
         <v>3</v>
-      </c>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
@@ -3540,70 +4007,60 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>10408</v>
       </c>
-      <c r="B28" t="n">
-        <v>6902</v>
-      </c>
-      <c r="C28" t="s">
-        <v>242</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="J28" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="K28" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="L28" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="O28" t="s">
-        <v>54</v>
-      </c>
-      <c r="P28" t="n">
-        <v>4</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="n">
         <v>3</v>
       </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3611,212 +4068,176 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>10408</v>
       </c>
-      <c r="B29" t="n">
-        <v>162073</v>
-      </c>
-      <c r="C29" t="s">
-        <v>250</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="J29" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="K29" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="L29" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="O29" t="s">
-        <v>54</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
-      <c r="R29" t="n">
-        <v>4</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>4</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>10408</v>
       </c>
-      <c r="B30" t="n">
-        <v>1312</v>
-      </c>
-      <c r="C30" t="s">
-        <v>258</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="J30" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="K30" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="O30" t="s">
-        <v>75</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>4</v>
-      </c>
-      <c r="R30" t="n">
-        <v>3</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>4</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>10408</v>
       </c>
-      <c r="B31" t="n">
-        <v>162074</v>
-      </c>
-      <c r="C31" t="s">
-        <v>266</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="J31" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="K31" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="L31" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="O31" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="P31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>4</v>
-      </c>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3824,70 +4245,62 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>10408</v>
       </c>
-      <c r="B32" t="n">
-        <v>2385</v>
-      </c>
-      <c r="C32" t="s">
-        <v>273</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="J32" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="K32" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="O32" t="s">
-        <v>75</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="n">
         <v>5</v>
       </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
+      <c r="R32" t="s"/>
       <c r="S32" t="n">
         <v>5</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3895,70 +4308,62 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>10408</v>
       </c>
-      <c r="B33" t="n">
-        <v>162075</v>
-      </c>
-      <c r="C33" t="s">
-        <v>279</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="J33" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="K33" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="L33" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="O33" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
       <c r="S33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3966,626 +4371,572 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>10408</v>
       </c>
-      <c r="B34" t="n">
-        <v>162076</v>
-      </c>
-      <c r="C34" t="s">
-        <v>286</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="J34" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="K34" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="L34" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="O34" t="s">
-        <v>54</v>
-      </c>
-      <c r="P34" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>3</v>
-      </c>
-      <c r="R34" t="n">
-        <v>3</v>
-      </c>
-      <c r="S34" t="n">
-        <v>4</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>10408</v>
       </c>
-      <c r="B35" t="n">
-        <v>162077</v>
-      </c>
-      <c r="C35" t="s">
-        <v>293</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="J35" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="K35" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="O35" t="s">
-        <v>102</v>
-      </c>
-      <c r="P35" t="n">
-        <v>3</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="n">
         <v>4</v>
       </c>
       <c r="R35" t="n">
-        <v>3</v>
-      </c>
-      <c r="S35" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>1</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>10408</v>
       </c>
-      <c r="B36" t="n">
-        <v>162078</v>
-      </c>
-      <c r="C36" t="s">
-        <v>301</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="J36" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="K36" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="L36" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
-      <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+      <c r="N36" t="s">
+        <v>285</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>10408</v>
       </c>
-      <c r="B37" t="n">
-        <v>162079</v>
-      </c>
-      <c r="C37" t="s">
-        <v>307</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="J37" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="K37" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="L37" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="O37" t="s">
-        <v>54</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2</v>
-      </c>
-      <c r="R37" t="n">
-        <v>3</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>3</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>10408</v>
       </c>
-      <c r="B38" t="n">
-        <v>9723</v>
-      </c>
-      <c r="C38" t="s">
-        <v>313</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="J38" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="K38" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="M38" t="n">
-        <v>2</v>
-      </c>
-      <c r="N38" t="s"/>
-      <c r="O38" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>285</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
       <c r="P38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s">
-        <v>319</v>
-      </c>
-      <c r="X38" t="s">
-        <v>320</v>
-      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>10408</v>
       </c>
-      <c r="B39" t="n">
-        <v>162080</v>
-      </c>
-      <c r="C39" t="s">
-        <v>322</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="J39" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="K39" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="L39" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>301</v>
+      </c>
+      <c r="O39" t="s">
+        <v>145</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
         <v>3</v>
       </c>
-      <c r="N39" t="s">
-        <v>328</v>
-      </c>
-      <c r="O39" t="s">
-        <v>54</v>
-      </c>
-      <c r="P39" t="n">
+      <c r="S39" t="n">
         <v>2</v>
-      </c>
-      <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
-      <c r="S39" t="n">
-        <v>4</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>329</v>
-      </c>
-      <c r="X39" t="s">
-        <v>330</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>10408</v>
       </c>
-      <c r="B40" t="n">
-        <v>162081</v>
-      </c>
-      <c r="C40" t="s">
-        <v>332</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="J40" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="K40" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="L40" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="M40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="O40" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="P40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R40" t="n">
         <v>5</v>
       </c>
       <c r="S40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>339</v>
-      </c>
-      <c r="X40" t="s">
-        <v>340</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>10408</v>
       </c>
-      <c r="B41" t="n">
-        <v>162082</v>
-      </c>
-      <c r="C41" t="s">
-        <v>342</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="J41" t="s">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="K41" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="L41" t="s">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
-      <c r="N41" t="s">
-        <v>348</v>
-      </c>
-      <c r="O41" t="s">
-        <v>54</v>
-      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
       <c r="P41" t="n">
         <v>4</v>
       </c>
       <c r="Q41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>10408</v>
       </c>
-      <c r="B42" t="n">
-        <v>162083</v>
-      </c>
-      <c r="C42" t="s">
-        <v>350</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>352</v>
+        <v>315</v>
       </c>
       <c r="J42" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="K42" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="L42" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="O42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -4593,70 +4944,62 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>10408</v>
       </c>
-      <c r="B43" t="n">
-        <v>162084</v>
-      </c>
-      <c r="C43" t="s">
-        <v>357</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="J43" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="K43" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="L43" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
-      </c>
-      <c r="N43" t="s">
-        <v>363</v>
-      </c>
-      <c r="O43" t="s">
-        <v>54</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
       <c r="P43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4664,200 +5007,190 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>10408</v>
       </c>
-      <c r="B44" t="n">
-        <v>162085</v>
-      </c>
-      <c r="C44" t="s">
-        <v>365</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="J44" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="K44" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="L44" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="O44" t="s">
-        <v>86</v>
-      </c>
-      <c r="P44" t="s"/>
-      <c r="Q44" t="s"/>
-      <c r="R44" t="s"/>
-      <c r="S44" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
       <c r="T44" t="s"/>
-      <c r="U44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>372</v>
-      </c>
-      <c r="X44" t="s">
-        <v>373</v>
-      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>374</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>10408</v>
       </c>
-      <c r="B45" t="n">
-        <v>162086</v>
-      </c>
-      <c r="C45" t="s">
-        <v>375</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>377</v>
+        <v>334</v>
       </c>
       <c r="J45" t="s">
-        <v>378</v>
+        <v>335</v>
       </c>
       <c r="K45" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="L45" t="s">
-        <v>380</v>
+        <v>337</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>381</v>
+        <v>338</v>
       </c>
       <c r="O45" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="P45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s">
-        <v>382</v>
-      </c>
-      <c r="X45" t="s">
-        <v>383</v>
-      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>10408</v>
       </c>
-      <c r="B46" t="n">
-        <v>162087</v>
-      </c>
-      <c r="C46" t="s">
-        <v>385</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
       <c r="J46" t="s">
-        <v>388</v>
+        <v>341</v>
       </c>
       <c r="K46" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="L46" t="s">
-        <v>390</v>
+        <v>343</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>391</v>
+        <v>331</v>
       </c>
       <c r="O46" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="P46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R46" t="n">
         <v>4</v>
@@ -4867,7 +5200,7 @@
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4875,66 +5208,66 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>10408</v>
       </c>
-      <c r="B47" t="n">
-        <v>162088</v>
-      </c>
-      <c r="C47" t="s">
-        <v>393</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
       <c r="J47" t="s">
-        <v>396</v>
+        <v>347</v>
       </c>
       <c r="K47" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="L47" t="s">
-        <v>398</v>
+        <v>349</v>
       </c>
       <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="s"/>
-      <c r="O47" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>331</v>
+      </c>
+      <c r="O47" t="s">
+        <v>63</v>
+      </c>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -4942,68 +5275,66 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>10408</v>
       </c>
-      <c r="B48" t="n">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
-        <v>400</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>402</v>
+        <v>351</v>
       </c>
       <c r="J48" t="s">
-        <v>403</v>
+        <v>352</v>
       </c>
       <c r="K48" t="s">
-        <v>404</v>
+        <v>353</v>
       </c>
       <c r="L48" t="s">
-        <v>405</v>
+        <v>354</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>406</v>
+        <v>355</v>
       </c>
       <c r="O48" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q48" t="n">
-        <v>5</v>
-      </c>
-      <c r="R48" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
       <c r="S48" t="n">
         <v>5</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -5011,68 +5342,62 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>407</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>10408</v>
       </c>
-      <c r="B49" t="n">
-        <v>162089</v>
-      </c>
-      <c r="C49" t="s">
-        <v>408</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>409</v>
+        <v>357</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>410</v>
+        <v>358</v>
       </c>
       <c r="J49" t="s">
-        <v>411</v>
+        <v>359</v>
       </c>
       <c r="K49" t="s">
-        <v>412</v>
+        <v>360</v>
       </c>
       <c r="L49" t="s">
-        <v>413</v>
+        <v>361</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="s">
-        <v>414</v>
-      </c>
-      <c r="O49" t="s">
-        <v>54</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
       <c r="P49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
-      </c>
-      <c r="R49" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
       <c r="S49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -5080,64 +5405,2434 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>415</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>10408</v>
       </c>
-      <c r="B50" t="n">
-        <v>162090</v>
-      </c>
-      <c r="C50" t="s">
-        <v>416</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>417</v>
+        <v>363</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>418</v>
+        <v>364</v>
       </c>
       <c r="J50" t="s">
-        <v>419</v>
+        <v>365</v>
       </c>
       <c r="K50" t="s">
-        <v>420</v>
+        <v>366</v>
       </c>
       <c r="L50" t="s">
-        <v>421</v>
+        <v>367</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="s"/>
-      <c r="O50" t="s"/>
-      <c r="P50" t="s"/>
-      <c r="Q50" t="s"/>
-      <c r="R50" t="s"/>
-      <c r="S50" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>368</v>
+      </c>
+      <c r="O50" t="s">
+        <v>63</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
       <c r="T50" t="s"/>
-      <c r="U50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>369</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>370</v>
+      </c>
+      <c r="J51" t="s">
+        <v>371</v>
+      </c>
+      <c r="K51" t="s">
+        <v>372</v>
+      </c>
+      <c r="L51" t="s">
+        <v>373</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>374</v>
+      </c>
+      <c r="O51" t="s">
+        <v>63</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>376</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>377</v>
+      </c>
+      <c r="J52" t="s">
+        <v>378</v>
+      </c>
+      <c r="K52" t="s">
+        <v>379</v>
+      </c>
+      <c r="L52" t="s">
+        <v>380</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>381</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>383</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>384</v>
+      </c>
+      <c r="J53" t="s">
+        <v>385</v>
+      </c>
+      <c r="K53" t="s">
+        <v>386</v>
+      </c>
+      <c r="L53" t="s">
+        <v>387</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>388</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>389</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>390</v>
+      </c>
+      <c r="J54" t="s">
+        <v>385</v>
+      </c>
+      <c r="K54" t="s">
+        <v>161</v>
+      </c>
+      <c r="L54" t="s">
+        <v>391</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>388</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>392</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>393</v>
+      </c>
+      <c r="J55" t="s">
+        <v>394</v>
+      </c>
+      <c r="K55" t="s">
+        <v>395</v>
+      </c>
+      <c r="L55" t="s">
+        <v>396</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>388</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>397</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>398</v>
+      </c>
+      <c r="J56" t="s">
+        <v>399</v>
+      </c>
+      <c r="K56" t="s">
+        <v>400</v>
+      </c>
+      <c r="L56" t="s">
+        <v>401</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>388</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>402</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>403</v>
+      </c>
+      <c r="J57" t="s">
+        <v>404</v>
+      </c>
+      <c r="K57" t="s">
+        <v>405</v>
+      </c>
+      <c r="L57" t="s">
+        <v>406</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>407</v>
+      </c>
+      <c r="O57" t="s">
+        <v>124</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>408</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>409</v>
+      </c>
+      <c r="J58" t="s">
+        <v>410</v>
+      </c>
+      <c r="K58" t="s">
+        <v>411</v>
+      </c>
+      <c r="L58" t="s">
+        <v>412</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>407</v>
+      </c>
+      <c r="O58" t="s">
+        <v>63</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>414</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>415</v>
+      </c>
+      <c r="J59" t="s">
+        <v>416</v>
+      </c>
+      <c r="K59" t="s">
+        <v>417</v>
+      </c>
+      <c r="L59" t="s">
+        <v>418</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>407</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>419</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>420</v>
+      </c>
+      <c r="J60" t="s">
+        <v>421</v>
+      </c>
+      <c r="K60" t="s">
         <v>422</v>
+      </c>
+      <c r="L60" t="s">
+        <v>423</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>424</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>426</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>427</v>
+      </c>
+      <c r="J61" t="s">
+        <v>428</v>
+      </c>
+      <c r="K61" t="s">
+        <v>429</v>
+      </c>
+      <c r="L61" t="s">
+        <v>430</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>431</v>
+      </c>
+      <c r="O61" t="s">
+        <v>145</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>433</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>434</v>
+      </c>
+      <c r="J62" t="s">
+        <v>435</v>
+      </c>
+      <c r="K62" t="s">
+        <v>436</v>
+      </c>
+      <c r="L62" t="s">
+        <v>437</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>438</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>439</v>
+      </c>
+      <c r="J63" t="s">
+        <v>440</v>
+      </c>
+      <c r="K63" t="s">
+        <v>441</v>
+      </c>
+      <c r="L63" t="s">
+        <v>442</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>431</v>
+      </c>
+      <c r="O63" t="s">
+        <v>63</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>443</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>444</v>
+      </c>
+      <c r="J64" t="s">
+        <v>445</v>
+      </c>
+      <c r="K64" t="s">
+        <v>446</v>
+      </c>
+      <c r="L64" t="s">
+        <v>447</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>431</v>
+      </c>
+      <c r="O64" t="s">
+        <v>63</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>448</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>449</v>
+      </c>
+      <c r="J65" t="s">
+        <v>450</v>
+      </c>
+      <c r="K65" t="s">
+        <v>451</v>
+      </c>
+      <c r="L65" t="s">
+        <v>452</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>453</v>
+      </c>
+      <c r="O65" t="s">
+        <v>187</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>454</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>455</v>
+      </c>
+      <c r="J66" t="s">
+        <v>456</v>
+      </c>
+      <c r="K66" t="s">
+        <v>457</v>
+      </c>
+      <c r="L66" t="s">
+        <v>458</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>459</v>
+      </c>
+      <c r="X66" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>462</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>463</v>
+      </c>
+      <c r="J67" t="s">
+        <v>464</v>
+      </c>
+      <c r="K67" t="s">
+        <v>465</v>
+      </c>
+      <c r="L67" t="s">
+        <v>466</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>424</v>
+      </c>
+      <c r="O67" t="s">
+        <v>63</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>467</v>
+      </c>
+      <c r="X67" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>470</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>471</v>
+      </c>
+      <c r="J68" t="s">
+        <v>472</v>
+      </c>
+      <c r="K68" t="s">
+        <v>473</v>
+      </c>
+      <c r="L68" t="s">
+        <v>474</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>475</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>2</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>2</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>476</v>
+      </c>
+      <c r="X68" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>479</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>480</v>
+      </c>
+      <c r="J69" t="s">
+        <v>481</v>
+      </c>
+      <c r="K69" t="s">
+        <v>482</v>
+      </c>
+      <c r="L69" t="s">
+        <v>483</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>484</v>
+      </c>
+      <c r="O69" t="s">
+        <v>63</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>486</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>487</v>
+      </c>
+      <c r="J70" t="s">
+        <v>488</v>
+      </c>
+      <c r="K70" t="s">
+        <v>489</v>
+      </c>
+      <c r="L70" t="s">
+        <v>490</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>491</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>492</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>493</v>
+      </c>
+      <c r="J71" t="s">
+        <v>494</v>
+      </c>
+      <c r="K71" t="s">
+        <v>495</v>
+      </c>
+      <c r="L71" t="s">
+        <v>496</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>497</v>
+      </c>
+      <c r="O71" t="s">
+        <v>63</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>499</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>500</v>
+      </c>
+      <c r="J72" t="s">
+        <v>501</v>
+      </c>
+      <c r="K72" t="s">
+        <v>502</v>
+      </c>
+      <c r="L72" t="s">
+        <v>503</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>504</v>
+      </c>
+      <c r="O72" t="s">
+        <v>63</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>505</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>506</v>
+      </c>
+      <c r="J73" t="s">
+        <v>507</v>
+      </c>
+      <c r="K73" t="s">
+        <v>508</v>
+      </c>
+      <c r="L73" t="s">
+        <v>509</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>510</v>
+      </c>
+      <c r="O73" t="s">
+        <v>63</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>512</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>513</v>
+      </c>
+      <c r="J74" t="s">
+        <v>514</v>
+      </c>
+      <c r="K74" t="s">
+        <v>515</v>
+      </c>
+      <c r="L74" t="s">
+        <v>516</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>517</v>
+      </c>
+      <c r="O74" t="s">
+        <v>63</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>518</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>519</v>
+      </c>
+      <c r="J75" t="s">
+        <v>520</v>
+      </c>
+      <c r="K75" t="s">
+        <v>521</v>
+      </c>
+      <c r="L75" t="s">
+        <v>522</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>517</v>
+      </c>
+      <c r="O75" t="s">
+        <v>187</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>524</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>525</v>
+      </c>
+      <c r="J76" t="s">
+        <v>526</v>
+      </c>
+      <c r="K76" t="s">
+        <v>527</v>
+      </c>
+      <c r="L76" t="s">
+        <v>528</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>529</v>
+      </c>
+      <c r="O76" t="s">
+        <v>124</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>530</v>
+      </c>
+      <c r="X76" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>533</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>534</v>
+      </c>
+      <c r="J77" t="s">
+        <v>535</v>
+      </c>
+      <c r="K77" t="s">
+        <v>536</v>
+      </c>
+      <c r="L77" t="s">
+        <v>537</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>538</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>539</v>
+      </c>
+      <c r="X77" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>542</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>543</v>
+      </c>
+      <c r="J78" t="s">
+        <v>544</v>
+      </c>
+      <c r="K78" t="s">
+        <v>545</v>
+      </c>
+      <c r="L78" t="s">
+        <v>546</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>547</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>549</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>550</v>
+      </c>
+      <c r="J79" t="s">
+        <v>551</v>
+      </c>
+      <c r="K79" t="s">
+        <v>552</v>
+      </c>
+      <c r="L79" t="s">
+        <v>553</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>554</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>555</v>
+      </c>
+      <c r="X79" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>558</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>559</v>
+      </c>
+      <c r="J80" t="s">
+        <v>560</v>
+      </c>
+      <c r="K80" t="s">
+        <v>561</v>
+      </c>
+      <c r="L80" t="s">
+        <v>562</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>563</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>565</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>566</v>
+      </c>
+      <c r="J81" t="s">
+        <v>567</v>
+      </c>
+      <c r="K81" t="s">
+        <v>568</v>
+      </c>
+      <c r="L81" t="s">
+        <v>569</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>571</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>572</v>
+      </c>
+      <c r="J82" t="s">
+        <v>573</v>
+      </c>
+      <c r="K82" t="s">
+        <v>574</v>
+      </c>
+      <c r="L82" t="s">
+        <v>575</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>576</v>
+      </c>
+      <c r="O82" t="s">
+        <v>63</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>578</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>579</v>
+      </c>
+      <c r="J83" t="s">
+        <v>580</v>
+      </c>
+      <c r="K83" t="s">
+        <v>581</v>
+      </c>
+      <c r="L83" t="s">
+        <v>582</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>583</v>
+      </c>
+      <c r="O83" t="s">
+        <v>63</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="s"/>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>585</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>586</v>
+      </c>
+      <c r="J84" t="s">
+        <v>587</v>
+      </c>
+      <c r="K84" t="s">
+        <v>588</v>
+      </c>
+      <c r="L84" t="s">
+        <v>589</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>1</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>591</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>592</v>
+      </c>
+      <c r="J85" t="s">
+        <v>593</v>
+      </c>
+      <c r="K85" t="s">
+        <v>594</v>
+      </c>
+      <c r="L85" t="s">
+        <v>595</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>1</v>
+      </c>
+      <c r="R85" t="s"/>
+      <c r="S85" t="n">
+        <v>1</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>10408</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>596</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>597</v>
+      </c>
+      <c r="J86" t="s">
+        <v>598</v>
+      </c>
+      <c r="K86" t="s">
+        <v>599</v>
+      </c>
+      <c r="L86" t="s">
+        <v>600</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>601</v>
       </c>
     </row>
   </sheetData>
